--- a/server/Jagran_Punjab.xlsx
+++ b/server/Jagran_Punjab.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Heading</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Updated_Date</t>
   </si>
   <si>
     <t>URL</t>
@@ -31,10 +31,10 @@
     <t>Punjab Top 5 News: Red alert in Punjab regarding G20 Summit, encounter between police and gangsters in Batala</t>
   </si>
   <si>
-    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read 'Punjab Top 5 News', where you will be aware of every big news related to Punjab, because some events directly impact our lives... G20 Summit Red alert has been issued in Punjab to make the peaceful organization of G20 Summit in Delhi a success. Punjab Police has increased security across the state. On the instructions of Acting DGP Gaurav Yadav, flag march was also taken out from 9 am to 11 am at all sensitive places of 28 police districts. Read full news here...CM Mann spoke at SI appointment program, said- 'I would rather eat sulfas than eat even a single rupee of people' Chief Minister Bhagwant Singh Mann attacked the opposition by distorting the facts. Accusing him of presenting, he said that he is not able to digest the smile on the faces of those youth who have got jobs. He would rather eat sulfas than eat even a single rupee of people. He said that he will never make any deal with Punjabis by lying. Read full news here... Encounter between police and gangsters in Batala, Gurdaspur, one criminal injured. There was an encounter between police and gangsters in Batala, Punjab on Saturday. Around 60 bullets were fired in the encounter between police and gangsters. A gangster was shot and injured during a police encounter. Meanwhile, the police controlled four miscreants. Read the full news here... Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected. Sant Jarnail, the main conspirator in the case of shooting death of Sant Dayal Das in Dera Har Ka Das, Faridkot in November 2019. Giving a big blow to Singh, the Punjab-Haryana High Court has rejected his anticipatory bail plea. Read the full news here...Gangster involved in the murder of Kabaddi player Sandeep Nangal arrested in Delhi, Punjab will come on production warrant. Harry, the gangster involved in the murder of Kabaddi player Sandeep Nangal, has been arrested by the Special Cell of Delhi Police. Gangster Harry is most wanted in many cities of Punjab. Harry is an associate of Tihar jailed gangster Kaushal. Jalandhar Police will bring Gangster Harry on production warrant. Full news here</t>
-  </si>
-  <si>
-    <t>punjab</t>
+    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read 'Punjab Top 5 News', where you will be aware of every big news related to Punjab, because some events directly impact our lives... G20 Summit Red alert has been issued in Punjab to make the peaceful organization of G20 Summit in Delhi a success. Punjab Police has increased security across the state. On the instructions of Acting DGP Gaurav Yadav, flag march was also taken out from 9 am to 11 am at all sensitive places of 28 police districts. Read full news here...CM Mann spoke at SI appointment program, said- 'I would rather eat sulfas than eat even a single rupee of people' Chief Minister Bhagwant Singh Mann attacked the opposition by distorting the facts. Accusing him of presenting, he said that he is not able to digest the smile on the faces of those youth who have got jobs. He would rather eat sulfas than eat even a single rupee of people. He said that he will never make any deal with Punjabis by lying. Read full news here... Encounter between police and gangsters in Batala, Gurdaspur, one criminal injured. There was an encounter between police and gangsters in Batala, Punjab on Saturday. Around 60 bullets were fired in the encounter between police and gangsters. A gangster was shot and injured during a police encounter. Meanwhile, the police controlled four miscreants. Read the full news here... Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected. Sant Jarnail, the main conspirator in the case of shooting death of Sant Dayal Das in Dera Har Ka Das, Faridkot in November 2019. Giving a big blow to Singh, the Punjab-Haryana High Court has rejected his anticipatory bail plea. Read full news here...Gangster involved in the murder of Kabaddi player Sandeep Nangal arrested in Delhi, Punjab will come on production warrant Gangster Harry involved in the murder of Kabaddi player Sandeep Nangal has been arrested by the Special Cell of Delhi Police. Gangster Harry is most wanted in many cities of Punjab. Harry is an associate of Tihar jailed gangster Kaushal. Jalandhar Police will bring Gangster Harry on production warrant. Full news here</t>
+  </si>
+  <si>
+    <t>Updated: Sun, 10 Sep 2023 08:12 AM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-red-alert-issue-in-punjab-and-encounter-between-police-and-gangsters-in-batala-read-top-5-news-of-punjab-23526312.html</t>
@@ -43,7 +43,10 @@
     <t>Punjab Top 5 News: CM Mann will give appointment letters to 560 sub inspectors, preparations for reshuffle in Punjab BJP</t>
   </si>
   <si>
-    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read 'Punjab Top 5 News', where you will be aware of every big news related to Punjab, because some events directly impact our lives...CM Bhagwant Mann gave appointment letters to 710 Patwaris, increased the allowance for training three times. Punjab CM Bhagwant Mann gave appointment letters to a total of 710 Patwaris in Chandigarh. Also, during the program, he has increased the allowance for the training Patwaris of Punjab by three times. Read full news here... Preparations for reshuffle in Punjab BJP, Jakhar discussed with Nadda. There is going to be a reshuffle in Punjab BJP soon. State President Sunil Jakhar has talked to the party's national president JP Nadda regarding changes in the organization. However, BJP state in-charge Vijay Rupani was not present in this meeting. It is believed that BJP can form the state executive any time after September 10. Read the full news here... CM Bhagwant Mann will hand over appointment letters to 560 sub inspectors today. The Chief Minister will hand over appointment letters to 560 sub inspectors of General Duty, but 267 technical and supporting service category sub inspectors will have to wait for a while. There will also be political stir due to Chief Minister Bhagwant Mann's visit to Jalandhar. Read full news here...Punjab AGTF gets big success, three henchmen of gangster Sonu Khatri arrested. Anti Gangster Task Force of Punjab Police, by conducting a joint operation with central agencies, has arrested three shooters absconding from India-Nepal border and Gurugram. Punjab Director General of Police Gaurav Yadav said that out of the three arrested accused, one person has been caught from the India-Nepal border. Read full news here...Punjab Police raided 822 hideouts of gangsters, action taken in 28 districts. To make Punjab a crime-free state, Punjab Police raided suspected hideouts of gangsters' associates across the state. This raid was conducted on the instructions of Director General of Police (DGP) Punjab Gaurav Yadav. Read the full news here... Also read: There are many complications in seat sharing between Congress and AAP, Punjab is not at all ready for alliance. CM Bhagwant Mann gave appointment letters to 710 Patwaris, extended the time for training.</t>
+    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read 'Punjab Top 5 News', where you will be aware of every big news related to Punjab, because some events directly impact our lives...CM Bhagwant Mann gave appointment letters to 710 Patwaris, increased the allowance for training three times. Punjab CM Bhagwant Mann gave appointment letters to a total of 710 Patwaris in Chandigarh. Also, during the program, he has increased the allowance for the training Patwaris of Punjab by three times. Read full news here... Preparations for reshuffle in Punjab BJP, Jakhar discussed with Nadda. There is going to be a reshuffle in Punjab BJP soon. State President Sunil Jakhar has talked to the party's national president JP Nadda regarding changes in the organization. However, BJP state in-charge Vijay Rupani was not present in this meeting. It is believed that BJP can form the state executive any time after September 10. Read the full news here... CM Bhagwant Mann will hand over appointment letters to 560 sub inspectors today. The Chief Minister will hand over appointment letters to 560 sub inspectors of General Duty, but 267 technical and supporting service category sub inspectors will have to wait for a while. There will also be political stir due to Chief Minister Bhagwant Mann's visit to Jalandhar. Read full news here...Punjab AGTF gets big success, three henchmen of gangster Sonu Khatri arrested. Anti Gangster Task Force of Punjab Police, by conducting a joint operation with central agencies, has arrested three shooters absconding from India-Nepal border and Gurugram. Punjab Director General of Police Gaurav Yadav said that out of the three arrested accused, one person has been caught from the India-Nepal border. Read full news here...Punjab Police raided 822 hideouts of gangsters, action taken in 28 districts. To make Punjab a crime-free state, Punjab Police raided suspected hideouts of gangsters' associates across the state. This raid was conducted on the instructions of Director General of Police (DGP) Punjab Gaurav Yadav. Read the full news here... Read this also: There are many complications in seat sharing between Congress and AAP, Punjab is not at all ready for alliance Congress CM Bhagwant Mann gave appointment letters to 710 Patwaris, extended time for training</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 09:17 AM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-cm-mann-will-hand-over-appointment-letters-to-560-sub-inspectors-read-top-5-news-of-punjab-23525548.html</t>
@@ -52,382 +55,529 @@
     <t>Punjab Top 5 latest News: CM Bhagwant Mann tightened his belt regarding stubble, historian Professor Prithi Singh Kapoor is no more</t>
   </si>
   <si>
-    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read Punjab Top 5 News, where you will be exposed to every big news related to Punjab...Man government in action before Diwali, 334 nodal officers appointed to stop stubble burning in the state. The government has started adopting a strict attitude to stop the incidents of stubble burning. To stop stubble burning, 334 nodal officers have been appointed in the districts. 38 nodal officers have been appointed in sub division Nihal Singh Wala, 88 in Moga, 56 in Baghapurana and 151 in Dharamkot. Read the full news here...Drought will remain in Punjab for 5 days, light rain is expected in some areas. According to Meteorological Center Chandigarh, the weather will remain dry in Punjab in the coming five days, along with this there will be strong sunlight, due to which people will be troubled by the heat. Can happen. At the same time, there is a possibility of light to moderate rain in some parts of the state. Read full news here... Historian Professor Prithipal Singh Kapoor is no more, CM Bhagwant Mann expressed grief. Punjab's historian Professor Prithipal Singh Kapoor passed away. His last rites were performed at Sunet crematorium in the evening. Prithipal Singh Kapoor was suffering from heart diseases. At the same time, state CM Bhagwant Mann has expressed grief over his demise. Read full news here... Faridkot: A neighbor took a teenage girl on the pretext of taking her, got her prostituted for five days, case registered against four people including two women. In Faridkot, a teenage girl was taken away from her home to a neighbor on the pretext and she was raped and raped for five days. Got the business done. After the complaint, the police have registered a case against four people including two women. However, no arrest has been made on this yet. Read full news here...Ludhiana News: NRI's wife murdered in Khanna, threats given to husband and son after murder. An NRI's wife was murdered with a sharp weapon in Payal police station area of ​​Khanna district of Punjab. After the murder, threats were also made through the woman's phone to her husband and son sitting abroad. Read the full news here... Also read: Patiala News: PU's Center for Distance and Online Education department did not get permission for admission. To stop the incidents of stubble burning in the state, the government has started adopting a strict attitude. 334 nodal officers appointed in districts to stop stubble burning</t>
+    <t>In the hustle and bustle of everyday life, big news may remain untouched by us. Therefore, to stay updated with the big news of Punjab state, read Punjab Top 5 News, where you will be aware of every big news related to Punjab...Man government in action before Diwali, 334 nodal officers appointed to stop stubble burning. The government has started adopting a strict attitude to stop the incidents of stubble burning. To stop stubble burning, 334 nodal officers have been appointed in the districts. 38 nodal officers have been appointed in sub division Nihal Singh Wala, 88 in Moga, 56 in Baghapurana and 151 in Dharamkot. Read the full news here...Drought will remain in Punjab for 5 days, light rain is expected in some areas. According to Meteorological Center Chandigarh, the weather will remain dry in Punjab in the coming five days, along with this there will be strong sunlight, due to which people will be troubled by the heat. Can happen. At the same time, there is a possibility of light to moderate rain in some parts of the state. Read full news here... Historian Professor Prithipal Singh Kapoor is no more, CM Bhagwant Mann expressed grief. Punjab's historian Professor Prithipal Singh Kapoor passed away. His last rites were performed at Sunet crematorium in the evening. Prithipal Singh Kapoor was suffering from heart diseases. At the same time, state CM Bhagwant Mann has expressed grief over his demise. Read the full news here... Faridkot: A neighbor took a teenage girl on the pretext of taking her, got her prostituted for five days, case registered against four including two women. In Faridkot, a teenage girl was taken away from her home to a neighbor on the pretext of prostitution and the girl was raped and raped for five days. Got the business done. After the complaint, the police have registered a case against four people including two women. However, no arrest has been made on this yet. Read full news here...Ludhiana News: NRI's wife murdered in Khanna, threats given to husband and son after murder. An NRI's wife was murdered with a sharp weapon in Payal police station area of ​​Khanna district of Punjab. After the murder, threats were also made through the woman's phone to her husband and son sitting abroad. Read the full news here... Also read: Patiala News: PU's Center for Distance and Online Education department did not get permission for admission. To stop the incidents of stubble burning in the state, the government has started adopting a strict attitude. 334 nodal officers appointed in districts to stop stubble burning</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 09:47 AM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-cm-mann-appointed-officer-regarding-stubble-and-historian-prithi-singh-kapoor-died-know-top-5-punjab-news-23524751.html</t>
   </si>
   <si>
-    <t>Punjab Weather Today: Cases of stubble burning increased, challan issued for 72 FIR-2256 in Haryana; Chances of rain in the next 5 days</t>
-  </si>
-  <si>
-    <t>Jagran Team, Chandigarh. (Punjab-Haryana Stubble burning cases Increase) 1776 incidents of stubble burning were recorded in Punjab on Tuesday, taking the total number of field fires to 28117. Due to increasing figures of stubble burning after Diwali, the air quality index (AQI) of major cities has once again gone into 'poor' and 'very poor' category. Bathinda's AQI was 55 a day before Diwali, which was 55 in the state on Tuesday. Reached the highest of 391 in 2017. 639 cases were reported in the state on November 9, six on November 10, 104 on November 11, 987 on November 12 and 1624 on November 13. Paddy harvesting is almost over in the state. At many places including Bathinda, Mansa, 15 percent harvesting is still left. Only 15 percent harvesting is left in Sangrur, Barnala, Bathinda, Mansa. Wheat sowing is also starting. In such a situation, farmers have very little time left. There is a fear that instead of disposing of the stubble lying in the fields, farmers will now burn it. Also read: Nihang Singh, who declared Baba Balbir Singh as Jathedar, turns out to be a government employee, will soon be on Shri Akal Takht. Cases of stubble burning in Haryana too Due to this increase in the figures of stubble burning, the climate of the state may become worse. There has been a rise in cases of stubble burning in Haryana also. More than 200 cases of stubble burning have been reported in the last four days. Although 95 percent paddy has been harvested in the state, cases of stubble burning have decreased by 39 percent compared to last year. 72 FIRs registered; Challans issued to 2256 farmers: 72 FIRs have been registered for burning stubble and challans have been issued to 2256 farmers. A fine of Rs 5.5 lakh has been imposed on the accused farmers. Farmers burnt stubble at 27 places on the day of Chhoti Diwali and at 110 places on the day of Diwali. The next day, crop residues were burnt at 44 places. During this period, the climate of the state also became suffocating due to continuous fireworks. Especially the AQI of NCR's Gurugram and Faridabad remained in the worst category. There will be a ban on BS-3 petrol and BS-4 diesel vehicles in the NCR areas of Haryana till November 30. Chances of rain for 5 days, weather will remain dry. Chances of rain for 5 days. Ludhiana weather will remain dry for the next one week. During this period, no significant change will be seen in the minimum temperature. According to Dr. PK Kingra, Head of the Meteorological Department of Punjab Agricultural University (PAU), light fog was observed in some parts of the state in the morning.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-weather-today-stubble-burning-cases-increased-in-punjab-72-fir-2256-challans-issued-in-haryana-chances-of-rain-in-the-next-5-days-23580556.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Next hearing of 5994 recruitment related case now on December 12, appeal to complete the process soon</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. During the hearing of the case related to the recruitment of 5994 teachers in the Punjab and Haryana High Court today, the Punjab Government appealed to the court to decide the matter quickly in order to complete the recruitment process soon. Giving information regarding this matter, a spokesperson of the Punjab Government said that the case regarding recruitment of 5994 teachers was listed for hearing today before the double bench led by Honorable Justice Deepak Sibal and Honorable Justice Sukhwinder Kaur. This matter will also be heard in the Supreme Court. Senior Deputy Advocate General Ramandeep Singh Pandher appeared for the Punjab Government during the hearing. He requested the Honorable Court that it is very important for the Punjab Government to complete this recruitment process soon because this will help in overcoming the shortage of teachers in those schools of the state where at present only one teacher is running the school. He also requested that this matter is also under hearing in the Supreme Court. The next hearing is scheduled on December 12, 2023. If its decision is not given soon, then the Honorable High Court should give an interim decision in this regard, so that this recruitment process can be completed. He also requested the court to fix the next hearing of this case as soon as possible, which was accepted by the court and the next hearing of this case has been fixed on December 12, 2023. It is worth mentioning that the hearing of the case related to this case The hearing was completed and the judgment was reserved by the Constitutional Bench of the Supreme Court on July 27, 2023. During the hearing, Senior Deputy Advocate General Ramandeep Singh Pandher appeared for the Punjab Government. He requested the Honorable Court that it is very important for the Punjab Government to complete this recruitment process soon because this will help in overcoming the shortage of teachers in those schools of the state where at present only one teacher is running the school. He also requested that this matter is also under hearing in the Supreme Court. The next hearing is scheduled on December 12, 2023. If its decision is not given soon, then the Honorable High Court should give an interim decision in this regard, so that this recruitment process can be completed. He also requested the court to fix the next hearing of this case as soon as possible, which was accepted by the court and the next hearing of this case has been fixed on December 12, 2023. It is worth mentioning that the hearing of the case related to this case Constitutional bench of Supreme Court</t>
+    <t>Punjab News: AAP government's 'Vikas Kranti Rally' in Hoshiarpur, will inaugurate development projects worth Rs 900 crore</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. CM Kejriwal and Bhagwant Mann: Delhi Chief Minister Arvind Kejriwal and Punjab Chief Minister Bhagwant Mann will inaugurate and lay the foundation stone of development projects worth Rs 900 crore in Hoshiarpur, Punjab. In fact, the Aam Aadmi Party (AAP) government will inaugurate projects worth Rs 900 crore. A mega 'Vikas Kranti Rally' is going to be organized in Hoshiarpur today i.e. on 18th November. Chief Minister Bhagwant Mann will inaugurate projects worth about Rs 900 crore in Doaba on Saturday. The chief guest of this program will be AAP's national convenor and Delhi Chief Minister Arvind Kejriwal. Medical hub will make Punjab proud. Party's chief spokesperson Malvinder Kang said that AAP's Punjab government will bring development revolution to take Punjab forward on the new path of development. Has been. Projects worth Rs 867.68 crore will be given impetus in this 'Vikas Kranti Rally'. AAP spokesperson said that during the Ukraine crisis, we saw how many of our children were studying medicine there and were trapped in the war zone. Therefore CM Mann decided to make Punjab the medical hub of India. He said that the Hon'ble Government is doing extraordinary and unprecedented work in the health sector. Will lay the foundation stone of a Government Medical Hospital and will open about 700 Mohalla Clinics where lakhs of people are getting free and quality treatment. Apart from this, government hospitals are being upgraded and preparations are being made to open new medical colleges in every district of Punjab. This will help in improving the medical and health sector of Punjab. Kang said that tomorrow both the Chief Ministers will lay the foundation stone of a new government medical hospital in Hoshiarpur. Also read- Punjab News: CM Mann gave a gift on the occasion of Diwali, recruitment process will start soon for 1450 new posts in the police department, Mann government is complete. Will do all these projects In the presence of thousands of people of Punjab, the AAP government is going to start many new projects in 10 assembly constituencies of Doaba and dedicate the completed projects to the public. Kang said that along with this, the Chief Minister will also lay the foundation stone of an Army Training Institute. Two villages of Hoshiarpur will also get new sewerage and water sanitation projects and vacant panchayat land in 23 villages of Hoshiarpur will be converted into sports grounds. He said that the Honorable Government will ensure the welfare of the people of Punjab.</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 18 Nov 2023 08:08 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-aap-government-vikas-kranti-rally-in-hoshiarpur-will-inaugurate-development-projects-of-900-crore-23583140.html</t>
+  </si>
+  <si>
+    <t>Punjab Nagar Nigam Election: Election bugle of 5-5 Municipal Corporation can sound any time, notification likely to come next week</t>
+  </si>
+  <si>
+    <t>Kailash Nath, Chandigarh. 5 municipal corporation elections can be announced any time in Punjab. The State Election Commission has made preparations for this. The commission can issue notification for the elections of Ludhiana, Jalandhar, Amritsar, Phagwara and Patiala Municipal Corporation any time next week. These elections will be held only after the results of the assembly elections of five states are declared on December 3. The important thing is that the Punjab government is in no mood to conduct the elections of Municipal Corporation and 39 Municipal Councils and Nagar Panchayats simultaneously. The local government had issued a notification to the State Election Commission to conduct elections of 5 Municipal Corporations by 15 November 2023. . High level sources say that the State Election Commission may issue a notification next week regarding holding of Municipal Corporation elections. There will be separate elections for Municipal Corporation and Municipal Council, the government has also given its approval for this. According to the information, the Election Commission will not conduct Municipal Corporation and Municipal Council elections simultaneously, because by-elections are to be held in wards of 39 Municipal Councils and 27 Municipal Councils in the state. The local government had approved holding elections here on August 3, 2023 itself. However, the government seems to be in no mood to go to elections on such a large scale. Therefore, municipal corporation elections will be conducted first. At the same time, Aam Aadmi Party has also put forth its strength in view of these elections. The Vikas Kranti rally to be held in Hoshiarpur on November 18 is also a part of this policy of the party. Even though elections are not to be held in Hoshiarpur, elections are to be held for Phagwara Municipal Corporation adjacent to it. At the same time, the Hoshiarpur rally will also impact Phagwara and Jalandhar. Phagwara Municipal Corporation is also important for the government because in 2022, when AAP's tsunami was going on in the entire Punjab, Congress MLAs had won from Phagwara seat. The elections to be held in 5 municipal corporations are considered very important for all political parties. The elections may be held at the local level but its results may also impact the upcoming Lok Sabha elections. This is the reason why no political party is taking these elections lightly. These elections will be held only after the results of the assembly elections of five states are declared on 3 December. The important thing is that the Punjab government is in no mood to conduct the elections of Municipal Corporation and 39 Municipal Councils and Nagar Panchayats simultaneously. The local government had issued a notification to the State Election Commission to conduct elections of 5 Municipal Corporations by 15 November 2023. . High level sources say that Ra</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 07:29 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-municipal-corporation-election-2023-five-districts-in-punjab-soon-23582826.html</t>
+  </si>
+  <si>
+    <t>Termites infested files, some went missing; So some theft...High Court closed 23 year old case due to non availability of records</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. The Punjab and Haryana High Court closed the hearing of a nearly 23-year-old case only on the ground that no records existed in that case. The High Court said that because despite all possible efforts, the records of this case could not be traced. Justice Anup Chitkara said that looking at the pile of files, if some files get lost, stolen, eaten by termites. It would not be unusual if they go, or mix with others. In view of this, the only option available to this Court is to close this petition, liberty is reserved to any party to revive it by filing an application by keeping the reconstructed records. Complete records could not be found...These comments are from the Prevention of Corruption Act The case came in response to a review petition filed by the State of Punjab in 2000 in the related case. It was reported that the accused was convicted in 2012 and sentenced to two years of imprisonment. However, the court was informed that despite all efforts, the records of the case could not be traced. Considering the submissions, the High Court said that a detailed office report setting out the efforts made and steps taken to reconstruct the records shows that the record is not available for reconstitution despite all possible efforts. Petitioners are free to apply again. The office report said that despite the matter being so old, the petitioner has never filed any application for expediting its decision. Justice Chitkara further said, Perhaps the initial delay lost all hopes and the failure to take a decision in due time perhaps thwarted hopes of justice. The court disposed of the petition saying that the only option before this court is to close this petition, any party has the liberty to revive it by filing an application with reconstructed records. Justice Anup Chitkara said that the files Looking at the pile it would not be unusual if some files get lost, stolen, eaten by termites, or mixed in with others. In view of this, the only option left for this court is to close this petition,</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 05:19 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-haryana-high-court-closed-the-23-years-old-case-because-records-not-found-23582723.html</t>
+  </si>
+  <si>
+    <t>Punjab Politics: Sukhbir Badal furious over CM's honour, sent notice; Said- Unconditional apology within five days</t>
+  </si>
+  <si>
+    <t>PTI, Chandigarh. Shiromani Akali Dal (SAD) President Sukhbir Singh Badal on Friday sent a legal notice to Punjab Chief Minister Bhagwant Mann. He sent a notice to CM Mann saying that he has made malicious allegations against the Badal family and for this he should tender an unconditional apology within five days. Let us tell you that this notice was sent by Badal's lawyer Arshdeep Singh Kaler. According to the notice, if CM Mann does not apologize, Badal will file a defamation case against him. According to the notice, Mann has accused Badal and his family of defaming the irrigation branch built for the farm house. Mann had said that an irrigation branch was built to take canal water to Badal Farm in Haryana's Balasar village. Let us tell you that CM Mann made these allegations during the "Main Punjab Bolda Ya" debate organized at PAU on November 1. Were planted. Opposition leaders of Congress, SAD and BJP did not participate in this debate. Sukhbir Badal is being defamed. Badal's lawyer said that only to get cheap political benefits for himself, the Chief Minister has affected the personal, social and political life of my client (Sukhbir Badal). And tarnished political reputation. The CM deliberately and with malicious intent made false allegations with the intention of defaming my client. CM alleged that Sukhbir Badal has taken the precious water of Punjab to his Balasar farm in Haryana. Badal struggled to save the water of Punjab. The lawyer said that Sukhbir Badal fought tirelessly to save every drop of water of Punjab. Have done. CM Mann had said in the debate that the ancestors of the opposition leaders were involved in the unforgivable crime of construction of Sutlej Yamuna Link (SYL) canal. Mann had said that political leaders had planned the construction of the canal for their own selfish reasons. Accused Prakash Singh Badal, Mann had claimed that in 1978, the then Chief Minister Prakash Singh Badal had given an additional amount of Rs 3 crore for the SYL canal. Had demanded Rs 1.5 crore from Haryana Government in March 1979. Also Read: Amritsar: 'No matter how much you try to escape from ED, arrest is certain'; BJP state president Sunil Jakhar attacked Kejriwal for issuing a letter for land acquisition. CM Mann had claimed that Prakash Singh Badal had issued a letter for land acquisition for SYL canal and the then Haryana Chief Minister Devi Lal had issued a letter in the assembly. Had given statement that Prakash Si</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 03:38 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-politics-sad-chief-sukhbir-badal-sent-notice-to-cm-said-unconditional-apology-within-five-days-23582626.html</t>
+  </si>
+  <si>
+    <t>HC reserved its verdict on both the bail pleas of Congress MLA Sukhpal Khehra, he was arrested on September 28.</t>
+  </si>
+  <si>
+    <t>Dayanand Sharma, Chandigarh. Punjab News: The High Court on Friday reserved its decision on the demand of regular bail of Congress MLA Sukhpal Khehra, arrested by the SIT in the NDPS case registered in 2015, and anticipatory bail to avoid arrest in any other case. On a petition HC has already reserved its decision. The High Court has already reserved its decision on a petition by Khehra challenging the arrest made by the SIT in the NDPS case registered in 2015 and the lower court's order to extend his custody. 'Due to political malice' While filing the petition, Khehra said that despite various levels of relief being provided to the petitioner in this case, the Punjab Police is taking action against him against the law. Earlier he was in Aam Aadmi Party and later he joined Congress. Due to this, this action is being taken against him due to political hatred. In his petition, Khehra has termed the arrest as illegal and has demanded regular bail. Nine people including Gurdev Singh were arrested in March 2015. FIR was lodged in NDPS in Jalalabad, Fazilka. Nine people, including Gurdev Singh, were booked in this case and were later convicted under the Narcotic Drugs and Psychotropic Substances (NDPS) Act. Also read-Punjab News: No relief to Sukhpal Khehra from the High Court, The court adjourned the hearing till November 17. Khera was arrested in 2021. Police had recovered 2 kg heroin, 24 gold biscuits, a country-made pistol, a .315 bore pistol and two Pakistani SIM cards from him. Later, Khehra's name came up during police investigation. In 2017, the Supreme Court had stayed the trial court proceedings against Khehra, who was summoned as an additional accused. He was arrested by the Enforcement Directorate in 2021 on charges of money laundering linked to a 2015 drugs case. He got bail in 2022. What did Khehra say in the petition? In February 2023, the apex court canceled the summon order against Khehra in the drugs case. Khehra was arrested by Punjab Police on September 28 from his Chandigarh residence. In the anticipatory bail petition, Khehra has expressed apprehension that the government may implicate him in some other case, therefore, before taking any action against him, a notice of seven days should be issued.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 02:17 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-hc-reserves-verdict-on-regular-bail-and-anticipatory-bail-petitions-of-congress-mla-sukhpal-khaira-23582524.html</t>
+  </si>
+  <si>
+    <t>Red alert in Punjab regarding G20 Summit in Delhi, tight security arrangements; Police launched search operation</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Red Alert In Punjab: Red alert has been issued in the state to ensure peaceful conduct of the G20 Summit in Delhi. Punjab Police has increased security across the state. On the instructions of Acting DGP Gaurav Yadav, flag march was also taken out from 9 am to 11 am at all sensitive places of 28 police districts, after which Cardon and Search Operation (CASO) was conducted in railway stations and bus stands from 2 pm to 7 pm. Special DGP Law and Order Arpit Shukla said that police teams led by gazetted rank officers took out flag marches in sensitive areas of their respective districts. 139 flag marches were taken out covering 228 sensitive areas in all 28 police districts. Special search operations were conducted at bus stands and railway stations. The DGP said that the CP/SSP will conduct searches at all bus stands and railway stations across the state under the supervision of an SP rank officer. Instructions were given to conduct special cardan and search operations (CASO) in and around the stations. He said that we had strictly instructed all the police personnel to behave in a friendly and polite manner with every person during this operation. Also read - Punjab connection of Delhi liquor scam... CBI arrested 10 officers Summoned, Manish Sisodia's troubles increased? Suspicious people are being monitored. He said that about 255 police teams comprising of more than 1500 police personnel have been deployed across the state to keep an eye on suspicious persons at different railway stations and bus stands of the state. So that people do not face any problem, he said that during the operation conducted at 159 bus stands and 131 railway stations of the state, more than 3660 people were checked and some suspicious persons were detained for questioning by the police teams. Also taken in. Read this also - G20 India: Big success for prosperous India, New Delhi becomes a symbol of PM Modi's leadership ability Leaders' Manifesto Special DGP Law and Order Arpit Shukla said that the gazetted rank officers Under the leadership, police teams took out flag march in sensitive areas of their respective districts. 139 flag marches were taken out covering 228 sensitive areas in all 28 police districts. Search operations conducted at bus stands and railway stations. Special DGP said that CP/</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 09:25 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-red-alert-in-punjab-regarding-g20-summit-in-delhi-tight-security-arrangements-police-conducted-search-operation-23526102.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Punjab Sant Dayal Murder Case: In a big blow to Sant Jarnail Singh, the main conspirator in the case of shooting death of Sant Dayal Das in Dera Har Ka Das, Faridkot in November 2019, the Punjab-Haryana High Court rejected his anticipatory bail plea. Is. While filing the petition, Jarnail Singh said that he is innocent and he was also given a clean chit in the investigation by Punjab Police. Whereas, opposing the anticipatory bail petition, the SIT told the High Court (Punjab Haryana High Court) that till now Investigation has revealed that Sant Jarnail Singh had conspired to murder Sant Dayal Das. The motive behind this was to capture the property worth crores of rupees. In this case, the police officers had given clean chit after taking bribe and now Vigilance is investigating against those police officers also. Sant Jarnail Singh's name was associated with many famous gangsters. The court was told that Sant Jarnail Singh was associated with many famous gangsters. The name is also linked and he already knew the accused Amrik Singh Sheru and Lakhwinder Singh Lakha of firing. Weapons have been recovered in this case and the accused have been arrested. Read this also - Challenge in HC to conduct premature elections of District Councils, demand to cancel the decision of Punjab Government What did the court say?High After hearing all the parties, the court said that the accused in this case remained absconding for three and a half years and only when an interim stay was put on his arrest, he joined the investigation and appeared before the fifth SIT. But even after going there, he did not cooperate in the investigation. In this case, custodial interrogation of the petitioner is necessary to know the relationship of the petitioner with gangsters, payment to gangsters for murder, motive of murder etc. In such a situation, the High Court rejected the anticipatory bail petition outright. Read this also - Property dispute: Interference in the High Court's order proved costly, contempt notice to the SSP of Amritsar. Whereas, opposing the anticipatory bail petition, the SIT filed a petition in the High Court ( Punjab Haryana High Court) that till now the investigation has revealed that Sant Jarnail Singh had conspired to murder Sant Dayal Das. The motive behind this was to capture the property worth crores of rupees. In this case, police officers had given clean chit after taking bribe and now vigilance is investigating against those police officers also. Sant Jarnail is associated with many famous gangsters.</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 07:31 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-sant-dayal-das-murder-case-high-court-rejected-main-accused-anticipatory-bail-plea-23526034.html</t>
+  </si>
+  <si>
+    <t>Punjab Politics: 'A person who left college studies midway...', SAD leader Bikram Majithia lashed out at CM Bhagwant Mann.</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Bikram Majithia On Bhagwant Mann Shiromani Akali Dal leader Bikram Singh Majithia hit back at the Chief Minister's challenge and asked whether any college dropout would advise him to serve his mother tongue Punjabi. He told the Chief Minister, "Don't talk about here and there, tell me why this condition of Punjab has happened." Majithia said that the Chief Minister (CM Bhagwant Mann) should understand that all his comedy has been successful during the 2022 elections. . Because Punjabis never imagined that the person they were trusting would prove to be a failure. He said he might be good at comedy. But running the state is not a comedy circus. 'Previous governments were responsible' Majithia condemned the Chief Minister's statement, saying that previous governments were responsible for the delay in the appointments of sub-inspectors and reminded him that in the process Susho Bhitveer Singh There has been a delay in the appointments due to his government's haste to recruit officers. Also read-Punjab connection of Delhi liquor scam... CBI summoned 10 officers, Manish Sisodia's problems increased? 'Take everything in comedy. The Akali leader said that Bhagwant Mann is taking everything as comedy in the affairs of the state. But he has failed to realize that he has betrayed the farmers, laborers and youth and he has proved to be a fraud. The former minister said that he should publicly admit that he does not know how to run the state. And that is why he has handed over the entire tenure to the Delhi leadership, including Arvind Kejriwal, who is coming on a three-day visit to the state. He asked Bhagwant Mann whether he had seen any other Chief Minister visiting any state. Also read- Punjab News: 'Why were the recruitment rules changed for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann. Paghajithiya said that the Chief Minister (CM Bhagwant Mann) should understand that all his comedies have been successful during the 2022 elections. Because Punjabis never imagined that the person they were trusting would prove to be a failure. He said he might be good at comedy. But running the state is not a comedy circus. 'Previous governments were responsible' Majithia condemned this statement of the Chief Minister</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 08:23 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-politics-bikram-singh-majithia-targets-cm-bhagwant-mann-said-running-state-is-not-comedy-circus-23526069.html</t>
+  </si>
+  <si>
+    <t>Good News! CM Bhagwant Mann's big gift to Patwaris, now they will get three times more allowance for training</t>
+  </si>
+  <si>
+    <t>Chandigarh, Online Desk. Punjab Patwari New Stipend: Punjab CM and AAP leader Bhagwant Mann has made the hearts of the Patwaris of the state happy today. In fact, today itself he has handed over appointment letters to a total of 710 Patwaris. Along with this, many big announcements have also been made regarding Patwaris. Giving another good news to the newly appointed Patwaris, CM Mann announced that now the candidates will get a financial allowance of Rs 18,000 per month during training instead of Rs 5,000, because at present an allowance of Rs 5,000 is given to MSC B-Tech and other degree holders. In the next one or two days, this allowance will be increased to Rs 18 thousand per month. CM said - Lakhs of people have expectations from the Patwaris. He told the newly appointed Patwaris that lakhs of people have a lot of expectations from you because your decisions will bring happiness in people's homes. Can bring and cause murder of many people. He said that bribery has many forms. He said that donation is also another form of bribe. He said that tea, water, service, think about our bar, come next Wednesday, all these are names of bribe. Some people involved in the old governments were themselves involved in bribery. The Chief Minister said that bribery starts from the top. Therefore, bribery has to be stopped from above. Old customs and policies have to be broken: CM Mann. During this time, if the state governments do not care about the people, then it is natural to raise questions. When elected representatives close the doors of their palaces, it is natural for the public to get nervous. The previous governments did not pay attention to improving the economic condition of the people, hospitals and youth. He said that the times have become very fast, old customs and policies have to be broken. Congratulating the newly appointed Patwaris, he said that earlier students used to score good marks but bribes were more, but this time the government itself has given the message. This is the difference between the present and previous governments. Punjab government appointed 17810 teachers. The Chief Minister said that stolen sons are not sons. He inspired the Patwaris to make honesty a part of their lives. The Chief Minister said that first of all the legal process for the appointment of teachers was decided and 17810 teachers were appointed. He said that the condition of schools is being improved. On this occasion, Chief Secretary Anurag Verma said that about one lakh candidates will appear in the Patwari examination.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 03:24 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-cm-bhagwant-mann-increased-the-allowance-of-patwaris-doing-training-three-times-nikharda-punjab-23524973.html</t>
+  </si>
+  <si>
+    <t>Punjab Politics: Preparation for reshuffle in Punjab BJP, Jakhar discussed with Nadda</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. There is going to be a reshuffle in Punjab BJP soon. State President Sunil Jakhar has had a long conversation with the party's national president JP Nadda regarding changes in the organization. However, BJP state in-charge Vijay Rupani was not present during this meeting. It is believed that BJP can form the state executive any time after September 10. Let us tell you that the Punjab BJP team was formed on December 3, 2022. When the command of the state was in the hands of Ashwani Sharma. On July 4, 2023, BJP removed Ashwani Sharma and handed over the command of the state to Sunil Jakhar. Since then the discussion is going on that Jakhar wants to form his own team. Jakhar is not in favor of major changes in the executive. There are 11 state vice presidents, 5 state general secretaries and 11 state secretaries in the state executive. Sources say that Jakhar is not in favor of making any major changes in the state executive. Because Jakhar himself has joined BJP from Congress. In such a situation, he is in favor of minor changes instead of major changes. In this regard, Jakhar has already had a meeting with state in-charge Vijay Rupani. Also read- G20 Summit 2023: 'I will not tolerate all this in UK', Rishi Sunak bluntly on Khalistan issue as soon as he reached India, both the leaders Consensus has also been reached. This is why Jakhar has now met with JP Nadda in this regard. The meeting between the two leaders lasted for about 35 minutes. Keeping in view the challenges of the upcoming Lok Sabha elections, Jakhar is in favor of creating a balance of 'youth and experience' and 'new and old' in his team. Leaders coming from rural areas will also have to be given importance. BJP knows that the challenges of 2024 Keeping this in view, leaders coming from rural areas will also have to be given importance. Because it is very important to focus on rural areas and especially Malwa belt. Malwa is the largest political region of Punjab. There are 67 assembly constituencies here. While being in alliance with Akali Dal, BJP's focus has always been on Doaba and Majha. After late Kamal Sharma, the command of the state in BJP has always been in the hands of leaders from Majha or Doaba. Jakhar himself comes from Malwa region. Let us tell you that the Punjab BJP team was formed on 3 December 2022. When the command of the state was in the hands of Ashwani Sharma. On July 4, 2023, BJP removed Ashwani Sharma and handed over the command of the state to Sunil Jakh.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 10:39 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-politics-preparation-for-reshuffle-in-punjab-bjp-jakhar-discussed-with-nadda-23525362.html</t>
+  </si>
+  <si>
+    <t>Punjab AGTF got big success, three henchmen of gangster Sonu Khatri arrested; The shooters were absconding for a long time</t>
+  </si>
+  <si>
+    <t>Chandigarh, PTI. Anti-Gangster Task Force of Punjab Police, in a joint operation with Central Agencies, arrested three shooters absconding from Indo-Nepal Border and Gurugram (Sonu Khatri's Sharp Shooters Arrested). ) has been done.Punjab Director General of Police Gaurav Yadav (DGP Gaurav Yadav) while posting on Has been arrested from Gurugram (Gurugram, Haryana). In a Pan-India operation, AGTF-Punjab in coordination with central agencies has successfully arrested 3 absconding shooters handled by Gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda1 person has been arrested from the Indo-Nepal border &amp; 2 from Gurugram 1/4 pic.twitter.com/s4NjbpvXi7— DGP Punjab Police (@DGPPunjabPolice) September 8, 20233 absconding shooters successfully arrested Director General of Police Gaurav Yadav posted on Twitter that "A In a pan India operation, AGTF and Punjab Police, along with central agencies, have successfully arrested 3 absconding shooters working under gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda. Also Read-Congress MLA in disproportionate assets case. Kikki Dhillon appeared in the court today, next hearing will be on September 22. Three foreign pistols were also seized. He said, "Preliminary investigation has revealed that the arrested accused used to carry out sensational incidents in Punjab at the behest of Sonu Khatri. After committing crimes, these people used to take shelter in different parts of the country and their hideouts in Nepal." He said that the police have also seized three foreign pistols from them. Punjab Director General of Police Gaurav Yadav (DGP Gaurav Yadav) Posting on Twitter India operation, AGTF-Punjab in coordination with central agencies has successfully arrested 3 absconding shooters handled by Gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda1 person has been arrested from the Indo-Nepal border &amp; 2 from Guru</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 06:47 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-agtf-got-big-success-arrested-three-henchmen-of-gangster-sonu-khatri-shooters-were-absconding-for-a-long-time-23525186.html</t>
+  </si>
+  <si>
+    <t>Big action by Punjab Police, raids on 822 hideouts of gangsters; The action took place between 7 am and 11 am</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Taking a massive action against the gangster-terrorist nexus as part of the campaign to make Punjab a crime-free state, the Punjab Police on Friday raided suspected hideouts of gangster associates/ardent supporters across the state. . This raid was conducted at the same time from 7 am to 11 am on the instructions of Director General of Police (DGP) Punjab Gaurav Yadav. Raids were conducted in 28 districts. During this period, gangsters were arrested in all the 28 police districts of the state. The residences and other locations of associates, relatives and friends were thoroughly searched. Special DGP Law &amp; Order Arpit Shukla said that all CPs/SSPs were instructed to take all possible measures to make this operation, which was aimed at torpedoing the nexus of terrorists, gangsters and drug smugglers based in India and abroad, a success. Deploy strong police parties under the leadership of Inspectors/Sub-Inspectors. He said that during this operation, police teams were also asked to control suspicious persons. Also read-Punjab AGTF gets big success, three henchmen of gangster Sonu Khatri arrested; The shooters were absconding for a long time. 2000 policemen raided the spot. He said that in this operation, more than 350 parties of Punjab Police, which included 2000 police personnel, raided 822 locations of associates, relatives and friends of different gangsters. Special DGP said, "Today's search operation was planned after interrogating several persons arrested following the recent busting of gangster modules." Many persons have also been detained for questioning. It is worth mentioning that such raids prove to be helpful in creating fear of the police among the anti-social elements and creating a sense of security among the common people. Also read- Punjab News: Woman died outside the OPD of the hospital under suspicious circumstances. No information about the family: During this period, the residences and other hideouts of the gangsters' associates, relatives and friends were thoroughly searched in all the 28 police districts of the state. Special DGP Law and Order Arpit Shukla said that all CPs/SSPs had been instructed to carry out this operation, which is aimed at arresting terrorists,</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 09:57 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-big-action-by-punjab-police-raids-on-822-hideouts-of-gangsters-the-action-took-place-between-7-am-and-11-am-23525330.html</t>
+  </si>
+  <si>
+    <t>There are many complications in seat sharing between Congress and AAP, Punjab Congress is not at all ready for alliance.</t>
+  </si>
+  <si>
+    <t>Chandigarh, Kailash Nath. There are many complications in the alliance between Congress and Aam Admi Party, a constituent of the Indian National Development Inclusive Alliance (I.N.D.I.A.). The Punjab unit of Congress is not at all ready for this alliance. However, the Punjab unit also knows that the final decision has to be taken by the party high command. The high command had earlier also opposed the transfer-posting bill in Delhi in the Rajya Sabha, against the wishes of the Punjab unit. Many Congress MLAs have corruption cases against them, even if, unlike the Punjab unit, the Congress compromises with AAP keeping in mind the national level. There can be many complications in this. If there is an agreement between Congress and AAP, not only will many notions be broken but many new notions will be formed. After forming the government, the Aam Aadmi Party government registered corruption cases against more than a dozen former ministers and MLAs of the Congress. Out of these, three Congress ministers and three-four MLAs had to go to jail. In this case, the impression that the government's steps moved towards eradicating corruption will be broken. Rather, the impression will be created that AAP wanted to put pressure on Congress. Apart from this, if both the parties follow the model of 2019 Lok Sabha elections in seat distribution, then the ruling AAP will suffer loss. Because in 2019, 8 Congress MPs had won the elections. Whereas only one MP of AAP (Bhagwant Mann) had won. There could be a loss of 9 to 10 seats. At that time Congress had 77 MLAs in the Legislative Assembly. Whereas if the seat sharing formula is decided on the results of the 2022 Legislative Assembly, then Congress may have to suffer huge losses. Because you have 92 MLAs. Whereas Congress has only 18. In such a situation, Congress may lose 9 to 10 seats out of 13 Lok Sabha seats. Whereas, if the compromise formula is decided on each seat, then AAP may suffer loss. Because Patiala seat should be left out (where Preneet Kaur is MP, Congress has suspended her from the party). Still, Congress has 6 MPs (AAP had snatched Jalandhar seat from Congress). At the same time, Jalandhar, Amritsar, Ludhiana and Bathinda are such Lok Sabha seats where trouble is certain because Jalandhar is the pivot of Dalit politics. The current MP here is Sushil Rinku (who was earlier a Congress MLA). Ludhiana is an economically strong seat of Punjab. Whereas Shiromani Akali Dal politics has been going on from Bathinda.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 10:29 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-many-complications-in-seat-sharing-between-congress-and-aap-punjab-congress-is-not-at-all-ready-for-alliance-23525354.html</t>
+  </si>
+  <si>
+    <t>Punjab News: CM Mann gave a gift on the occasion of Diwali, recruitment process will start soon for 1450 new posts in the police department.</t>
+  </si>
+  <si>
+    <t>Digital Desk, Chandigarh. On the occasion of Diwali, Punjab Government has given a gift to the people. The state government on Saturday has given approval to start the recruitment process for 1450 new posts in the police department and its complete information will be made available soon from the government side. CM Mann tweeted information about these recruitments. State Chief Minister Bhagwant Mann tweeted on Twitter, 'The aim of our government is to create Rangla Punjab, in which the role of youth is most important and this dream can be fulfilled only by providing maximum employment to the youth.' Another gift from your government on the occasion of Diwali. ..Today, approval was given to start the recruitment process by creating 1450 new vacancies in the Police Department...the details of which will be shared soon...the aim of the Sadi government is to create a Rangala Punjab in which the role of youth is most important and this dream Youth…— Bhagwant Mann (@BhagwantMann) November 11, 2023 Appointment letters were distributed on Friday also. Let us tell you that Chief Minister Bhagwant Mann had handed over appointment letters to 583 youth in various departments on Friday, a day before Diwali. . During that time the CM had said that a total of 37683 jobs have been given so far. He had further said that now he is a part of "Team Punjab" and it is the responsibility of every youth to work for the welfare of the state. Also read - Police alert on Diwali, fire brigade personnel also 24 Regarding these recruitments, Chief Minister of the state Bhagwant Mann tweeted on Twitter, 'The aim of our government is to create Rangla Punjab, in which the role of youth is most important and this dream can be fulfilled only by providing maximum employment to the youth. 'Another gift from your government on the occasion of Diwali... Today, approval has been given to start the recruitment process by creating 1450 new vacancies in the Police Department... the details of which will be shared soon... The aim of this government is to create a colorful Punjab which The role of youth is most important in this and this dream of youth…— Bhagwant Mann (@BhagwantMann) November 11, 2023 Appointment letters were also distributed on Friday. Let us tell you that Chief Minister Bhagwant Mann had distributed appointment letters on Friday, a day before Diwali. Appointment letters were handed over to 583 youth in various departments. During that time the CM had said that a total of 37683 jobs have been given so far. He further said that now he is "Team Pt.</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 11 Nov 2023 07:03 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-recruitment-process-will-start-soon-for-1450-new-posts-in-the-police-department-in-punjab-23578518.html</t>
+  </si>
+  <si>
+    <t>Work stalled in Punjab-Haryana High Court even today, lawyers on strike in protest against NIA raid</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh: For the second consecutive day, lawyers in the Punjab Haryana High Court remained on strike in protest against the Central Investigation Agency (NIA) raid on the houses of an advocate in Chandigarh and some other lawyers in Punjab and Haryana and did not participate in the court proceedings. Happened. This strike of lawyers will continue for the third day i.e. even today. On Wednesday, the High Court Bar Association had announced to continue the strike on Thursday also. It is certain that even today the lawyers will not participate in the court proceedings in the High Court. On Monday, in the General House meeting of the High Court Bar Association, it was announced to go on strike till further orders and it was said that when the NIA in this case Advocate Shaili Sharma has not been nominated, then why is the NIA not yet returning the mobile phones seized from her. At the same time, the High Court Bar Association has written a letter to the Director of NIA giving information about the investigation done on these phones so far. Has asked and said that he should be given information about this investigation, so that he can adopt further legal process. Till then the High Court Bar Association has announced to stop the work in the High Court. On October 18, NIA had raided the house of Chandigarh's female lawyer Shaili Sharma in Sector-27. The NIA had also searched his two mobile phones, his laptop and computer and also took away some documents. Shaili Sharma was interrogated for about 3 and a half hours. On Wednesday, the High Court Bar Association had announced to continue the strike on Thursday also. It is certain that even today the lawyers will not participate in the court proceedings in the High Court. On Monday, in the General House meeting of the High Court Bar Association, it was announced to go on strike till further orders and it was said that when the NIA in this case Advocate Shaili Sharma has not been nominated, then why is the NIA not yet returning the mobile phones seized from her. At the same time, the High Court Bar Association has written a letter to the Director of NIA giving information about the investigation done on these phones so far. Has asked and said that he should be given information about this investigation, so that he can adopt further legal process. Till then the High Court Bar Association has announced to stop the work in the High Court. On October 18, NIA had raided the house of Chandigarh's female lawyer Shaili Sharma in Sector-27. The NIA had also searched his two mobile phones, his laptop and computer and some ten</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 03 Nov 2022 09:38 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-haryana-high-court-lawyers-on-strike-protesting-against-nia-raid-23179223.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Sukhpal Khaira no relief from High Court, court adjourns hearing till November 17</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Congress MLA Sukhpal Khaira has again not got any relief from the Punjab and Haryana High Court. The High Court has adjourned the hearing of the Khaira case till November 17. During the hearing on Tuesday, there was a long debate between the government and Sukhpal Khaira's lawyer. For every year of 15 years of farming, he gets Rs 26 crores. Sukhpal Khaira's lawyer said that the accounts being cited are being described as drug money. That's from his PA. Along with this, he said that the crores of rupees are his farming income for the last 15 years, from which he gets Rs 26 lakh every year. There is an account in which he is paid salary from Punjab, another account is of his PA, the number which is being talked about that outside conversation is also his PA's number. The High Court said that he should prepare the synopsis and submit it to Khaira's lawyer by Thursday morning. The next day on Friday, Khaira's lawyer will give his counter. After hearing all the parties, the decision was reserved that Sukhpal Khaira's demand for regular bail in the NDPS case registered in 2015 is under consideration in the High Court. Earlier, after hearing all the parties, the High Court had reserved its decision on the petition challenging the order of arrest and extension of custody by the lower court. Sukhpal Khaira's lawyer said that the accounts being cited are being described as drug money. . That's from his PA. Along with this, he said that the crores of rupees are his farming income for the last 15 years, from which he gets Rs 26 lakh every year. There is an account in which he is paid salary from Punjab, another account is of his PA, the number which is being talked about that outside conversation is also his PA's number. The High Court said that he should prepare the synopsis and submit it to Khaira's lawyer by Thursday morning. The next day on Friday, Khaira's lawyer will give his counter. After hearing all the parties, the decision was reserved that Sukhpal Khaira's demand for regular bail in the NDPS case registered in 2015 is under consideration in the High Court. Earlier, after hearing all the parties, the High Court had reserved its decision on the petition challenging the order of arrest and extension of custody by the lower court. The demand for regular bail in the NDPS case of Sukhpal Khaira registered in 2015 is under consideration in the High Court. Earlier, the High Court had heard all the parties on the petition challenging the order of arrest and extension of custody by the lower court.</t>
+  </si>
+  <si>
+    <t>Updated: Tue, 14 Nov 2023 04:58 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-sukhpal-khaira-no-relief-from-high-court-court-adjourns-hearing-till-november17-23580168.html</t>
+  </si>
+  <si>
+    <t>Relief from HC to these three IAS officers of Punjab, Division Bench stays order convicting them under contempt</t>
+  </si>
+  <si>
+    <t>Dayanand Sharma, Chandigarh. At present, the Division Bench has stayed till December 5 the three IAS officers of Punjab, Vikas Garg, Ramakant Mishra and Vivek Pratap Singh, who were found guilty of contempt by the single bench. The Division Bench of Justice GS Sandhawalia and Justice Lupita Banerjee issued this order while hearing the appeal of these officers. The High Court had given these orders to the officers Additional Chief Secretary cum Finance Commissioner Vikas Garg, Principal Chief Conservator of Forest Mohali Ramakant Mishra. And Principal Secretary of the Local Government Department, Vivek Pratap Singh, who was found guilty of disobeying the orders of the High Court. Then the High Court had ordered these officers that the punishment will be pronounced on the next hearing of the case on November 20. Also read: Punjab: DC's plea that there was no illegal construction in Harike Wetland Sanctuary proved costly, HC reprimanded; Asked for clarification, the court had given its verdict on the petition in 2014. The single bench had given this order on the petition of Gram Panchayat Badi Karoran. In 2010, 1092 acres of land of village Badi Karora and Nadda was de-listed from the Punjab Land Preservation Act. Also, a condition was imposed that no commercial activity or construction would be done here. In 2014, on a petition, the High Court had ruled that if it is not forest land then these conditions will not apply, hence a new notification should be made. Also read: Punjab: Chief Secretary, 9 deputies in action mode after warning from SC Notice issued to commissioners; Reply will have to be given within three days. The High Court was told that this is not forest land, yet this condition was not removed. Petitions continued to be filed against this in the High Court, but no action was taken. On October 12, the High Court took a tough stand and held these three IAS officers guilty for not taking action despite orders. Now these officers, including Mohali's DC Ashika Jain and GMADA's Additional Chief Administrator Amrinder Singh Tiwana, have come forward against these orders. A demand has been made from the double bench to ban it. Additional Chief Secretary cum Finance Commissioner Vikas Garg, Principal Chief Conservator of Forest Mohali Ramakant Mishra and Principal Secretary of Local Government Department Vivek Pratap Singh who were found guilty of not following the orders of the High Court. Was. Then the High Court had ordered these officers that the punishment would be pronounced on the next hearing of the case on November 20. Also</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 01:30 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-relief-from-hc-to-these-three-ias-officers-of-punjab-division-bench-stays-order-convicting-them-under-contempt-23582495.html</t>
+  </si>
+  <si>
+    <t>Punjab: Chief Secretary in action mode after warning from SC, notice issued to 9 deputy commissioners; Will have to answer within three days</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Following a stern warning from the Supreme Court, Punjab Chief Secretary Anurag Verma has issued show cause notices to nine deputy commissioners who failed to stop farm fires in their districts. According to this notice, the DC has been given three days to respond, otherwise disciplinary proceedings will be initiated against him. The notice given on Wednesday said 'You are asked to show cause within three days' Why disciplinary proceedings should not be initiated against you. You failed to act despite clear instructions to ensure compliance with the directions of the Supreme Court.'Notice issued in districts where stubble burning is highest. According to the information, the notice has been issued to the Deputy Commissioners of those districts where maximum stubble burning occurs. There is a fire. This also includes the Deputy Commissioner of Chief Minister Bhagwant Mann's district Sangrur. Apart from this, notices have also been issued to the Deputy Commissioners of Barnala, Bathinda, Faridkot, Fazilka, Ferozepur, Ludhiana, Moga, Sri Muktisar Sahib. Also read: Punjab News: Punjab and Haryana High Court made it clear, allegations need to be proved. Only evidence required for action not initiated against the field officer said in the notice while pulling up each DC for allegedly failing to implement the proposed action plan to reduce the incidents of stubble burning over the last year. It has been reported that there are many villages where incidents of stubble burning have taken place in large numbers. Beginning of the season However, you have not initiated action against any of the field officers deployed by you to curb stubble burning in villages.Warning was given. On November 2, the Chief Secretary had advised 12 DCs to ensure that Make all efforts to ensure that no further incidents of fire occur in their respective districts. He warned, if any more incident of fire occurs in your district after today, I will be forced to make adverse remarks in your Annual Performance Appraisal Report (ACR). Also Read: Punjab: Harike Wetland Sanctuary DC's argument that there was no illegal construction proved costly, HC reprimanded; Seeks clarification: The Deputy Commissioners who were warned included Patiala, Shaheed Bhagat Singh Nagar, Malerkotla, Hoshiarpur, Rupnagar, Amritsar, Faridkot, Ferozepur, Moga, Sangrur, Ludhiana and Fatehgarh Sahib districts.10</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 11:28 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-chief-secretary-takes-action-after-stern-warning-from-sc-shows-cause-notice-issued-to-nine-deputy-commissioners-23582392.html</t>
+  </si>
+  <si>
+    <t>Punjab: DC's argument that there was no illegal construction in Harike Wetland Sanctuary proved costly, HC reprimanded; sought clarification</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. The DC's argument that there was no illegal construction in the Harike Wetland Sanctuary located in Firozpur, Punjab proved too much for the DC. The High Court has reprimanded the DC and has now ordered it to give clarification on this. Along with this, the High Court has also ordered the Punjab Government to file a reply regarding the Gurudwaras located near the Century. In this case, Firozpur resident Jaskiran Jeet Singh filed a petition in the High Court alleging that hundreds of acres spread in Firozpur, Tarn Taran and Kapurthala districts. Wetlands are being illegally encroached upon on a large scale. According to the petitioner, as per the rules of Harike Wet Land Sanctuary lying in Firozpur district, sale deed cannot be issued. Punjab Government had issued a notification. Punjab Government had also issued a notification in this regard. But between the years 2007 and 2008, the sale deed of some part of this land was done and by August 2015, construction work has started on a large scale in this century, which also includes two Gurudwaras. While submitting some photographs in the High Court, the petitioner said that the photographs clearly show that construction work is being done in full swing inside the wetland fencing. Also read: Punjab News: Punjab and Haryana High Court made it clear to prove the allegations. Only evidence is necessary. Orders were given to maintain the status quo. The petitioner appealed to the High Court that appropriate instructions should be given to the State Government and the Environment Ministry in this matter so that this illegal occupation can be stopped. In 2016, the High Court had given orders to maintain status quo on construction. The court had said that DC and SSP should ensure that the court's order is followed. The petitioner said that a large number of migratory birds come to this century and no type of transformer should be installed here, yet the electricity department has installed a transformer. Due to which the life of the migratory birds that come and sit here has become a threat. Illegal construction has not taken place after the order of the High Court - DC. During the hearing, the petitioner's lawyer Supriya Garg said that construction is still going on in the Wild Life Sanctuary. The work is going on while the High Court has issued orders as to the status quo in 2016. Firozpur DC said that no illegal construction has taken place after the order of the High Court. Also read: Punjab News: Next hearing of 5994 recruitment case now on December 12, High Court appealed to complete the process soon. DC questioning the attitude of</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 09:26 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-dc-argument-that-there-was-no-illegal-construction-in-harike-wetland-sanctuary-proved-costly-hc-reprimanded-ordered-to-give-clarification-23582320.html</t>
+  </si>
+  <si>
+    <t>Chandigarh: Policemen who arrived on complaint of quarrel got trapped, liquor and chicken plate found in PCR van; People created a ruckus</t>
+  </si>
+  <si>
+    <t>Jagran correspondent, Chandigarh. Policemen who arrived on the complaint of a fight at a function in Indira Colony got badly trapped. When the policemen made the quarreling youth sit in the van, they saw a plate of chicken and liquor on the dashboard of the police car. On this, the residents of the colony created a ruckus. Chandigarh Police's van arrived on the complaint of a fight, carrying liquor and plates of chicken pic.twitter.com/mB9a2iJBqG — Himani Sharma (@hennysharma22) November 17, 2023 Colony residents made allegations Colony residents made allegations It was alleged that the policemen who reached the spot were under the influence of alcohol, while the policemen accused the colony residents of forcefully placing liquor bottles and meat plates in the police vehicle. When the matter escalated, the police station reached the spot and got the police personnel medically examined. Also read: Punjab News: Jakhar spoke about stubble burning, said - Why is the AAP government not providing financial assistance to the farmers? Youths are being forced to write statements. Area DSP Abhinandan Accordingly, medical examination of the police personnel has been done. If liquor is confirmed then action will be taken against them. The residents of the colony alleged that the policemen are forcing the youth caught in the fight to write statements that it was they who kept the liquor bottle and the plate of chicken in the police vehicle. Also read: Punjab: Jakhar is not worried about Punjab, people are fools. They are shedding crocodile tears to make money: AAP alleged. Liquor and plate of chicken in the van of Chandigarh Police arrived on complaint of fight pic.twitter.com/mB9a2iJBqG— Himani Sharma (@hennysharma22) November 17, 2023 Colony residents alleged that The policemen who reached the spot were found drunk, while the policemen accused the colony residents of forcefully keeping liquor bottles and meat plates in the police vehicle. When the matter escalated, the police station reached the spot and got the police personnel medically examined. Also read: Punjab News: Jakhar spoke about stubble burning, said - Why is the AAP government not providing financial assistance to the farmers? Youths are being forced to write statements. Area DSP Abhinandan Accordingly, medical examination of the police personnel has been done. If liquor is confirmed then action will be taken against them. The residents of the colony alleged that the policemen are forcing the youth caught in the fight to write statements that it was they who kept the liquor bottle and the plate of chicken in the police vehicle. Also read: Punjab: Jakhar is not worried about Punjab.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 17 Nov 2023 09:03 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-policemen-who-arrived-on-complaint-of-quarrel-got-trapped-liquor-and-chicken-plate-found-in-pcr-van-people-created-a-ruckus-23582302.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Jakhar spoke about stubble burning, said- Why is AAP government not providing financial assistance to farmers?</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Bharatiya Janata Party (BJP) state president Sunil Jakhar has said that the AAP government should provide financial assistance to the farmers to prevent stubble burning. He said that the AAP government says that the Center has refused to provide assistance. Even if the Center refuses, then the government should provide financial assistance. Because the Chief Minister is repeatedly saying that the government has no shortage of funds. If this is so, then what is the harm in giving financial assistance to the farmers? SC held MSP responsible for burning stubble. While talking to the journalists at the party office, Jakhar said, what was the government supposed to provide financial assistance to the farmers, instead the stubble is in the Supreme Court. MSP was held responsible for the burning. He said that there is a need to look at this problem from a distance perspective. At the same time, Jakhar accused the Mann government that on the occasion of Guru Parva, the government is going to hijack the Centre's Garib Kalyan Anna Yojana. Under this scheme, Chief Minister Narendra Modi has announced to provide free food grains to the poor for 5 years. Punjab government is distributing flour for printing photos on flour bags. He said that the AAP government is bringing the flour scheme to every home so that the He could print photos of Bhagwant Mann and Arvind Kejriwal on the bags. As was seen in the case of langar going from Gurudwara during earlier floods, converting a smart school into School of Eminence at Aam Aadmi Clinic, Amritsar. He said that by inaugurating a 10-bed ICU ward in Rajindra Hospital in Patiala, the AAP government presented itself as if it had brought about a health revolution, whereas today the central AC of the same hospital is not working. He said that corruption in the door-to-door flour scheme has been reported. There is every possibility. Because Rs 650 crore has to be spent on transportation to deliver flour from door to door. At the same time, the quality of wheat was known, when 1.41 crore people of Punjab will get a bag of flour, no one will know what kind of sugar will be ground in it. Many of AAP's ministers are stuck in controversies. Jakhar told Akali Dal leader Bikram Singh Majithia. Describing the allegation of a cabinet minister's sex scandal video as serious, he said that the Chief Minister should immediately take the pen drive from Majithia and see it. The BJP leader said, it cannot be said that this is only politics because the past of AAP party is like this. Be it Lal Chand Kattarchak or Fauja Singh Sarri, many of his ministers</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 09:59 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-jakhar-spoke-about-stubble-burning-said-why-is-aap-government-not-providing-financial-assistance-to-farmers-23581782.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Punjab and Haryana High Court made it clear, only evidence is necessary to prove the allegations.</t>
+  </si>
+  <si>
+    <t>Dayanand Sharma, Chandigarh. The Punjab and Haryana High Court has made it clear that a huge petition on paper with absurd allegations alone cannot strengthen the case. Justice Anup Chitkara of the High Court passed these orders while dismissing the petition filed by former Dean of Punjab Technical University (PTU) Kapurthala NP Singh challenging the quashing of the case against former Vice Chancellor Rajneesh Arora by the Kapurthala court.High The Court said that this voluminous petition with jumbled allegations and repetition of the same thing multiple times is nothing more than increasing the number of pages in the complaint and petition. This is a heavy petition only on paper, but baseless. The High Court said that there is no evidence to support or corroborate the baseless allegations of malicious intent and irregularities in this petition, adding that the order by which the Sessions Court accepted the report quashing the case against Arora was detailed and reasoned. and does not require any interference. HC finds evidence not worthy of being taken to court A prima facie case is made out only if it is proved by documentary evidence, which is lacking in this case. Dismissing NP Singh's plea The bench also said that the investigator had examined the allegations in detail and found the evidence not worthy of being taken to court. It is the prerogative of the investigator to conclude whether the evidence collected makes a case for initiating a prosecution or not. There is no allegation of investigative incompetence or any bias. Moreover, reading the case closure report shows how hard the investigator has worked to deal with the complex allegations. However, the High Court refused to accept the respondent's argument for imposing fine on the petitioner, saying that he is an educationist. In his plea, former dean (distance education) of PTU Kapurthala, NP Singh, had sought directions to quash the order dated September 21, 2020, passed by the special judge, Kapurthala, accepting the closure report under which the protest filed by him The petition was not considered. The trial court had also accepted the closure report filed by the police in a corruption case registered in January 2018 against former university VC Rajneesh Arora and others. Kapurthala lower court orders closure</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 09:44 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-punjab-and-haryana-high-court-made-it-clear-only-evidence-is-necessary-to-prove-the-allegations-23581781.html</t>
+  </si>
+  <si>
+    <t>Punjab: Jakhar is not worried about Punjab, he is shedding crocodile tears to fool people: AAP alleged</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Responding to the statement of Punjab BJP chief Sunil Jakhar, Aam Aadmi Party (AAP) said that BJP leaders are not concerned about Punjab. These people are shedding crocodile tears to fool the Punjabis, but now the people of Punjab are not going to fall prey to them. AAP spokesperson Ahbab Grewal while questioning said that Sunil Jakhar and BJP leaders are equally concerned about Punjab. So why was he silent on Punjab's NHM Fund, Rural Development Fund and Emergency Fund being stopped by the Central Government? Central Government stopped Punjab's funds worth Rs 9000 crore. He said that the Central Government has stopped Punjab's central fund worth Rs 9000 crore, But Punjab BJP leaders did not say anything against it. There is a BJP government at the Center for nine years, but why till date no BJP leader has demanded a special package for Punjab from the Modi government? He said that these people have not even once raised their voice for Punjab in front of the Central Government. . To remain in politics, these people just keep shedding crocodile tears. Grewal said that if Sunil Jakhar is really concerned about Punjab, then he should request Prime Minister Modi to release the outstanding money of Punjab soon and improve the economic condition of Punjab. Demand a special package to repair the state. AAP spokesperson Ahbab Grewal questioned that Sunil Jakhar and BJP leaders are so concerned about Punjab that they have raised the issue of NHM Fund, Rural Development Fund and Emergency Fund of Punjab by the Central Government. Why were they silent when it was stopped? Central government stopped Punjab's fund worth Rs 9000 crore. He said that the central government has stopped the central fund of Punjab worth about Rs 9000 crore, but the leaders of Punjab BJP did not say anything against it. There is a BJP government at the Center for nine years, but why till date no BJP leader has demanded a special package for Punjab from the Modi government? He said that these people have not even once raised their voice for Punjab in front of the Central Government. . To remain in politics, these people just keep shedding crocodile tears. Grewal said that if Sunil Jakhar is really concerned about Punjab, then he should request Prime Minister Modi to release the outstanding money of Punjab soon and improve the economic condition of Punjab. Demand a special package to repair it. He said that the Central Government will provide about 9000 rupees to Punjab.</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 08:47 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-jakhar-is-not-worried-about-punjab-he-is-shedding-crocodile-tears-to-fool-people-aap-alleged-23581902.html</t>
+  </si>
+  <si>
+    <t>Following the recommendation of the Punjab government, Governor Purohit adjourned the budget session, also approved the money bill.</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Governor Banwarilal Purohit approved the prorogation of the assembly session. The decision came less than a week after the Supreme Court slammed the Punjab government for continuing the budget session in the Assembly and the government subsequently sent a letter to the Governor. The session of the Punjab Legislative Assembly was prorogued after eight and a half months. At the same time, the Governor has also approved the introduction of the Punjab Fiscal Responsibility and Budget Management (Amendment) Bill, 2023 in the Assembly. Punjab Assembly Speaker Kultar Singh Sandhwan had written a letter to the Governor on Wednesday to adjourn the session. Which was accepted by the Governor. The Governor sent a reply to the government saying that he had postponed the session, which was called on October 20. The Supreme Court reprimanded The issue has been pending since March, when the budget session was adjourned sine die. but the Government did not recommend to the Governor to adjourn the House. Later, the government called two special sessions without the Governor's approval and the Governor declared these clearly illegal. He did not approve the bills passed by the Assembly. However, recent directions of the Supreme Court state that the Governor should not play with fire by sitting on the bills. Before passing a money bill, the Governor has to give assent. The Governor on Thursday approved the Punjab Fiscal Responsibility and Budget Management (Amendment) Bill, 2023. Approved to be presented in the Assembly. Earlier, the Governor had given his assent to two GST bills after the government had moved the Supreme Court. The Punjab Fiscal Responsibility and Budget Management (Amendment) Bill, 2023 is a money bill. The Governor has to approve the Money Bill before presenting it in the Assembly. Earlier too, he had refused to approve five bills. The Governor had refused to approve not only these three GST bills but also the five previous bills. . One of them was a money bill. While the four bills included the Punjab Police (Amendment) Bill, 2023 and the Sikh Gurdwara (Amendment) Bill, 2023. It also gave power to the State Government to select and appoint suitable persons to the post of Director General of Police. It also did not approve of the CM being the Vice-Chancellor. The purpose of the Gurdwara Bill was to free up the undue control of a particular family over the rights of broadcasting the holy Gurbani. . I</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 07:39 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-following-the-recommendation-of-punjab-government-governor-purohit-adjourned-the-budget-session-also-approved-the-money-bill-23581903.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Akali Dal chief Sukhbir Badal calls AAP's rural workers 'malang', AAP condemns</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. The Aam Aadmi Party (AAP) has strongly condemned the statement of Shiromani Akali Dal (Badal) President Sukhbir Singh Badal in which he called the rural workers of the Aam Aadmi Party as malangs. Working President of Party Punjab, Principal Budh Ram said that this statement of Sukhbir Badal shows the wrong attitude of Akali Dal and Badal family not only towards the common workers but also towards the common people. Budh Ram said - Sukhbir should apologize to the people of Punjab. Badal: This clearly shows how much hatred people like Sukhbir Badal have towards the common people. This is the reason why the people of Punjab also completely rejected the politics of these parties. Budh Ram said that crores of people of Punjab have elected the AAP government led by Chief Minister Bhagwant Singh Mann. Therefore, such statement of Sukhbir Badal is an insult to the mandate and democracy of the people of Punjab. He should immediately apologize to the people of Punjab for his objectionable remarks. Also Read: Punjab News: After eight and a half months, the budget session of the Assembly was prorogued, Governor Purohit gave its approval. This clearly shows that in the minds of people like Sukhbir Badal How much hatred there is towards the common people. This is the reason why the people of Punjab also completely rejected the politics of these parties. Budh Ram said that crores of people of Punjab have elected the AAP government led by Chief Minister Bhagwant Singh Mann. Therefore, such statement of Sukhbir Badal is an insult to the mandate and democracy of the people of Punjab. He should immediately apologize to the people of Punjab for his objectionable remarks. Also Read: Punjab News: After eight and a half months, the budget session of the Assembly was adjourned, Governor Purohit approved. Also Read: Punjab News: After eight and a half months, the budget of the Assembly was adjourned. Session adjourned, Governor Purohit gave approval</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 07:26 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-akali-dal-chief-sukhbir-badal-calls-aaps-rural-workers-malang-aap-condemns-23581783.html</t>
+  </si>
+  <si>
+    <t>Punjab News: After eight and a half months, the budget session of the Assembly was adjourned, Governor Purohit approved</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. On the recommendation of the Punjab Government, Governor Banwarilal Purohit has announced the prorogation of the budget session of the Punjab Legislative Assembly. On 15 November the Governor lifted the session. The meeting of the Legislative Assembly was adjourned sine die on 20 October. The Governor had approved the convening of the budget session on February 28. The Governor had declared the session unconstitutional. There was a lot of tension between the Governor and the Chief Minister over the Punjab Government not recommending prorogation of the budget session of the Assembly. Due to this tension, the Governor declared the session called on 20th and 21st October as unconstitutional. Due to which the government had to end the assembly meeting in a single day and the Punjab government went to the Supreme Court against the Governor. During these eight and a half months, the Punjab government called the session thrice including the budget session. Also Read: Red Alert in Punjab to stop stubble burning, DGP Shukla said - 'Strict legal action will be taken against the criminals' On the behest of SC, the Punjab government Regarding the session held on June 19-20, the Governor had written a letter to the Speaker asking for details of the work. On which the Speaker had written to the Governor that the details of the work would be decided in the meeting of the Business Advisory Committee. However this meeting did not take place. Due to which the Governor was also informed about the work. At the same time, after the intervention of the Supreme, the Punjab Government recommended the prorogation of the session to the Governor. Which was approved by the Governor on 15 November 2023.Also Read:Hoshiarpur: Change made in the schedule of voter list of SGPC elections, date of registration extended till 29 February.Punjab government has not recommended prorogation of the budget session of the Assembly. There was a lot of tension between the Governor and the Chief Minister regarding this. Due to this tension, the Governor declared the session called on 20th and 21st October as unconstitutional. Due to which the government had to end the assembly meeting in a single day and the Punjab government went to the Supreme Court against the Governor. During these eight and a half months, the Punjab government called the session thrice including the budget session. Also Read: Red Alert in Punjab to stop stubble burning, DGP Shukla said - 'Strict legal action will be taken against the criminals' On the behest of SC, the Punjab government Regarding the session held on June 19-20, the Governor had written a letter to the Speaker asking for details of the work. on which</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 06:01 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-after-eight-and-a-half-months-the-budget-session-of-the-assembly-was-adjourned-governor-purohit-approved-23581815.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Now sniffer dogs will search for illegal liquor, Excise Department has prepared a proposal and sent it to the Finance Minister.</t>
+  </si>
+  <si>
+    <t>Kailash Nath, Chandigarh. Till now you might have seen 'sniffer dogs' searching for drugs and explosive substances, but now in Punjab you will soon see sniffer dogs searching for illegal liquor also. The Excise Department has prepared a proposal in this regard. The Excise Department is also feeling the need of sniffer dogs because the business of making illegal liquor has been going on in the riverine areas of Punjab for a long time. The liquor buried under the ground cannot be detected. Police and Excise Department are not able to catch it as expected. Are. Smugglers manufacturing illicit liquor bury it underground, due to which many times the team that goes to catch illicit liquor is not able to know where the liquor is buried. According to the information, Excise Department officials have given the proposal to purchase sniffer dog to the department's Minister Harpal Cheema. Also read: Red Alert in Punjab to stop stubble burning, DGP Shukla said - 'Strict legal action will be taken against criminals'Fund The department has also decided to purchase sniffer dogs in view of the revenue loss due to illicit liquor. There will be no shortage of funds for the department to purchase sniffer dogs, because Harpal Cheema is in charge of the finance department and he also agrees to the proposal to purchase the dogs. Although it has not been decided yet how many sniffer dogs are to be purchased, but the department has started searching for it. The dogs will be given training first. According to the information, after purchasing the sniffer dogs, they will be given training first. Till now, all the sniffer dogs in Punjab have been trained to smell and detect drugs and explosive substances. This will be the first time when the Excise Department will train dogs to detect illegal liquor. Also read: Punjab: For the first time, a Gurudwara committee has been accused of money transaction through hawala, the case of Rs 10,000 crore is not decided yet. It has been decided whether this training will be imparted from outside or in the training center of Punjab Police located at Derabassi. The department is believing that if sniffer dog comes to their department, it can be of great help in finding illegal liquor. Police and Excise department are not able to catch it as expected. Smugglers manufacturing illicit liquor bury it underground, due to which many times the team that goes to catch illicit liquor is not able to know where the liquor is buried. According to the information Excise Department</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 12:02 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-now-sniffer-dogs-will-search-for-illicit-liquor-excise-department-has-prepared-a-proposal-and-sent-it-to-finance-minister-23581475.html</t>
+  </si>
+  <si>
+    <t>Red Alert in Punjab to stop stubble burning, DGP Shukla said - 'Strict legal action will be taken against criminals'</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. On the instructions of the Supreme Court, a red alert has been issued to stop the incidents of stubble burning in Punjab. Special DGP Law and Order Arpit Shukla has been appointed nodal officer. Shukla visited Hoshiarpur and Nawanshahr on Wednesday and said that a red alert has been issued in the state. Strict legal action will be taken against those who burn stubble. On Wednesday, 2,544 incidents of stubble burning were reported in the state. Maximum 356 cases were in Bathinda. 30,661 incidents have taken place in the season. Also read: Air Pollution: Administration's strictness in Punjab is breathless, farmers are burning stubble without fear, AQI crossed 280 in Jalandhar. Make people aware about the ill effects of burning stubble. Special DGP has asked all the police commissioners, SSP, DSP and SHO were asked to contact farmers, citizens and stakeholders to make them aware about the ill effects of stubble burning and tell them that it is a violation of the law. If this is done then action will be taken. He said that police officers should also talk to sarpanches and farmer leaders. Also read: Punjab Air Pollution: AQI once again crosses 300, record increase in a day; Even breathing is becoming difficult. Strict legal action will be taken against those who burn stubble. On Wednesday, 2,544 incidents of stubble burning were reported in the state. Maximum 356 cases were in Bathinda. 30,661 incidents have taken place in the season. Also read: Air Pollution: Administration's strictness in Punjab is breathless, farmers are burning stubble without fear, AQI crossed 280 in Jalandhar. Make people aware about the ill effects of burning stubble. Special DGP has asked all the police commissioners, SSP, DSP and SHO were asked to contact farmers, citizens and stakeholders to make them aware about the ill effects of stubble burning and tell them that it is a violation of the law. If this is done then action will be taken. He said that police officers should also talk to sarpanches and farmer leaders. Also read: Punjab Air Pollution: AQI once again crosses 300, record increase in a day; It is becoming difficult to even breathe. Also read: Air Pollution: Strictness of the administration in Punjab is breathless, farmers are burning stubble without fear, AQI crossed 280 in Jalandhar. Make people aware about the bad effects of burning stubble. Special DGP has asked all the police commissioners, SSP, DSP. And told the SHO to contact the farmers, citizens and stakeholders.</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 10:43 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-red-alert-in-punjab-to-stop-stubble-burning-dgp-shukla-said-strict-legal-action-will-be-taken-against-criminals-23581410.html</t>
+  </si>
+  <si>
+    <t>Punjab: 'Happy Diwali in 50 thousand houses due to the decision of Mann government', AAP spokesperson Grewal enumerated the achievements of the party</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Praising Chief Minister Bhagwant Mann, the Aam Aadmi Party (AAP) said that during the last one and a half years, his government has continuously given government jobs to the youth, due to which more than 50 thousand families of the state have had a happy Diwali this time.Party Headquarters Speaking to reporters, AAP Punjab spokesperson Ahbab Grewal said that in the last 18 months, the Mann government has given more than 37 thousand government jobs. This average is close to 23 thousand every year. The Mann government appointed about 12 thousand raw employees, on the contrary, the previous Congress government had given 56 thousand government jobs in five years, which is an average of around 11,325 every year. Grewal said that apart from this, the Mann government has confirmed about 12 thousand raw employees. By December 31, 2023, about nine thousand more employees will be confirmed. The salary and allowances of these employees have also increased by almost three times. Also read: Punjab Assembly Secretariat wrote a letter to the Governor to end the budget session, steps taken after the SC decision. Nearly Rs 1 lakh 17 thousand crore in the state. Talking about investment, during the tenure of Congress government from 2017 to 2022, there was investment of about Rs 1 lakh 17 thousand crore in the state. At the same time, in just 18 months of Mann government, an investment of Rs 56 thousand crores has been made. He claimed that these figures will increase further in the coming days. With this investment, about 3800 new projects have been set up in the state, which will generate approximately three lakh jobs. Also read: Finance Minister Harpal Cheema said on the one-time settlement scheme, the total dues of Rs 6086.25 crore will be settled. On the contrary, the names of the jobs in the previous governments But a lot of fun was made with Punjabis. Captain Amarinder Singh had distributed job cards and fooled Punjabis that they would get jobs through this card. You don't do anything like this. AAP does not go back on promises and is continuously providing employment to the youth. Talking to journalists at the party headquarters, AAP Punjab spokesperson Ahbab Grewal said that in the last 18 months, the Mann government has given more than 37 thousand government jobs. This average is close to 23 thousand every year. The Mann government appointed about 12 thousand raw employees, on the contrary, the previous Congress government had given 56 thousand government jobs in five years, which is an average of around 11,325 every year. Grewal said that apart from this, the Mann government has given about 12 thousand rupees.</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 10:14 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-diwali-in-50-thousand-houses-due-to-decision-of-mann-government-aap-spokesperson-grewal-enumerated-achievements-of-party-23581394.html</t>
+  </si>
+  <si>
+    <t>Punjab Weather: There is a rise in temperature, today there will be clouds along with sunshine; Know how the weather will be in the coming days</t>
+  </si>
+  <si>
+    <t>Jagran correspondent, Chandigarh. Cold has knocked in the state. People have taken out their warm clothes. People of the state have started packing into their beds in the morning and evening. Today, there are chances of cloudy weather along with sunshine during the day. Talking about the temperature, the maximum temperature of the state will be 65 percent and the minimum temperature will be 42 percent. The era of pollution is not ending. On the other hand, the era of pollution is not ending in Punjab even after Diwali. On Wednesday, 144 cases of stubble burning were reported in the district. Of these, maximum 63 cases of stubble burning were seen in Jagraon. After this, more stubble was burnt in Ludhiana East and Payal and Raikot. Also read: Air Pollution: Administration's strictness in Punjab is breathless, farmers are burning stubble without fear, AQI crossed 280 in Jalandhar, air quality in poor category due to stubble burning. The air quality index in the district was at the level of 289, which falls in the poor category. According to the data of Punjab Pollution Control Board, till November 15, a total of 1524 cases of stubble burning have been reported in the district. Punjab Police has given instructions to take precautions. In view of the increasing cold, Punjab Police has asked to be careful while walking on the roads. In the winter season, along with following the signs, the vehicle should also be in good condition. This will prevent accidents in the state. Also read: Punjab Air Pollution: AQI once again crosses 300, record increase in a day; Even breathing is becoming difficult. On the other hand, even after Diwali, pollution is not ending in Punjab. On Wednesday, 144 cases of stubble burning were reported in the district. Of these, maximum 63 cases of stubble burning were seen in Jagraon. After this, more stubble was burnt in Ludhiana East and Payal and Raikot. Also read: Air Pollution: Administration's strictness in Punjab is breathless, farmers are burning stubble without fear, AQI crossed 280 in Jalandhar, air quality in poor category due to stubble burning. The air quality index in the district was at the level of 289, which falls in the poor category. According to the data of Punjab Pollution Control Board, till November 15, a total of 1524 cases of stubble burning have been reported in the district. Punjab Police has given instructions to take precautions. In view of the increasing cold, Punjab Police has asked to be careful while walking on the roads. Follow the signs during winter season.</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 16 Nov 2023 07:38 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-weather-there-is-rise-in-temperature-today-there-will-be-clouds-along-with-sunshine-know-how-weather-will-be-in-coming-days-23581313.html</t>
+  </si>
+  <si>
+    <t>Punjab: For the first time, a Gurdwara committee has been accused of transferring money through hawala, a case of Rs 10 thousand crores.</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Among the three alleged videos of Devendra Pratap Singh Tomar, son of Union Agriculture Minister Narendra Singh Tomar, in which a transaction worth Rs 500 crore is being talked about, the name of former Delhi Sikh Gurdwara Management Committee chief Manjinder Singh Sirsa is mentioned in the third video. This has heated up Sikh politics. This is the case of Rs 10,000 crore. This is the first time that a person has made such an allegation as to how the money is being transferred through the Delhi Sikh Gurdwara Management Committee. Canada's Jagmandeep Singh made this allegation by releasing a video and said that this is not a case of Rs 500 crore but a case of Rs 10 thousand crore. You asked - Why is ED now silent on these allegations, where Manjinder Singh Sirsa answered openly. At the same time, Delhi Sikh Gurdwara Management Committee has threatened to take legal action against the accuser while Shiromani Akali Dal has expressed doubt that this matter will not be investigated impartially, hence the Supreme Court should get the matter investigated under its supervision. Aam Aadmi Party has asked why the ED is silent now? An attempt is being made at the behest of Congress to tarnish its reputation. Manjinder Singh Sirsa said that when the annual budget of DSGMC is ₹ 130 crore, whereas in the video being mentioned, ₹ There is talk of money transfer of Rs 10,000 crore. It is not possible for anyone to transfer such a huge amount to the Gurdwara Committee or take back the transfer. This is a fictional story beyond facts. He said that at the behest of the Congress, efforts are being made to tarnish the reputation of the Gurdwara Management Committee. This is being done because they have accused Congress leader Kamal Nath of killing innocent Sikhs outside Gurdwara Rakabganj Sahib in the 1984 Sikh massacre. Questions were raised on his role. Sirsa has appealed to Sri Akal Takht Sahib's Jathedar Giani Raghbir Singh to get the accounts of DSGMC investigated and pay attention to the condemnable efforts of those who defame the institutions of Gurudwaras. So far Rs 16.47 crore has been received under donations. On the other hand, today Delhi Gurdwara Management Committee chief Harmeet Singh Kalka has also shared a post on his</t>
+  </si>
+  <si>
+    <t>Updated: Wed, 15 Nov 2023 11:54 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-for-the-first-time-a-gurdwara-committee-has-been-accused-of-taking-money-through-hawala-sikh-politics-heated-up-23581116.html</t>
+  </si>
+  <si>
+    <t>Punjab connection of Delhi liquor scam... CBI summoned 10 officers, Manish Sisodia's troubles increased?</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Delhi Liquor Scam: The Central Investigation Agency (CBI) has summoned ten officials of the Excise Department of Punjab in the Delhi Liquor Scam case. The summoning of Punjab Excise Department officials by the CBI has created panic among the officials of the department. It is being told that after recording the statement to the Punjab authorities, the problems of former Delhi Deputy CM Manish Sisodia may increase. At the same time, the scope of investigation can also reach Punjab. Let us tell you that Delhi liquor scam accused Manish Sisodia has filed a bail petition in the Supreme Court. Based on the interrogation of Punjab officials, the CBI officer can appeal to the Supreme Court to reject Sisodia's bail plea, arguing that the investigation should continue. If Manish Sisodia's bail application is rejected, he may have to spend more time in jail. Has the Punjab government implemented Delhi's liquor policy? On the other hand, there is discussion in political circles that the liquor policy made by the Delhi government will be implemented. Punjab government has also implemented it. CBI and Enforcement Directorate (ED) have already interrogated two senior IAS officers of Punjab. Also read- Punjab News: Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected. Now CBI SP Rajiv Kumar has called ETO rank officers of the department to record their statements on Monday and Tuesday. Due to which there is a situation of confusion among the departmental officers. Harsimrat Kaur Badal had raised the issue of liquor scam in the Parliament. It should be noted that the government led by former Punjab Chief Minister Captain Amarinder Singh had passed a resolution in the Assembly that CBI cannot conduct any investigation without the approval of the state government. Leaders of the ruling party say that CBI is deliberately causing trouble at the behest of the Central Government. At the same time, there is talk in political circles that on August 3, former minister and Akali leader Harsimrat Kaur Badal had raised the issue of liquor scam in Parliament and demanded an investigation from Union Home Minister Amit Shah. Read this also-Punjab News: 'Why were the recruitment rules changed for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann Let us tell you that Manish Sisodia, accused in Delhi liquor scam, filed a bail petition in the Supreme Court. of</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 08:02 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-delhi-liquor-scam-cbi-summoned-ten-officers-of-punjab-government-questioning-manish-sisodia-case-23526048.html</t>
+  </si>
+  <si>
+    <t>Punjab News: HC raised questions on the petition declaring the arrest of Amritpal and his associates illegal, said this</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh: On the petition of separatist Amritpal Singh and his associates Gurmeet Singh Bukkanwala, Kulwant Singh Raoke, Bhagwant Singh alias Prime Minister Bajeke and Basant Singh, the Punjab and Haryana High Court has raised questions as to when they were arrested after the FIR. So how can the petition declaring the arrest illegal be valid? While filing the petition in the High Court on behalf of everyone, it was said that due to the attack on Ajnala police station, the police had registered an FIR and initiated action. During this time the petitioners were also arrested and accused of this attack and sent to jail. The petitioners argue that he was not involved in this attack. In such a situation, the police action and arrest of the petitioners is wrong. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition, hence the action against him should be canceled. And an appeal has been made in the petition for the release of the petitioners. Now the High Court has raised questions on the propriety of this petition itself. The court said that this petition is calling the arrest illegal, whereas an FIR has been registered, so how is this petition valid. The court has ordered to present the case in the next hearing. While filing a petition in the High Court on behalf of everyone, it was said that due to the attack on Ajnala police station, the police had registered an FIR and initiated action. During this time the petitioners were also arrested and accused of this attack and sent to jail. The petitioners argue that he was not involved in this attack. In such a situation, the police action and arrest of the petitioners is wrong. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition, hence the action against him should be canceled. And an appeal has been made in the petition for the release of the petitioners. Now the High Court has raised questions on the propriety of this petition itself. The court said that this petition is calling the arrest illegal, whereas an FIR has been registered, so how is this petition valid. The court has ordered to present the side in this regard at the next hearing. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition against him. To cancel the action and protect the petitioners</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 12 Aug 2023 06:30 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-hc-raised-questions-on-the-petition-calling-the-arrest-of-amritpal-and-his-associates-illegal-23499131.html</t>
+  </si>
+  <si>
+    <t>Challenge in HC to conduct premature elections of District Councils, demand to cancel the decision of Punjab Government</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Punjab News: The Punjab Government's notification to conduct district council elections ahead of schedule has been challenged in the Punjab and Haryana High Court. The High Court will hear this petition on Tuesday. In the petition filed by Narendra Singh of Sri Muktsar Sahib, it has been alleged that the tenure of the Zilla Parishads is till October next year but the government is going to conduct elections in December this year.'Government's move 'Completely illegal' The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. The petition said that the notification is against the law. The petition argued that all the Gram Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. But after the matter came to the High Court, the government had withdrawn its decision. According to the petition, the power to announce elections at any time and dissolve the councils cannot mean that the tenure prescribed by the Constitution can be changed at the will of the authority concerned. It should be reduced accordingly. In the petition filed by Narendra Singh of Sri Muktsar Sahib, it has been alleged that the tenure of the Zilla Parishads is till October next year but the government is going to conduct elections in December this year. 'The government's step is completely illegal' The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. The petition said that the notification is against the law. The petition argued that all the Gram Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. But after the matter came to the High Court, the government had withdrawn its decision. According to the petition, the power to announce elections at any time and dissolve the councils cannot mean that the tenure prescribed by the Constitution can be changed at the will of the authority concerned. The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. Said in the petition that the notification is against the law. The petition argued that all the rural areas of Punjab</t>
+  </si>
+  <si>
+    <t>Updated: Mon, 04 Sep 2023 07:01 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-haryana-high-court-district-council-election-demand-to-cancel-the-decision-of-punjab-government-23521588.html</t>
+  </si>
+  <si>
+    <t>Property dispute: Interference in High Court's order proved costly, contempt notice to Amritsar SSP</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. In the property dispute case, going against the order of not doing any kind of interference on the complainant's land and getting the possession of the other party, it cost the SSP of Amritsar a lot. The High Court has issued a contempt notice to the SSP and ordered it to file a reply in this matter. While filing the petition, Rashpal Singh told the High Court through advocates LM Gulati and Divya Gulati that he purchased 14 Kanal land from Gurdhar Singh. Was. After purchasing this land, it was destroyed and the petitioner got its ownership and possession. After this, Gurdhar Singh started harassing the petitioner for selling this land to someone else. Despite the order, the SSP took action against him. The petitioner filed a civil suit in the Amritsar court and the court refused to take any action on the petitioner's land. Issued an order not to interfere. Despite this order, Gurdhar complained to the SSP of Amritsar and on the basis of the complaint, the possession of this land was given to Gurdhar along with the police force. During this, the petitioner also showed a copy of the court order to the police officials but it was ignored. Went. After hearing the arguments of the petitioner, the High Court has now issued a contempt notice to the SSP of Amritsar and ordered him to file a reply in this case. While filing the petition, Rashpal Singh told the High Court through advocates LM Gulati and Divya Gulati. Told that he had purchased 14 kanals of land from Gurdhar Singh. After purchasing this land, it was destroyed and the petitioner got its ownership and possession. After this, Gurdhar Singh started harassing the petitioner for selling this land to someone else. Despite the order, the SSP took action against him. The petitioner filed a civil suit in the Amritsar court and the court refused to take any action on the petitioner's land. Issued an order not to interfere. Despite this order, Gurdhar complained to the SSP of Amritsar and on the basis of the complaint, the possession of this land was given to Gurdhar along with the police force. During this, the petitioner also showed a copy of the court order to the police officials but it was ignored. Went. After hearing the arguments of the petitioner's side, the High Court has now issued a contempt notice to the SSP of Amritsar and ordered him to file a reply in this case. Against this, the petitioner filed a civil suit in the Amritsar court and the court ordered the petitioner's land to be seized. An order was issued not to interfere in any way. this order</t>
+  </si>
+  <si>
+    <t>Updated: Thu, 24 Aug 2023 09:36 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-property-dispute-punjab-haryana-high-court-order-contempt-notice-to-ssp-of-amritsar-23511427.html</t>
+  </si>
+  <si>
+    <t>Bikram Majithia accused CM Bhagwant Mann of discrimination, said- 'How will we stop the migration of such youth abroad?'</t>
+  </si>
+  <si>
+    <t>Chandigarh, Jagran Digital Desk: Former Punjab MLA and Akali Dal leader Bikram Singh Majithia tried to corner CM Bhagwant Mann regarding the job. He accused the AAP government of discriminating against the youth of Punjab. How will we stop the foreign migration of Punjabi youth: MajithiaBikram Singh Majithia tweeted that if you cannot recruit them in Punjab, then you can stop the migration of Punjabi youth. How will we stop migration to foreign countries? Tagging Bhagwant Mann, he further said that it is shocking that out of the 7 sub inspectors recruited in Mansa district, 6 are from Haryana. It was the same story in earlier appointments also. Majithia accused CM Mann of discrimination. Accusing CM Bhagwant Mann of discrimination, Bikram Singh Majithia said that after promising lakhs of jobs, your government is discriminating against our youth. Along with this tweet, he accused Punjab CM of negligence and discrimination regarding employment of youth. How will you prevent the exodus of Punjabi youth to foreign countries if you can't even recruit them in Punjab @BhagwantMann? It's shocking 6 out of 7 Sub Inspectors recruited in Mansa district are from Haryana. Same was the story in earlier appointments also. Your govt is… pic.twitter.com/1G7i8iuEXR— Bikram Singh Majithia (@bsmajithia) September 7, 2023Majithia has also taken a dig at floods. This is not the first time that Bikram Singh Majithia has cornered CM Bhagwant Mann, even before this he had Even called it a cartoon. Taking aim at CM Bhagwant Mann for the huge devastation caused by floods, he said that he is a cartoon, he just ate, drank and slept. Flood caused huge devastation in Punjab, but CM did not make any preparations before, whereas preparations should be done in advance to deal with it. Also read: Punjab Top 5 latest News: CM Bhagwant Mann tightened his waist regarding stubble, is no longer a historian Professor Prithi Singh KapoorBikram Singh Majithia tweeted that if you cannot recruit them in Punjab then how will you stop the migration of Punjabi youth to foreign countries. Tagging Bhagwant Mann, he further said that it is shocking that out of the 7 sub inspectors recruited in Mansa district, 6 are from Haryana. It was the same story in earlier appointments also. Majithia accused CM Mann of discrimination.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 11:29 AM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-bikram-majithia-accused-cm-bhagwant-mann-of-discriminating-against-youth-in-punjab-23524812.html</t>
+  </si>
+  <si>
+    <t>Punjab News: 'Why changed the recruitment rules for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann</t>
+  </si>
+  <si>
+    <t>Chandigarh, State Bureau. Punjab Politics Shiromani Akali Dal (SAD) today asked Chief Minister Bhagwant Mann to explain why the Aam Aadmi Party government changed its own recruitment rules for the selection of PTI master cadre teachers. Why was an attempt made to recruit ineligible candidates who were not selected as service students? Akali Dal Legal Wing President Sardar Arshdeep Singh Kaler said that while recruiting PTI Master Cadre teachers, the AAP government specifically While giving said that only those candidates will be considered for appointment. Who have passed Punjab State TET-2 examination. He said that the eligible teachers were called for verification of their documents on December 19, 2022. 'It is very unfortunate that the very next day...' Kaler said that instead of appointing the eligible candidates, the government allegedly... Normally a committee was formed for the appointment process. Subsequently, a notification was issued on 26 July, which was posted on the government website for three days, stating that candidates who did not pass the Punjab State TET-2 were also eligible for appointment. The Akali leader said that it is very unfortunate that even before the selection list was released the very next day, the government tried to include new ineligible candidates in government service by allotting them stations. Also read - CM Bhagwant Mann in Jalandhar Appointment letters given to Sub Inspectors, said - Recruitment done in a transparent manner. Why did you violate your own rules? The President of the Legal Wing said that the aggrieved candidates raised this issue in the Punjab and Haryana High Court, which dismissed the ineligible candidates. Blocked the inclusion and asked the government to explain why it violated its own rules. He also assured the aggrieved candidates of full legal help from the Akali Dal. Meanwhile, eligible PTI master cadre candidates Sardul Singh and Amandeep Sagar said that they contacted the Akali Dal president after being reprimanded by Education Minister Harjot Bains. did. The candidates said that when they went to meet the Education Minister, he told them that your colleagues have climbed the water tank, you should also do the same. Other eligible candidates said that now we will agitate till then. Unless the Education Minister tells us that there is no change in the rules to deprive meritorious students of government jobs.</t>
+  </si>
+  <si>
+    <t>Updated: Sat, 09 Sep 2023 05:06 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-akali-dal-asked-cm-bhagwant-mann-why-were-the-recruitment-rules-changed-for-the-selection-of-pti-master-cadre-teachers-23525920.html</t>
+  </si>
+  <si>
+    <t>Punjab Patwari Appointment Letter: New pen in new hands... CM Bhagwant Mann handed over appointment letters to 710 Patwaris.</t>
+  </si>
+  <si>
+    <t>Chandigarh, Jagran Correspondent. Punjab Patwari Appointment Letters: Punjab Chief Minister Bhagwant Mann has today handed over appointment letters to 710 Patwaris in Chandigarh. He also congratulated the newly appointed Patwaris for joining the Punjab Government. During this, CM Mann said, "Getting the job of Patwari without paying any money is like coming out of the sea without taking a dip. In the previous governments, offerings were made for the job of Patwari. The Punjab Government has trusted the new Patwaris without any discrimination. You are requested to solve the problems of the people with honesty whenever you enter the field. Do it, because with your one signature the hopes of the common people will be raised. Big announcement for the Patwaris undergoing training. CM Bhagwant Mann also announced to increase the stipend given to the Patwaris during the training period. While announcing, the CM said, "Press the pen and experiment, the allowances will keep increasing. If you leave the pen, I will not take responsibility for the strike." He also said that regular recruitment will be done, as is done in the police service. Also read: CM Bhagwant Mann's visit to Hoshiarpur: Took a tour of the flood affected areas by riding on a boat, new pens in his hands... Live from Chandigarh during the distribution ceremony of appointment letters to 710 newly appointed Patwaris... https://t.co/ cRY3zWrDPc— Bhagwant Mann (@BhagwantMann) September 8, 2023 It is noteworthy that a few days ago in Punjab, the Patwaris-lawmen protesting against the Punjab government had given an ultimatum to leave their pens and go on strike. After which the government had imposed ESMA in the state. .Punjab CM Bhagwant Mann has handed over appointment letters to 710 Patwaris who passed the test at Tagore Theater today. The special thing is that these Patwaris have been selected out of a total of one lakh candidates. "There are many names of corruption..." CM Mann He further said that corruption has many names, sometimes it is called donation, sometimes it is called premium, tea, water, service, think about us, all are these names. Giving the example of SSP, he said how bribery runs from top to bottom. During this, Punjab CM Bhagwant Mann also said that data is being collected in Mohalla Clinic, Punjab has to be made Punjab, there is a need to make London, California. No. CM Mann said during this time, "Getting the job of Patwari without paying any money is like getting a job in the sea without any money."</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 12:48 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-cm-bhagwant-mann-will-give-appointment-letters-to-710-patwaris-in-chandigarh-nikharda-punjab-23524848.html</t>
+  </si>
+  <si>
+    <t>Punjab today witnessed historic moments in the education sector; CM Mann handed over appointment letters to 12,710 temporary teachers</t>
+  </si>
+  <si>
+    <t>Chandigarh, Jagran Digital Desk: Punjab CM Bhagwant Mann handed over permanent appointment letters to 12,710 temporary teachers. He said that everyone is welcome in the family of Punjab Government. Today Punjab witnessed historic moments in the education sector...As promised, appointment letters for permanent teachers were handed over to 12,710 temporary teachers troubled by the bad intentions of the previous governments...All Welcome to the family of Punjab Government… By the grace of God and with the love and support of Punjabis, in the coming days… pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@BhagwantMann) July 28, 2023 Raw words will not be allowed to remain in Punjab- By the grace of God and with the love and support of Punjabis, more decisions will be taken in the people's favor in the coming days. Keep the faith, we will soon confirm the remaining raw employees. CM Mann said that we will not allow the word 'Kachha' to remain in Punjab. Further details are awaited. Punjab today witnessed historic moments in the education sector... As promised, appointment letters for permanent teachers were handed over to 12,710 temporary teachers troubled by the bad intentions of the previous governments... All thanks to the Punjab Government. Welcome to the family...by the grace of God and with the love and togetherness of Punjabis, in the coming days... pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@BhagwantMann) July 28, 2023 As promised, 12,710 temporary workers troubled by the bad intentions of the previous governments. Handed over the confirmation letters to the teachers... Welcome everyone to the family of Punjab Government... By the grace of God and with the love and support of Punjabis, the days to come... pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@ BhagwantMann) July 28, 2023By the grace of God and with the love and support of Punjabis, more decisions will continue to be taken in favor of the people in the coming days. Keep the faith, we will soon confirm the remaining raw employees. CM Mann said that we will not allow the word 'Kachha' to remain in Punjab. Further details are awaited.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 28 Jul 2023 04:05 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-today-witnessed-historic-moments-in-the-education-sector-cm-mann-handed-over-appointment-letters-to-more-than-seventeen-temporary-teachers-23484936.html</t>
+  </si>
+  <si>
+    <t>G20 Summit 2023: 'I will not tolerate all this in UK', Rishi Sunak bluntly on Khalistan issue as soon as he reached India</t>
+  </si>
+  <si>
+    <t>Chandigarh, Jagran Digital Desk: British Prime Minister Rishi Sunak has come to India to participate in the G-20 to be held in Delhi. In an interview given to news agency ANI, Rishi Sunak also gave his comments on the Khalistan issue. He said that this is a really important question and I want to say clearly that any kind of extremism or violence is not acceptable in the UK. He said that "We are particularly committed to tackling 'PKE' pro-Khalistan extremism. We are working together with the Government of India for this. I don't think this is correct. Our Security Minister was recently talking to his counterparts in India. We have groups working together to share intelligence and information so that we can root out this kind of violent extremism. This is not right and I will not tolerate it in the UK.''G-20 in India | On the Khalistan issue, United Kingdom Prime Minister Rishi Sunak to ANI says, "It's a really important question and let me just say unequivocally that no form of extremism or violence like that is acceptable in the UK. And that's why we are working very closely … pic.twitter.com/RpjfpfVr2X— ANI (@ANI) September 8, 2023 Will also visit Akshardham in Delhi Union Minister Ashwini Kumar Choubey welcomed the British Prime Minister and his wife at the airport. While attending the G-20 summit Apart from this, Rishi Sunak will also visit Akshardham Temple in Delhi on Sunday, September 10. Arrangements have been made for British Prime Minister Rishi Sunak to stay at Shangri La Hotel in Delhi. He said, "We are especially supporters of 'PKE' Khalistan. working closely with the Indian government to deal with extremism. I don't think that's right. Our security minister was recently talking to his counterparts in India. We have intelligence and sharing together There are working groups so that we can root out this type of violent extremism. This is not right and I will not tolerate it in the UK.''G-20 in India | On the Khalistan issue, United Kingdom Prime Minister Rishi Sunak to ANI says, "It's a really important question and let me just say unequivocally that no form of extremism or violence like that is acceptable in the UK. And that's why we are working very closely … pic.twitter.com/Rp</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 08 Sep 2023 06:18 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-g20-summit-2023-i-will-not-tolerate-all-this-in-uk-rishi-sunak-bluntly-on-khalistan-issue-as-soon-as-he-reaches-india-23525164.html</t>
+  </si>
+  <si>
+    <t>Punjab News: Next hearing of 5994 recruitment case now on December 12, appeal to complete the process soon</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. During the hearing of the case related to the recruitment of 5994 teachers in the Punjab and Haryana High Court today, the Punjab Government appealed to the court to decide the matter quickly in order to complete the recruitment process soon. Giving information regarding this matter, a spokesperson of the Punjab Government said that the case regarding recruitment of 5994 teachers was listed for hearing today before the double bench led by Honorable Justice Deepak Sibal and Honorable Justice Sukhwinder Kaur. This matter will also be heard in the Supreme Court. Senior Deputy Advocate General Ramandeep Singh Pandher appeared for the Punjab government during the hearing. He requested the Honorable Court that it is very important for the Punjab Government to complete this recruitment process soon because this will help in overcoming the shortage of teachers in those schools of the state where at present only one teacher is running the school. He also requested that this matter is also under hearing in the Supreme Court. The next hearing is scheduled on December 12, 2023. If its decision is not given soon, then the Honorable High Court should give an interim decision in this regard, so that this recruitment process can be completed. He also requested the court to fix the next hearing of this case as soon as possible, which was accepted by the court and the next hearing of this case has been fixed on December 12, 2023. It is worth mentioning that the hearing of the case related to this case The hearing was completed and the judgment was reserved by the Constitutional Bench of the Supreme Court on July 27, 2023. During the hearing, Senior Deputy Advocate General Ramandeep Singh Pandher appeared for the Punjab Government. He requested the Honorable Court that it is very important for the Punjab Government to complete this recruitment process soon because this will help in overcoming the shortage of teachers in those schools of the state where at present only one teacher is running the school. He also requested that this matter is also under hearing in the Supreme Court. The next hearing is scheduled on December 12, 2023. If its decision is not given soon, then the Honorable High Court should give an interim decision in this regard, so that this recruitment process can be completed. He also requested the court to fix the next hearing of this case as soon as possible, which was accepted by the court and the next hearing of this case has been fixed on December 12, 2023. It is worth mentioning that the hearing of the case related to this case Constitutional bench of Supreme Court</t>
+  </si>
+  <si>
+    <t>Updated: Tue, 14 Nov 2023 11:05 PM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-news-next-hearing-of-5994-recruitment-case-now-on-december-12-appeal-to-complete-the-process-soon-23580351.html</t>
   </si>
   <si>
-    <t>Punjab News: Punjab's AQI improved by 22.8% on Diwali as compared to last year, 70% incidents of stubble burning reduced.</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. The Aam Aadmi Party (AAP) Punjab on Tuesday lauded the Mann government of the state for being successful in keeping the AQI moderate in Punjab even on Diwali. The average AQI recorded in Punjab on Diwali (from 7 am on November 12 to 6 am on November 13) was 207, which was much better than last year. Improvement in air quality index, said a press conference at the Chandigarh party office on Tuesday. Addressing, AAP spokesperson Jagtar Singh Sanghera said that it is a matter of pride for the Punjab government that this year the air quality index is 22.8 percent better than last year. The air quality index in 2022 was 7.6% better compared to Diwali 2021 and further improvement was recorded this year. The air quality index from 7 am on Diwali 2021 to 6 am the next day was 268, while last year the air quality index was 268. The quality index was 224, this year it was recorded at 207. Air quality monitoring stations established in these districts Sanghera said that this value is the result of continuous efforts of the government. The Punjab government, under the leadership of Chief Minister Bhagwant Mann, has set up air quality monitoring stations in six cities, Amritsar, Jalandhar, Ludhiana, Khanna, Mandi Gobindgarh and Patiala, to continuously monitor air quality and collect accurate data.1 lakh 40 thousand machines distributed. He said that incidents of stubble burning have reduced by 70% in Punjab, which is a major factor in better air quality. Since day one, the Mann government has been working diligently to conserve Punjab's resources, water, air and soil and improve the environment in the state. About 1 lakh 40 thousand machines have been distributed, which are being used for paddy straw management. The straw is being used in the production of biofuel. Cooperative societies and NGOs get 80% subsidy on these machines and Individuals get 50% subsidy. More and more organizations and societies are being encouraged to purchase these machines. Farmers are getting education, awareness and resources to save the environment. He said that the stubble is being used in the production of biofuel and farmers are getting additional sources of income. 70 percent less incidents have been recorded. Sanghera said that the machinery and systems of the Punjab government are fully operational. Punjab Government and CM Bhagwant Mann's personal interest and</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-punjab-aqi-improved-by-22-percent-on-diwali-as-compared-to-last-year-70-percent-incidents-of-stubble-burning-reduced-23580356.html</t>
-  </si>
-  <si>
-    <t>Supreme Court had given instructions, despite this the Chief Minister and the Governor did not take steps to improve relations.</t>
-  </si>
-  <si>
-    <t>Kailash Nath, Chandigarh. Despite the directions of the Supreme Court, Chief Minister Bhagwant Mann and Governor Banwari Lal Purohit have not been able to take even a single step forward to improve their relations. The Supreme Court had said on November 6 this month that 'both the government and the governor need to introspect'. The relations between the Chief Minister and the Governor have remained very delicate for the last one year. The relationship between the two has deteriorated so much that the Governor has even stopped using the helicopter of the Punjab government. The opposition protested that the government cannot bring a confidence motion. According to the information, the Chief Minister and the Governor congratulated each other on the occasion of Diwali. Yes, but there has been no meeting between the two. However, Chief Minister Bhagwant Mann is also busy these days with the Madhya Pradesh elections. The foundation of the dispute between the Chief Minister and the Governor was laid on 21 September 2022 when the government called a session of the Legislative Assembly to bring a confidence motion, on which the opposition protested that the government cannot bring a confidence motion. The opposition can bring a no-confidence motion. The Governor withdrew his approval to convene the Assembly. After this protest, the Governor withdrew his approval to convene the Assembly. After this, the government called a session for government work but on October 3, the government presented a confidence motion in the Legislative Assembly. This controversy gained further momentum when President Draupadi Murmu came to Chandigarh on 8 October 2022, on the foundation day of the Air Force. The Governor himself invited the Chief Minister to attend the function but the Chief Minister did not attend the function that day. He had gone to Gujarat for election campaign. After this the Governor canceled the appointment of PAU VC. On which the Chief Minister shared a one-page letter on Twitter on October 20 and wrote that he is accountable to 3 crore people. However, the letter sent by the Chief Minister to Raj Bhavan was of five pages in English. The Governor declared the session called in October as unconstitutional. Due to deteriorating relations with the Governor, the government did not adjourn the session of the Assembly. However, due to technical reasons, the government had to adjourn the session before the budget session. After which the Governor asked the Chief Minister to reply to his letters before calling the budget session. After this the government had to go to the Supreme Court. however</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-supreme-court-had-given-instructions-despite-this-the-chief-minister-and-the-governor-did-not-take-steps-to-improve-relations-23580347.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Punjab government quietly formed Punjab Development Commission, prepared on the lines of NITI Aayog</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. On the lines of NITI Aayog, the Punjab government has also quietly constituted the Development Commission, which, although it has not yet appointed the chairman and members, but has appointed a vice chairperson. How can this commission get the government's flagship programs implemented quickly among the people and by doing research, it can tell the concerned departments what kind of reforms are there in these? Punjab Development Commission has been formed recently. It has been done, but the government did not make much publicity about it but instead brought it to the cabinet and approved it. Just as NITI Aayog helps the departments in the central government to implement their policies on the basis of research, this commission will also do the same work. At present, no person has been appointed as the chairperson, but Seema Bansal, who worked in senior positions in Boston Consultancy Group, has been appointed as the vice chairperson. Seema Bansal has also shared this information on her internet media. How will these works be executed? It is worth noting that before entering the elections, Aam Aadmi Party has made many promises to the people of Punjab and has made big announcements in various departments. Has also promised to bring reforms. This commission will now work on how they are to be implemented. This mainly includes Mohalla Clinic, School of Eminence, Agriculture Policy etc. Apart from this, the commission will also give its advice on how to increase the revenue and how tax evasion can be stopped. This commission will establish coordination with various departments and will have six members in which apart from the chairman and chairperson, there will be four more members. It has been claimed that all will be big technocrats in their respective fields. Chief Minister Bhagwant Mann will soon appoint a chairman for the commission. These days the government is working on bringing its first agriculture policy for which an 11-member committee has been formed. The committee has prepared its report and submitted it to the Chief Minister who will make it public any day. This commission will also play an important role in implementing the policy based on this report and will establish coordination with various departments. Punjab Development Commission has been constituted recently, but the government has not made much publicity about it but rather It was brought to the cabinet and approved. The way in which the central government</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-punjab-government-quietly-formed-punjab-development-commission-prepared-on-the-lines-of-niti-aayog-23580346.html</t>
-  </si>
-  <si>
-    <t>Punjab Farmers Protest: Farmers will march to Chandigarh on November 26, to cultivate opium; Will demand MSP and sugarcane price</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Ludhiana. Bharatiya Kisan Union Punjab Pakhowal will siege Chandigarh for three days from November 26 in protest against the non-implementation of the pending demands of the farmers by the Central Government and the Punjab Government. 32 farmer organizations of the country will participate in this siege. The above things were said by the union's state head Harinder Singh Lakhowal and patron Avtar Singh Mehlon during the meeting. He said that thousands of farmers from all over Punjab will participate with their tractors. Even after this, if the demands of the farmers are not met, then they will march towards Delhi and thousands of farmers will open a morcha and sit indefinitely. Discussion on these issues is going on. Farmer leaders said that the central government has increased the MSP during the farmers' struggle. But it was agreed to implement the Guarantee Bill, which has not been implemented even after two years. There is a lot of anger among the farmers regarding this. The Punjab government should announce the increase in sugarcane prices as soon as possible and expedite the procurement of paddy. Apart from this, to protect the youth and farmers of Punjab from synthetic drugs, the government should allow the cultivation of poppy seeds (opium), so that the youth can be saved from the deadly drug. Duties have been imposed on farmers district-wise. Farmer leaders said that this District wise duties have been imposed on the farmers regarding the siege. During this time all the officers, members and all the district heads of the union were present. On this occasion, Darshan Singh Jatana, Bhupinder Singh Dolatpura, Manjit Singh Dhidsa, Daljit Singh Chalki, Harmel Singh Bhuteheri, Joginder Singh Dhillon, Surjit Singh Hariwala, Jaswant Singh Singhpur Dona, Kirpal Singh, Amrit Singh Rajewal, Darshan Singh Kadiana, Gusevak Singh Majali. were present. Farmer leaders said, Punjab farmers are not responsible for Delhi's pollution. Harinder Singh Lakhowal and Avtar Singh Mehlon said that the Centre, Delhi and Haryana governments should stop blaming Punjab for Delhi's air pollution. Punjab is not responsible for Delhi's air pollution. The farmers of Punjab are being deliberately defamed. Farmer leaders said that during the farmers' struggle, the central government had agreed to implement the guarantee bill on MSP, which was extended after two years.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/ludhiana-punjab-farmers-will-march-to-chandigarh-on-november-26-for-demand-msp-and-sugarcane-price-23578738.html</t>
-  </si>
-  <si>
-    <t>Red alert in Punjab regarding G20 Summit in Delhi, tight security arrangements; Police launched search operation</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Red Alert In Punjab: Red alert has been issued in the state to ensure peaceful conduct of the G20 Summit in Delhi. Punjab Police has increased security across the state. On the instructions of Acting DGP Gaurav Yadav, flag march was also taken out from 9 am to 11 am at all sensitive places of 28 police districts, after which Cardon and Search Operation (CASO) was conducted in railway stations and bus stands from 2 pm to 7 pm. Special DGP Law and Order Arpit Shukla said that police teams led by gazetted rank officers took out flag marches in sensitive areas of their respective districts. 139 flag marches were taken out covering 228 sensitive areas in all 28 police districts. Special search operations were conducted at bus stands and railway stations. The DGP said that the CP/SSP will conduct searches at all bus stands and railway stations across the state under the supervision of an SP rank officer. Instructions were given to conduct special cardan and search operations (CASO) in and around the stations. He said that we had strictly instructed all the police personnel to behave in a friendly and polite manner with every person during this operation. Also read - Punjab connection of Delhi liquor scam... CBI arrested 10 officers Summoned, Manish Sisodia's troubles increased? Suspicious people are being monitored. He said that about 255 police teams comprising of more than 1500 police personnel have been deployed across the state to keep an eye on suspicious persons at different railway stations and bus stands of the state. So that people do not face any problem, he said that during the operation conducted at 159 bus stands and 131 railway stations of the state, more than 3660 people were checked and some suspicious persons were detained for questioning by the police teams. Also taken in. Read this also - G20 India: Big success for prosperous India, New Delhi becomes a symbol of PM Modi's leadership ability Leaders' Manifesto Special DGP Law and Order Arpit Shukla said that the gazetted rank officers Under the leadership, police teams took out flag march in sensitive areas of their respective districts. 139 flag marches were taken out covering 228 sensitive areas in all 28 police districts. Search operations conducted at bus stands and railway stations. Special DGP said that CP/</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-red-alert-in-punjab-regarding-g20-summit-in-delhi-tight-security-arrangements-police-conducted-search-operation-23526102.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Punjab Sant Dayal Murder Case: In a big blow to Sant Jarnail Singh, the main conspirator in the case of shooting death of Sant Dayal Das in Dera Har Ka Das, Faridkot in November 2019, the Punjab-Haryana High Court rejected his anticipatory bail plea. Is. While filing the petition, Jarnail Singh said that he is innocent and he was also given a clean chit in the investigation by Punjab Police. Whereas, opposing the anticipatory bail petition, the SIT told the High Court (Punjab Haryana High Court) that till now Investigation has revealed that Sant Jarnail Singh had conspired to murder Sant Dayal Das. The motive behind this was to capture the property worth crores of rupees. In this case, the police officers had given clean chit after taking bribe and now Vigilance is investigating against those police officers also. Sant Jarnail Singh's name was associated with many famous gangsters. The court was told that Sant Jarnail Singh was associated with many famous gangsters. The name is also linked and he already knew the accused Amrik Singh Sheru and Lakhwinder Singh Lakha of firing. Weapons have been recovered in this case and the accused have been arrested. Read this also - Challenge in HC to conduct premature elections of District Councils, demand to cancel the decision of Punjab Government What did the court say?High After hearing all the parties, the court said that the accused in this case remained absconding for three and a half years and only when an interim stay was put on his arrest, he joined the investigation and appeared before the fifth SIT. But even after going there, he did not cooperate in the investigation. In this case, custodial interrogation of the petitioner is necessary to know the relationship of the petitioner with gangsters, payment to gangsters for murder, motive of murder etc. In such a situation, the High Court rejected the anticipatory bail petition outright. Read this also - Property dispute: Interference in the High Court's order proved costly, contempt notice to the SSP of Amritsar. Whereas, opposing the anticipatory bail petition, the SIT filed a petition in the High Court ( Punjab Haryana High Court) that till now the investigation has revealed that Sant Jarnail Singh had conspired to murder Sant Dayal Das. The motive behind this was to capture the property worth crores of rupees. In this case, police officers had given clean chit after taking bribe and now vigilance is investigating against those police officers also. Sant Jarnail is associated with many famous gangsters.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-sant-dayal-das-murder-case-high-court-rejected-main-accused-anticipatory-bail-plea-23526034.html</t>
-  </si>
-  <si>
-    <t>Punjab Politics: 'A person who left college studies midway...', SAD leader Bikram Majithia lashed out at CM Bhagwant Mann.</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Bikram Majithia On Bhagwant Mann Shiromani Akali Dal leader Bikram Singh Majithia hit back at the Chief Minister's challenge and asked whether any college dropout would advise him to serve his mother tongue Punjabi. He told the Chief Minister, "Don't talk about here and there, tell me why this condition of Punjab has happened." Majithia said that the Chief Minister (CM Bhagwant Mann) should understand that all his comedy has been successful during the 2022 elections. . Because Punjabis never imagined that the person they were trusting would prove to be a failure. He said he might be good at comedy. But running the state is not a comedy circus. 'Previous governments were responsible' Majithia condemned the Chief Minister's statement, saying that previous governments were responsible for the delay in the appointments of sub-inspectors and reminded him that in the process Susho Bhitveer Singh There has been a delay in the appointments due to his government's haste to recruit officers. Also read-Punjab connection of Delhi liquor scam... CBI summoned 10 officers, Manish Sisodia's problems increased? 'Take everything in comedy. The Akali leader said that Bhagwant Mann is taking everything as comedy in the affairs of the state. But he has failed to realize that he has betrayed the farmers, laborers and youth and he has proved to be a fraud. The former minister said that he should publicly admit that he does not know how to run the state. And that is why he has handed over the entire tenure to the Delhi leadership, including Arvind Kejriwal, who is coming on a three-day visit to the state. He asked Bhagwant Mann whether he had seen any other Chief Minister visiting any state. Also read- Punjab News: 'Why were the recruitment rules changed for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann. Paghajithiya said that the Chief Minister (CM Bhagwant Mann) should understand that all his comedies have been successful during the 2022 elections. Because Punjabis never imagined that the person they were trusting would prove to be a failure. He said he might be good at comedy. But running the state is not a comedy circus. 'Previous governments were responsible' Majithia condemned this statement of the Chief Minister</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-politics-bikram-singh-majithia-targets-cm-bhagwant-mann-said-running-state-is-not-comedy-circus-23526069.html</t>
-  </si>
-  <si>
-    <t>Good News! CM Bhagwant Mann's big gift to Patwaris, now they will get three times more allowance for training</t>
-  </si>
-  <si>
-    <t>Chandigarh, Online Desk. Punjab Patwari New Stipend: Punjab CM and AAP leader Bhagwant Mann has made the hearts of the Patwaris of the state happy today. In fact, today itself he has handed over appointment letters to a total of 710 Patwaris. Along with this, many big announcements have also been made regarding Patwaris. Giving another good news to the newly appointed Patwaris, CM Mann announced that now the candidates will get a financial allowance of Rs 18,000 per month during training instead of Rs 5,000, because at present an allowance of Rs 5,000 is given to MSC B-Tech and other degree holders. In the next one or two days, this allowance will be increased to Rs 18 thousand per month. CM said - Lakhs of people have expectations from the Patwaris. He told the newly appointed Patwaris that lakhs of people have a lot of expectations from you because your decisions will bring happiness in people's homes. Can bring and cause murder of many people. He said that bribery has many forms. He said that donation is also another form of bribe. He said that tea, water, service, think about our bar, come next Wednesday, all these are names of bribe. Some people involved in the old governments were themselves involved in bribery. The Chief Minister said that bribery starts from the top. Therefore, bribery has to be stopped from above. Old customs and policies have to be broken: CM Mann. During this time, if the state governments do not care about the people, then it is natural to raise questions. When elected representatives close the doors of their palaces, it is natural for the public to get nervous. The previous governments did not pay attention to improving the economic condition of the people, hospitals and youth. He said that the times have become very fast, old customs and policies have to be broken. Congratulating the newly appointed Patwaris, he said that earlier students used to score good marks but bribes were more, but this time the government itself has given the message. This is the difference between the present and previous governments. Punjab government appointed 17810 teachers. The Chief Minister said that stolen sons are not sons. He inspired the Patwaris to make honesty a part of their lives. The Chief Minister said that first of all the legal process for the appointment of teachers was decided and 17810 teachers were appointed. He said that the condition of schools is being improved. On this occasion, Chief Secretary Anurag Verma said that about one lakh candidates will appear in the Patwari examination.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-cm-bhagwant-mann-increased-the-allowance-of-patwaris-doing-training-three-times-nikharda-punjab-23524973.html</t>
-  </si>
-  <si>
-    <t>Punjab Politics: Preparation for reshuffle in Punjab BJP, Jakhar discussed with Nadda</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. There is going to be a reshuffle in Punjab BJP soon. State President Sunil Jakhar has had a long conversation with the party's national president JP Nadda regarding changes in the organization. However, BJP state in-charge Vijay Rupani was not present during this meeting. It is believed that BJP can form the state executive any time after September 10. Let us tell you that the Punjab BJP team was formed on December 3, 2022. When the command of the state was in the hands of Ashwani Sharma. On July 4, 2023, BJP removed Ashwani Sharma and handed over the command of the state to Sunil Jakhar. Since then the discussion is going on that Jakhar wants to form his own team. Jakhar is not in favor of major changes in the executive. There are 11 state vice presidents, 5 state general secretaries and 11 state secretaries in the state executive. Sources say that Jakhar is not in favor of making any major changes in the state executive. Because Jakhar himself has joined BJP from Congress. In such a situation, he is in favor of minor changes instead of major changes. In this regard, Jakhar has already had a meeting with state in-charge Vijay Rupani. Also read- G20 Summit 2023: 'I will not tolerate all this in UK', Rishi Sunak bluntly on Khalistan issue as soon as he reached India, both the leaders Consensus has also been reached. This is why Jakhar has now met with JP Nadda in this regard. The meeting between the two leaders lasted for about 35 minutes. Keeping in view the challenges of the upcoming Lok Sabha elections, Jakhar is in favor of creating a balance of 'youth and experience' and 'new and old' in his team. Leaders coming from rural areas will also have to be given importance. BJP knows that the challenges of 2024 Keeping this in view, leaders coming from rural areas will also have to be given importance. Because it is very important to focus on rural areas and especially Malwa belt. Malwa is the largest political region of Punjab. There are 67 assembly constituencies here. While being in alliance with Akali Dal, BJP's focus has always been on Doaba and Majha. After late Kamal Sharma, the command of the state in BJP has always been in the hands of leaders from Majha or Doaba. Jakhar himself comes from Malwa region. Let us tell you that the Punjab BJP team was formed on 3 December 2022. When the command of the state was in the hands of Ashwani Sharma. On July 4, 2023, BJP removed Ashwani Sharma and handed over the command of the state to Sunil Jakh.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-politics-preparation-for-reshuffle-in-punjab-bjp-jakhar-discussed-with-nadda-23525362.html</t>
-  </si>
-  <si>
-    <t>Punjab AGTF got big success, three henchmen of gangster Sonu Khatri arrested; The shooters were absconding for a long time</t>
-  </si>
-  <si>
-    <t>Chandigarh, PTI. Anti-Gangster Task Force of Punjab Police, in a joint operation with Central Agencies, arrested three shooters absconding from Indo-Nepal Border and Gurugram (Sonu Khatri's Sharp Shooters Arrested). ) has been done.Punjab Director General of Police Gaurav Yadav (DGP Gaurav Yadav) while posting on Has been arrested from Gurugram (Gurugram, Haryana). In a Pan-India operation, AGTF-Punjab in coordination with central agencies has successfully arrested 3 absconding shooters handled by Gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda1 person has been arrested from the Indo-Nepal border &amp; 2 from Gurugram 1/4 pic.twitter.com/s4NjbpvXi7— DGP Punjab Police (@DGPPunjabPolice) September 8, 20233 absconding shooters successfully arrested Director General of Police Gaurav Yadav posted on Twitter that "A In a pan India operation, AGTF and Punjab Police, along with central agencies, have successfully arrested 3 absconding shooters working under gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda. Also Read-Congress MLA in disproportionate assets case. Kikki Dhillon appeared in the court today, next hearing will be on September 22. Three foreign pistols were also seized. He said, "Preliminary investigation has revealed that the arrested accused used to carry out sensational incidents in Punjab at the behest of Sonu Khatri. After committing crimes, these people used to take shelter in different parts of the country and their hideouts in Nepal." He said that the police have also seized three foreign pistols from them. Punjab Director General of Police Gaurav Yadav (DGP Gaurav Yadav) Posting on Twitter India operation, AGTF-Punjab in coordination with central agencies has successfully arrested 3 absconding shooters handled by Gangster Sonu Khatri, a close associate of terrorist Harvinder Rinda1 person has been arrested from the Indo-Nepal border &amp; 2 from Guru</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-agtf-got-big-success-arrested-three-henchmen-of-gangster-sonu-khatri-shooters-were-absconding-for-a-long-time-23525186.html</t>
-  </si>
-  <si>
-    <t>Big action by Punjab Police, raids on 822 hideouts of gangsters; The action took place between 7 am and 11 am</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Taking a massive action against the gangster-terrorist nexus as part of the campaign to make Punjab a crime-free state, the Punjab Police on Friday raided suspected hideouts of gangster associates/ardent supporters across the state. . This raid was conducted at the same time from 7 am to 11 am on the instructions of Director General of Police (DGP) Punjab Gaurav Yadav. Raids were conducted in 28 districts. During this period, gangsters were arrested in all the 28 police districts of the state. The residences and other locations of associates, relatives and friends were thoroughly searched. Special DGP Law &amp; Order Arpit Shukla said that all CPs/SSPs were instructed to take all possible measures to make this operation, which was aimed at torpedoing the nexus of terrorists, gangsters and drug smugglers based in India and abroad, a success. Deploy strong police parties under the leadership of Inspectors/Sub-Inspectors. He said that during this operation, police teams were also asked to control suspicious persons. Also read-Punjab AGTF gets big success, three henchmen of gangster Sonu Khatri arrested; The shooters were absconding for a long time. 2000 policemen raided the spot. He said that in this operation, more than 350 parties of Punjab Police, which included 2000 police personnel, raided 822 locations of associates, relatives and friends of different gangsters. Special DGP said, "Today's search operation was planned after interrogating several persons arrested following the recent busting of gangster modules." Many persons have also been detained for questioning. It is worth mentioning that such raids prove to be helpful in creating fear of the police among the anti-social elements and creating a sense of security among the common people. Also read- Punjab News: Woman died outside the OPD of the hospital under suspicious circumstances. No information about the family: During this period, the residences and other hideouts of the gangsters' associates, relatives and friends were thoroughly searched in all the 28 police districts of the state. Special DGP Law and Order Arpit Shukla said that all CPs/SSPs had been instructed to carry out this operation, which is aimed at arresting terrorists,</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-big-action-by-punjab-police-raids-on-822-hideouts-of-gangsters-the-action-took-place-between-7-am-and-11-am-23525330.html</t>
-  </si>
-  <si>
-    <t>There are many complications in seat sharing between Congress and AAP, Punjab Congress is not at all ready for alliance.</t>
-  </si>
-  <si>
-    <t>Chandigarh, Kailash Nath. There are many complications in the alliance between Congress and Aam Admi Party, a constituent of the Indian National Development Inclusive Alliance (I.N.D.I.A.). The Punjab unit of Congress is not at all ready for this alliance. However, the Punjab unit also knows that the final decision has to be taken by the party high command. The high command had earlier also opposed the transfer-posting bill in Delhi in the Rajya Sabha, against the wishes of the Punjab unit. Many Congress MLAs have corruption cases against them, even if, unlike the Punjab unit, the Congress compromises with AAP keeping in mind the national level. There can be many complications in this. If there is an agreement between Congress and AAP, not only will many notions be broken but many new notions will be formed. After forming the government, the Aam Aadmi Party government registered corruption cases against more than a dozen former ministers and MLAs of the Congress. Out of these, three Congress ministers and three-four MLAs had to go to jail. In this case, the impression that the government's steps moved towards eradicating corruption will be broken. Rather, the impression will be created that AAP wanted to put pressure on Congress. Apart from this, if both the parties follow the model of 2019 Lok Sabha elections in seat distribution, then the ruling AAP will suffer loss. Because in 2019, 8 Congress MPs had won the elections. Whereas only one MP of AAP (Bhagwant Mann) had won. There could be a loss of 9 to 10 seats. At that time Congress had 77 MLAs in the Legislative Assembly. Whereas if the seat sharing formula is decided on the results of the 2022 Legislative Assembly, then Congress may have to suffer huge losses. Because you have 92 MLAs. Whereas Congress has only 18. In such a situation, Congress may lose 9 to 10 seats out of 13 Lok Sabha seats. Whereas, if the compromise formula is decided on each seat, then AAP may suffer loss. Because Patiala seat should be left out (where Preneet Kaur is MP, Congress has suspended her from the party). Still, Congress has 6 MPs (AAP had snatched Jalandhar seat from Congress). At the same time, Jalandhar, Amritsar, Ludhiana and Bathinda are such Lok Sabha seats where trouble is certain because Jalandhar is the pivot of Dalit politics. The current MP here is Sushil Rinku (who was earlier a Congress MLA). Ludhiana is an economically strong seat of Punjab. Whereas Shiromani Akali Dal politics has been going on from Bathinda.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-many-complications-in-seat-sharing-between-congress-and-aap-punjab-congress-is-not-at-all-ready-for-alliance-23525354.html</t>
-  </si>
-  <si>
-    <t>Punjab news: Suggesting closure of MSP in Supreme Court is part of a well-planned conspiracy, says former AAP MLA Phoolka</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Senior Supreme Court lawyer and former AAP MLA HS Phoolka has termed the Punjab government's suggestion of banning the SSP on paddy in the matter of stubble burning as a well-planned conspiracy. He says that if MSP is not available then paddy will not be sown, this will also end the problem of stubble burning and the government will not have to give electricity subsidy of thousands of crores of rupees to the farmers. While talking to journalists at Chandigarh Press Club. Phoolka said, the case going on in the Supreme Court regarding Delhi's pollution is being given a new shape and it is being linked to MSP. Whereas this case is not new but has been going on since 1985. Farmers will not be able to burn stubble next year. Phoolka also took the farmer organizations to task and said that the organizations which are encouraging farmers to burn stubble will stop MSP. Will take breath. Because the way the Supreme Court is issuing instructions, farmers should understand that from next year no one will allow them to burn stubble. Therefore, farmers will have to think about handling the stubble. Instead of burning the stubble, they should sow wheat by making beds. Phoolka said, today there is a need that instead of burning the stubble, farmers should make wheat beds by making beds. This will not only reduce their costs but will also increase the quality of the crop. Farmers should adopt this method in a part of their land on an experimental basis. Phoolka said that he will sow wheat in his village Bhadaud using the same method from November 15. Politics is being done on stubble. In response to a question, Phoolka said, Delhi's pollution is not directly contributed by the stubble burning in Punjab. . The biggest cause of pollution in Delhi is the industry there. Delhi's AQI level remains 300. It definitely increases due to burning of stubble. Phoolka said, the way politics is being done on stubble and the stand is being changed, it will harm the farmers. There are 5100 rice shellers in the state because the politicians will wash their hands if the Supreme Court gives any order to stop MSP. So the politicians will say that this has happened on the orders of the court. No one will tell what stand the government took in the Supreme Court. Politicians will create a fight between the Supreme Court and the farmers. Phoolka said that the government should prepare infrastructure before paddy cultivation. Because there are 5100 rai in the state</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-suggesting-closure-of-msp-in-supreme-court-is-part-of-a-well-planned-conspiracy-says-former-aap-mla-phoolka-23580345.html</t>
-  </si>
-  <si>
-    <t>Chandigarh News: Big revelation in the case of firing at IAS house, this thing came to light during police investigation.</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Chandigarh. Preliminary police investigation into the firing by an unknown person at the house of Punjab cadre senior IAS Virendra Kumar Sharma on Diwali night has revealed that the bullet was fired from a pistol. This bullet was accidentally fired from the licensed pistol of an unknown person. IAS Virendra Kumar Sharma had also given a complaint about the incident to Chandigarh Police and said that he had no quarrel or any old enmity with anyone. Even they have never received any kind of threat. On the night of Diwali, someone had fired with his pistol. In such a situation, the police (Punjab Police) say that this attack was not intentional, but on the night of Diwali, someone had fired with his pistol. Had fired from. Whose bullet was misguided and hit the window of a room in the rear part of IAS Varinder Kumar Sharma's house. Also read: Jalandhar Crime: Two smugglers arrested with heroin worth crores, second major action of STF in 12 days, in police complaint It is said that he was celebrating the festival with his family. Let us tell you that IAS Sharma himself had informed about this incident by calling the control room of Chandigarh Police at 11.15 pm on the night of Diwali. In the complaint given by IAS Sharma to Chandigarh Police about this incident, it has been said that he was celebrating Diwali with his family on the first floor of the house when people in the neighborhood were bursting crackers. Within no time, the sound of gunshot was heard from the rear of the house towards a room on the first floor of his house. According to the police, IAS officers were present in his room, towards which the bullet was fired. The bullet got stuck in the ply of the window of the room. It was fortunate that this bullet did not hit the IAS or any of his family members. As soon as information about the incident was received late night, Chandigarh Police's Crime DSP Udaybhan Singh, Sector-11 police station in-charge and Sector-24 outpost in-charge reached the spot. IAS Virendra Sharma is the director of Health System Corporation. Let us tell you that IAS Kumar is the director of Health System Corporation in Punjab Government. Working on the post of. Sharma is included in the list of senior IAS of Punjab. He has held the responsibility of many important departments in the Punjab government. IAS told in the statement given to the police that he has no enmity or old rivalry with anyone. Also read: Punjab News: NIA presented charge sheet in the case of arms and ammunition smuggling through drones, many cases revealed IAS Virendra Kumar Sharma also attacked Chandigarh Police</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-big-revelation-in-case-of-firing-at-the-house-of-ias-virendra-kumar-sharma-police-said-bullet-was-fired-by-mistake-from-a-licensed-pistol-23580084.html</t>
-  </si>
-  <si>
-    <t>Chandigarh: Now Rs 10,000 will be given per tooth for dog bite, compensation will have to be given in four months: High Court</t>
-  </si>
-  <si>
-    <t>Dayanand Sharma, Chandigarh. Compensation On Dog Bite: The High Court made it clear that the financial assistance in cases related to dog bite will be at a minimum of Rs 10,000 per tooth mark and where the flesh has been pulled out of the skin, it will be at a minimum of Rs 20,000 per 0.2 cm wound. Will be payable. The High Court made it clear that the State will be primarily responsible for paying the compensation and will have the right to recover it from the erring agencies/instruments of the State or the private person, if any. Provision has been made to pay the compensation Punjab And Haryana High Court, in an important decision, has ordered Punjab, Haryana and UT Chandigarh to constitute a committee to determine compensation in respect of accidents caused by cattle/animals. Unclaimed animals will include animals living in deserted places including cows, bulls, donkeys, dogs, nilgai and buffalo. A provision has also been made to give compensation in cases of accidents caused by wild and pet animals. The Chief Medical Officer will be the representative. As per the order, the committee will include the Deputy Commissioner (DC) of the concerned district as chairman and SP/DSP (Traffic) as members. SDM, District Transport Officer and Chief Medical Officer will be the representatives. Some additional members, who may be included on need basis, include District Development and Panchayat Officers, District Forest Officers, Executive Engineers, Public Works Department (B&amp;R) and Additional Commissioners/Executive Officers/Secretaries of Municipal Corporations, Societies After the accident, the nominated person or officer will be informed. The High Court has also made it clear that if the accident has occurred on a national highway, then the project director or his nominated person and the implementing department of the place where the accident is reported to have occurred. The Executive Officer or his designee will be informed. The compensation to be given by the Committee for accidents involving death/permanent disability in the respective States will be as per the policies lodged in the respective States. The victims will get the benefit as per the Punjab Policy. However, as per the Punjab Policy in respect of claims lodged in UT Chandigarh Extensive benefits will be provided to the victims as the compensation proposed in the said policy is more beneficial. The Authority may also divide the compensation between two or more departments, where one or more of such departments are involved</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-chandigarh-now-rs-10000-will-be-given-per-tooth-for-dog-bite-compensation-will-have-to-be-given-in-four-months-high-court-23580216.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Sukhpal Khaira no relief from High Court, court adjourns hearing till November 17</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Congress MLA Sukhpal Khaira has again not got any relief from the Punjab and Haryana High Court. The High Court has adjourned the hearing of the Khaira case till November 17. During the hearing on Tuesday, there was a long debate between the government and Sukhpal Khaira's lawyer. For every year of 15 years of farming, he gets Rs 26 crores. Sukhpal Khaira's lawyer said that the accounts being cited are being described as drug money. That's from his PA. Along with this, he said that the crores of rupees are his farming income for the last 15 years, from which he gets Rs 26 lakh every year. There is an account in which he is paid salary from Punjab, another account is of his PA, the number which is being talked about that outside conversation is also his PA's number. The High Court said that he should prepare the synopsis and submit it to Khaira's lawyer by Thursday morning. The next day on Friday, Khaira's lawyer will give his counter. After hearing all the parties, the decision was reserved that Sukhpal Khaira's demand for regular bail in the NDPS case registered in 2015 is under consideration in the High Court. Earlier, after hearing all the parties, the High Court had reserved its decision on the petition challenging the order of arrest and extension of custody by the lower court. Sukhpal Khaira's lawyer said that the accounts being cited are being described as drug money. . That's from his PA. Along with this, he said that the crores of rupees are his farming income for the last 15 years, from which he gets Rs 26 lakh every year. There is an account in which he is paid salary from Punjab, another account is of his PA, the number which is being talked about that outside conversation is also his PA's number. The High Court said that he should prepare the synopsis and submit it to Khaira's lawyer by Thursday morning. The next day on Friday, Khaira's lawyer will give his counter. After hearing all the parties, the decision was reserved that Sukhpal Khaira's demand for regular bail in the NDPS case registered in 2015 is under consideration in the High Court. Earlier, after hearing all the parties, the High Court had reserved its decision on the petition challenging the order of arrest and extension of custody by the lower court. The demand for regular bail in the NDPS case of Sukhpal Khaira registered in 2015 is under consideration in the High Court. Earlier, the High Court had heard all the parties on the petition challenging the order of arrest and extension of custody by the lower court.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-sukhpal-khaira-no-relief-from-high-court-court-adjourns-hearing-till-november17-23580168.html</t>
-  </si>
-  <si>
-    <t>Chandigarh AC Bus: Good news! Four AC buses will run to Delhi Airport from today, the fare is this much; These facilities will be available</t>
-  </si>
-  <si>
-    <t>Jagran Correspondent, Chandigarh. (Chandigarh to Delhi Airport AC Buses) Now HVAC (Heating Ventilation and Air Condition) buses will start running directly from the city to Delhi Airport. This facility is starting from Tuesday. Earlier, there was a bus service from the city to Delhi Bus Stand of CTU, but now on the demand of the people, direct bus service has been started for Delhi Airport. For traveling in the bus, you will have to pay Rs 485, the fare of which has been fixed at Rs 485. . CTU General Manager Satinder Dahiya says that currently four buses have been run which will go directly to the airport. Earlier, people traveling in CTU buses used to go to Delhi Bus Stand first. After that, they used to go to the airport by next bus or metro. CTU buses are running for many states of the country. 18 buses are already running for Delhi. According to CTU, buses will run directly to the airport from Tuesday. It will run at 4.50 am, 6 am, 3 pm and 4 pm. It is known that at present CTU buses are running to cities of many states of the country. CTU's earnings from buses are also continuously increasing. Also read: Dera Sacha Sauda Case: Dera Sacha Sauda chief Gurmeet Singh gets big relief in this case from the High Court. All these facilities will be available in buses. According to CTU, four buses have just been run to the airport. Has been. More buses will also be started in the next days as demand increases. These are all AC buses. Along with AC, there are many features like mobile laptop charging point, AC vent, reading light and panic button. With the arrival of these new buses, the income of CTU will also increase. 52 passengers will be able to sit together. They have facilities ranging from AC to mobile laptop charging. The fare of these buses is much less as compared to super luxury buses. Whereas the facilities are more than the ordinary buses. . Each bus has a seating capacity of 52 passengers. Earlier this year, 20 new buses have been started, which are running to cities of Vrindavan, Rishikesh, Kotdwar, Agra, Katra, Kathgodam and many other states. The total number of buses with CTU has now reached 330. Out of 330 buses, 158 buses (99 HVAC buses and 59 ordinary buses) are running on various interstate routes. CTU also plans to run 100 new electric buses soon. Their running fare is Rs 425. Also read: Punjab News: Commenting in a public place will be considered a crime only then, regarding SC-ST Act.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-now-ac-buses-will-play-from-chandigarh-to-delhi-airport-23579955.html</t>
-  </si>
-  <si>
-    <t>Dera Sacha Sauda Case: Dera Sacha Sauda chief Gurmeet Singh got big relief from the High Court in this case.</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. (Dera Sacha Sauda Case) Punjab and Haryana High Court has ordered to cancel the FIR registered against Dera Sacha Sauda chief Gurmeet Singh in the case of alleged objectionable comments on Guru Ravidas and Sant Kabir. Gurmeet has ordered to cancel the petition against him. In the appeal, Gurmeet Singh had appealed to cancel the FIR registered against him regarding satsang. It was told that an FIR was registered against him on March 17 in Patara, Jalandhar Rural on the charges of Section 295A of IPC (hurting religious sentiments). The FIR is related to a satsang held in 2016. FIR was registered after such a long gap. While giving the verdict, the High Court said that there is no clear evidence of malice or deliberate act of hurting the sentiments of any person or community while giving sermon on the petitioner. Also read: Punjab News: Comments are considered valid only if they are made in a public place. Crime will go, High Court's big decision regarding SC-ST Act Also read: Punjab News: NIA presented charge sheet in the case of arms and ammunition smuggling through drones, many cases revealed In the petition, Gurmeet Singh filed against himself regarding satsang. There was an appeal to cancel the FIR. It was told that an FIR was registered against him on March 17 in Patara, Jalandhar Rural on the charges of Section 295A of IPC (hurting religious sentiments). The FIR is related to a satsang held in 2016. FIR was registered after such a long gap. While giving the verdict, the High Court said that there is no clear evidence of malice or deliberate act of hurting the sentiments of any person or community while giving sermon on the petitioner. Also read: Punjab News: Comments are considered valid only if they are made in a public place. Crime will go, High Court's big decision regarding SC-ST Act Also read: Punjab News: NIA presented charge sheet in the case of arms and ammunition smuggling through drones, many cases were revealed Case of 2016 FIR regarding a satsang held in 2016 Is. FIR was registered after such a long gap. While giving the verdict, the High Court said that there is no clear evidence of malice or deliberate act of hurting the sentiments of any person or community while giving sermon on the petitioner. Also read: Punjab News: Comments are considered valid only if they are made in a public place. Crime will go, High Court's big decision regarding SC-ST Act, read this also</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-dera-sacha-sauda-gurmeet-ram-rahim-singh-gets-relief-from-high-court-in-case-of-alleged-objectionable-comments-on-guru-ravidas-sant-kabir-23579876.html</t>
-  </si>
-  <si>
-    <t>Punjab News: NIA presented charge sheet in the case of arms and ammunition smuggling through drones, many cases revealed</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. The National Investigation Agency (NIA) has presented a charge sheet in the special NIA court of Mohali in the case of smuggling of arms and ammunition through drones in the border district of Gurdaspur of Punjab. A chargesheet has been filed by the NIA against Malkit Singh alias Pistol. Border Security Force personnel had seized ammunition including five pistols made in Austria, 10 magazines and 91 live cartridges. On March 24, a case was registered at Dera Baba Nanak Police Station in Batala and investigation was started. After which, on August 8, NIA took the case into its hands. A case was registered by NAI under the Arms Act, Aircraft and UAPA. To find out the involvement of the terrorist organization, it was told by the NAI that the investigation has revealed the links between the banned terrorist organization Khalistan Liberation Force (KLF) and the terrorists sitting in Pakistan. Was revealed. The accused Malkit Singh, Taranjot alias Tanna and Gurjeet Singh are included in this terrorist network. Investigation found that these operators are Pakistani drug smugglers Rahmat Ali alias Mian, head of Pakistan's KLF and International Singh Youth Federation (ISYF) chief Lakhbir Singh Rode alias Baba Ji. And was in direct contact with Ranjot Singh. Crackdown is being tightened on terrorists and gangsters. According to NIA officials, both KLF and ISYF are banned in India. The alleged attacks along with criminal intimidation, murder and extortion were used to raise funds for terrorist activities. Keep in mind that NIA is continuously tightening its grip on terrorists and gangsters. Also read - Farmers of Fazilka sowed crops without burning stubble, DC thanked; Said- Nutrients get destroyed. Action is going on against terrorist gangsters. NIA is continuously conducting raids in the state to break the terrorist gangster nexus. Punjab Police is running a campaign against gangsters and terrorists. In the last ten months, about ten raids were conducted by NIA. Border Security Force personnel seized five pistols made in Austria, 10 magazines and 91 live cartridges. Ammunition was confiscated. On March 24, a case was registered at Dera Baba Nanak Police Station in Batala and investigation was started. After which, on August 8, NIA took the case into its hands. A case was registered by NAI under Arms Act, Aircraft and UAPA. Joining the terrorist organization</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-nia-presents-chargesheet-in-arms-and-ammunition-smuggling-case-through-drones-punjab-news-23579755.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Comment will be considered a crime only if it is made in a public place, big decision of the High Court regarding SC-ST Act.</t>
-  </si>
-  <si>
-    <t>Dayanand Sharma, Chandigarh. The Punjab and Haryana High Court made it clear that insulting or threatening a person will not be an offense under the SC/ST Act, unless such remarks are made in a public place. Justice Deepak Gupta said that to constitute an offense under the Act, the insult or intimidation must be caused to the victim belonging to a Scheduled Caste or a Scheduled Tribe. Moreover, the other important component of the provision is that the insult or intimidation must be at any place within public view. Needed Justice Deepak Gupta of the High Court made this comment while hearing the appeal against the order of the Special Judge, Ludhiana. This is the case before the Ludhiana Court for murder and passing casteist remarks under sections 3 and 4 of the SC/ST Act. Had sought anticipatory bail in the crime which was rejected. It was alleged that the Appellant made casteist remarks by ascribing status to Sevak Singh for purchasing a banquet hall. Thereafter, the husband of the petitioner hit Sevak Singh with his car and caused serious injuries, resulting in his death. Counsel for the petitioner argued that he had no role in the FIR. The entire blame is on her husband, who has already been arrested. While considering the submissions, the High Court referred to Hitesh Verma v. State of Uttarakhand, in which the Supreme Court held that the object of the Act is to punish violators who commit insults and oppression against the weaker section of the society. But the Court was not estopped from considering whether the allegations made prima facie constitute an offense under Section SC/ST Act. In the present case, the only allegation against the Appellant is that he took the money from the Complainant for purchasing a Banquet Hall. Said words about the situation and used caste based words against him. The Court held that the said incident took place in a banquet hall, when only the complainant party, the appellant and his family members were present, i.e. not within any other public view. The question arises whether the sections of the SC/ST Act are applicable in such circumstances. While observing Section 3(1) of the SC/ST Act, the High Court highlighted that a person is liable to be punished for the crime of atrocities. of the materials required to make the event visible to the public, in any public place</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-high-court-said-this-regarding-sc-st-act-23579752.html</t>
-  </si>
-  <si>
-    <t>Chandigarh News: Bullet fired at the house of Punjab cadre IAS on Diwali night, police examining CCTV footage.</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Chandigarh. On the night of Diwali, an unknown person opened fire at the house of a Punjab cadre IAS officer in Sector 24. This incident took place at the house of Punjab's IAS Virendra Kumar Sharma. Unidentified youths opened fire at his official residence. The incident happened late at 11 pm. Punjab's IAS Virendra Kumar Sharma was present at home with his family at the time of the incident. As soon as some unknown person opened fire at his house, he got scared. The security personnel present at the mansion also came out to arrest the unknown accused who opened fire. Meanwhile, Virendra Kumar Sharma considered it safe to stay inside the house with his family and during this time he also called the police control room and his security personnel. Virendra Kumar Sharma is posted in the Health Department of Punjab Government. This incident happened late at 11 pm. Connect with us on WhatsApp. Click on this link. Late night, the forensic team was also called to the spot. An unknown accused had fired the bullet from the road outside the house. It was fortunate that the bullet got stuck in the ply of the window of a room, due to which the bullet did not hit anyone. . Chandigarh Police has started investigation by providing footage of the accused from the CCTV cameras installed around the house. A forensic team was also called to the spot late in the night. At the time of the incident, Punjab's IAS Virendra Kumar Sharma was at home with his family. He was present at his house, as soon as an unknown person opened fire at his house, he got scared. During this, the security personnel present at his house also came out to catch the unknown accused who opened fire. Meanwhile, Virendra Kumar Sharma along with his family inside the house. He considered it safe to stay and during this time he also called the police control room and his security personnel. Virendra Kumar Sharma is posted in the Health Department of Punjab Government. This incident happened late at 11 pm. Connect with us on WhatsApp. Click on this link. Late night, the forensic team was also called to the spot. An unknown accused had fired the bullet from the road outside the house. It was fortunate that the bullet got stuck in the ply of the window of a room, due to which the bullet did not hit anyone. . Chandigarh Police has started investigation by providing footage of the accused from the CCTV cameras installed around the house. A forensic team was also called to the spot late in the night. Connect with us on WhatsApp. Click on this link. Forensic team was also called to the incident site late in the night. The unknown accused dead body outside the house.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-chandigarh-news-bullet-fired-at-the-house-of-punjab-cadre-ias-on-diwali-night-police-examining-cctv-footage-23579682.html</t>
-  </si>
-  <si>
-    <t>Chandigarh News: Living a lustful life with a live-in partner without divorce is a crime, High Court gave this decision</t>
-  </si>
-  <si>
-    <t>Dayanand Sharma, Chandigarh. The Punjab and Haryana High Court has said that a person who leads a lewd and adulterous life without obtaining a divorce from his former spouse is liable for the offense of bigamy under Section 494 of the Indian Penal Code (IPC). Justice Kuldeep Tiwari made the remarks while refusing to order police protection for a Patiala couple living in a live-in relationship after he observed that the man had been married before. and has a two year old daughter from the said marriage.A maximum punishment of seven years with fine, the High Court said, without obtaining any valid degree of divorce from his first spouse and during the existence of his previous marriage, The petitioner man is living a lustful and adulterous life with the second petitioner woman (live-in partner), which constitutes an offense punishable under section 494/495 of the Indian Penal Code, punishable with a maximum of seven years' imprisonment with fine. Divorce Case Pending in the family court: During the hearing, the court was told that the divorce case between the petitioner man and his wife is pending in the family court. The Court observed that the person's actions still constituted an offense under IPC sections 494 (marrying again during the lifetime of the spouse) and 495 (concealing a previous marriage with the person with whom the subsequent marriage has been contracted). The man and his live-in partner alleged threat to their lives. The man and his live-in partner had approached the court demanding police protection from relatives, citing threat to their lives. The High Court was told that while the relationship has been accepted by the man's family members, the woman's (partner's) family members have threatened to kill them. Justice Tiwari said that such threats have been made public in the petition. Only baseless and vague allegations were made in this regard. Valid and solid evidence was not produced. The court further said that no material was placed on record to support these allegations nor was any instance cited to show that What kind of threats were given? The High Court said that in the absence of any valid and solid material to support the claims, such allegations cannot be accepted easily and naively by the Court. The High Court dismissed the petition, hence the High Court added live-in This is what the petition says</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-chandigarh-living-a-lustful-life-with-a-live-in-partner-without-divorce-is-a-crime-high-court-gave-this-decision-23579563.html</t>
-  </si>
-  <si>
-    <t>Chowkidars will be appointed in 2012 government schools of Punjab, grants issued; Guidelines issued by DGSE</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Mohali. Guards Recruitments in Punjab: The way has been cleared for appointing guards in 2012 schools of Punjab. The letter was issued by the Director General of School Education Punjab (DGSE, Punjab) to all district education officers. According to the letter issued, a grant has been issued for the management of watchmen in government schools. Let us tell you that the demand for appointing a watchman in 2012 schools of the state was being made for a long time, which was ignored and this grant will directly reach the account of the school management. According to the letter issued to the education officials, Due to shortage of watchmen in government schools, incidents of theft of valuables like computers, smart boards, tablets, CCTV cameras, gas cylinders, expensive furniture etc. are often reported. Guidelines for arrangement of watchmen in schoolsManagement of watchmen for schools This will be done with the consent of the management committees and the department will provide financial assistance of Rs. 5000/- per month to the school. According to the letter issued, while selecting the watchman, priority should be given to the candidate from that village/town/city. If the school management committees If no eligible candidate is available based on the prescribed conditions, then candidates from nearby village/town/city can be appointed. The work of these watchmen will be reviewed from time to time by the School Management Committee. It is also mentioned in the letter that It has been said that a Chowkidar should be honest, well-mannered and polite. In this regard, a grant should be taken from an elite gentleman of the village or city. The Chowkidar should be completely professional as well as have a professional attitude. .Chowkidar's age should be between 32 to 60 years.Join us on WhatsApp. Click on this link.Also Read: Ludhiana: Shadow fog after Diwali, more than two dozen vehicles collided on Ludhiana-Delhi National Highway; According to the letter issued to many injured education officials, due to lack of watchmen in government schools, incidents of theft of valuables like computers, smart boards, tablets, CCTV cameras, gas cylinders, valuable furniture etc. are often reported. Guidelines: The management of the watchmen for the school will be done with the consent of the school management committees and the department will provide financial assistance of Rs 5000/- per month to the school. According to the letter issued</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-chowkidars-will-be-appointed-in-2012-government-schools-of-punjab-grants-issued-guidelines-issued-by-dgse-23579545.html</t>
-  </si>
-  <si>
-    <t>Bullet fired at the house of Punjab cadre IAS in Chandigarh on Diwali night, police is searching for the accused on the basis of CCTV.</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Chandigarh. (Punjab News) On the night of Diwali, an unknown person opened fire at the house of an IAS officer of Punjab cadre in Sector 24. This incident took place at the house of Punjab's IAS Virendra Kumar Sharma. Unidentified youths opened fire at his official residence. Punjab's IAS Virendra Kumar Sharma was present at home with his family at the time of the shooting at the house of IAS Virendra Kumar Sharma. As soon as an unknown person opened fire at his house, He got scared while driving. Meanwhile, the security personnel present at his residence also came out to catch the unknown accused who opened fire. Meanwhile, Virendra Kumar Sharma considered it safe to stay inside the house with his family. Also read: Amritsar Golikand: Diwali There was indiscriminate firing between two groups on the night of 2015, one dead; Two of the injured are posted in the Health Department of Punjab Government. During this, they also called the Police Control Room and their security personnel. Virendra Kumar Sharma is posted in the Health Department of Punjab Government. This incident happened late at 11 pm. An unknown accused had fired shots from the road outside the house. Connect with us on WhatsApp. Click on this link. Police is searching for the accused on the basis of CCTV. It is fortunate that the bullet got stuck in the ply of the window of a room, due to which the bullet did not hit anyone. Chandigarh Police has started investigation by providing footage of the accused from CCTV cameras installed around the house. A forensic team was also called to the spot late in the night. Also read: Jalandhar Crime: Wife killed her husband over a minor dispute on Diwali night, police is searching for the woman. At the time of the incident, Punjab's IAS Virendra Kumar Sharma ( IAS Virendra Kumar Sharma) was present at home with his family as soon as an unknown person fired a shot at his house, he got scared. Meanwhile, the security personnel present at his house also came out to catch the unknown accused who opened fire. Meanwhile, Virendra Kumar Sharma considered it safe to stay indoors with his family. Also read: Amritsar Golikand: Indiscriminate firing between two groups on Diwali night, one dead; Two of the injured are posted in the Health Department of Punjab Government. During this, they also called the Police Control Room and their security personnel. Virendra Kumar Sharma is posted in the Health Department of Punjab Government. This incident happened late at 11 pm. The unknown accused</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-bullet-fired-at-house-of-punjab-cadre-ias-virendra-kumar-sharma-in-chandigarh-on-diwali-night-police-is-searching-for-accused-on-basis-of-cctv-23579418.html</t>
-  </si>
-  <si>
-    <t>Punjab News: Security plan of fire brigade ready on Diwali, Police Commissioner seeks cooperation from people; Said- give information about suspicious people</t>
-  </si>
-  <si>
-    <t>Harsh Kumar, Chandigarh. There have been many accidents in the city due to bursting of firecrackers on Diwali and to deal with this, the fire department has deployed 90 personnel at four sub-stations to fight the fire. Four sub-stations of the fire department are Jail Chowk, Sodhal. 90 employees will be present at Chowk, Jalandhar Cantt, Damoria Bridge. Apart from all these stations, on Diwali night, fire department vehicles will be deployed in Model Town, Maqsuda Chowk, Shri Ram Chowk (Company Bagh Chowk), Leather Complex. A driver along with three firemen will be present in these vehicles so that rescue can be done in case of any untoward incident. Police and fire department teams have been alert. Due to security on Diwali, the Commissionerate police and fire department teams have been alert. Police Commissioner Kuldeep Chahal has deployed around 300 police at a total of 56 sensitive places in the city, namely Naco City Railway Station, Cantt Railway Station, Bus Stand, BMC Chowk, Lord Valmiki Chowk, entry points of the city, Shri Devi Talab Temple, Sodhal Temple, Suchi Pind. Employees have been deployed, out of which 26 checkpoints will be set up by the police station and 25 checkpoints will be set up by the traffic police. Senior police officials will keep an eye on all these checkpoints so that mischievous elements can be controlled. Also read - Faridkot News: Police action against those selling firecrackers without license, case registered against three people to keep an eye on mischievous elements. CCTV cameras: To keep an eye on the mischievous elements, CCTV camera ban will be present at many intersections so that if any mischievous elements are trying to escape after committing a crime, they get captured on camera. These CCTV cameras will be monitored by the officers sitting behind the police lines all the time. So that he can keep an eye on all the people during the festive season. If you see any suspicious object or person, inform the police. Police Commissioner Kuldeep Singh Chahal has appealed to the people not to be afraid if they see any suspicious object or person around them. is not needed. Give his information to your nearest police station. His name will be kept secret, so that no atmosphere of any kind can be spoiled. The fire department team will be ready all the time to control the fire. Apart from the sub-stations of the city, fire department vehicles are also present in the city. In very busy areas where there is a lot of crowd and where there may be a delay in reaching them, small vehicles will be present all the time so that where the big vehicles cannot reach, they can reach there in time and control the fire. fire brigade and</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-security-plan-of-fire-brigade-ready-on-diwali-2023-police-commissioner-seeks-cooperation-people-23578718.html</t>
-  </si>
-  <si>
-    <t>Punjab News: CM Mann gave a gift on the occasion of Diwali, recruitment process will start soon for 1450 new posts in the police department.</t>
-  </si>
-  <si>
-    <t>Digital Desk, Chandigarh. On the occasion of Diwali, Punjab Government has given a gift to the people. The state government on Saturday has given approval to start the recruitment process for 1450 new posts in the police department and its complete information will be made available soon from the government side. CM Mann tweeted information about these recruitments. State Chief Minister Bhagwant Mann tweeted on Twitter, 'The aim of our government is to create Rangla Punjab, in which the role of youth is most important and this dream can be fulfilled only by providing maximum employment to the youth.' Another gift from your government on the occasion of Diwali. ..Today, approval was given to start the recruitment process by creating 1450 new vacancies in the Police Department...the details of which will be shared soon...the aim of the Sadi government is to create a Rangala Punjab in which the role of youth is most important and this dream Youth…— Bhagwant Mann (@BhagwantMann) November 11, 2023 Appointment letters were distributed on Friday also. Let us tell you that Chief Minister Bhagwant Mann had handed over appointment letters to 583 youth in various departments on Friday, a day before Diwali. . During that time the CM had said that a total of 37683 jobs have been given so far. He had further said that now he is a part of "Team Punjab" and it is the responsibility of every youth to work for the welfare of the state. Also read - Police alert on Diwali, fire brigade personnel also 24 Regarding these recruitments, Chief Minister of the state Bhagwant Mann tweeted on Twitter, 'The aim of our government is to create Rangla Punjab, in which the role of youth is most important and this dream can be fulfilled only by providing maximum employment to the youth. 'Another gift from your government on the occasion of Diwali... Today, approval has been given to start the recruitment process by creating 1450 new vacancies in the Police Department... the details of which will be shared soon... The aim of this government is to create a colorful Punjab which The role of youth is most important in this and this dream of youth…— Bhagwant Mann (@BhagwantMann) November 11, 2023 Appointment letters were also distributed on Friday. Let us tell you that Chief Minister Bhagwant Mann had distributed appointment letters on Friday, a day before Diwali. Appointment letters were handed over to 583 youth in various departments. During that time the CM had said that a total of 37683 jobs have been given so far. He further said that now he is "Team Pt.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-recruitment-process-will-start-soon-for-1450-new-posts-in-the-police-department-in-punjab-23578518.html</t>
-  </si>
-  <si>
-    <t>'Bandi Chhod Diwas' is celebrated on Diwali in Punjab, history is linked to Mughals; Know what is the importance</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Chandigarh. Diwali is a beautiful festival of brotherhood. It is celebrated with great pomp in Hindu and Sikh religions. In Sikh religion, this festival is known as Bandi Chhor Divas 2023. The history behind it is linked to the Mughals. Let us know some important things through this article. What is the history of Bandi Chhod Diwas? In Sikhism, the festival of Diwali is celebrated as Bandi Chhod Diwas. This festival is one of the three festivals of the Sikhs, the first of which is Maghi, the second is Baisakhi and the third is Bandi Chhod Diwas. The history of this festival is related to the sixth Guru of Sikhs, Guru Hargobind Sahib. It is said that on this day Jahangir released Hargobind Sahib. The Mughals had captured the fort of Gwalior in Madhya Pradesh and converted it into a prison. Also read: Diwali 2023: Read this advisory before bursting crackers on Diwali, protect yourself from burns and eye injuries in this way. People considered a threat to the Mughal Sultanate were kept imprisoned. Jahangir had kept Guru Hargobind Sahib, the sixth Guru of the Sikhs, confined along with 52 kings in this fort. Later, when the Mughal emperor realized his mistake, he announced the release of Guru Hargobind Sahib from jail. Hargobind Sahib had expressed his objection to Jahangir's statement and said that he would not go alone from this jail, but Will take 52 kings along with him. After this, 52 kali chola (clothes) were stitched for Guru Sahib. 52 The king grabbed each bud and came out of the fort. In this way he could get freedom from imprisonment. Why is Prisoner's Day celebrated on the day of Diwali? Guru Sahib had arrived in Amritsar on the same day of Diwali (Diwali 2023). After this, war skills were shown along with fireworks. The entire city was illuminated with the light of lamps. After this, Diwali started being celebrated as Bandi Chhor Diwas. How do Sikhs celebrate Bandi Chhor Diwas? On this day, religious programs are organized by the Sikh Sangat. Kirtan and katha are organized in the gathering. Also, fireworks are done on a large scale. Lamps are lit in Gurudwaras. On this occasion, devotees reach the Gurudwara to pay obeisance. When did Bandi Chhod Diwas start? Bandi Chhod Diwas is a Sikh festival, which falls on the day of Diwali. Diwali festival is historically celebrated by the Sikh community. Th</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-bandi-chhor-diwas-2023-punjab-diwali-celebration-of-freedom-and-hope-know-the-full-history-23578297.html</t>
-  </si>
-  <si>
-    <t>Punjab connection of Delhi liquor scam... CBI summoned 10 officers, Manish Sisodia's troubles increased?</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Delhi Liquor Scam: The Central Investigation Agency (CBI) has summoned ten officials of the Excise Department of Punjab in the Delhi Liquor Scam case. The summoning of Punjab Excise Department officials by the CBI has created panic among the officials of the department. It is being told that after recording the statement to the Punjab authorities, the problems of former Delhi Deputy CM Manish Sisodia may increase. At the same time, the scope of investigation can also reach Punjab. Let us tell you that Delhi liquor scam accused Manish Sisodia has filed a bail petition in the Supreme Court. Based on the interrogation of Punjab officials, the CBI officer can appeal to the Supreme Court to reject Sisodia's bail plea, arguing that the investigation should continue. If Manish Sisodia's bail application is rejected, he may have to spend more time in jail. Has the Punjab government implemented Delhi's liquor policy? On the other hand, there is discussion in political circles that the liquor policy made by the Delhi government will be implemented. Punjab government has also implemented it. CBI and Enforcement Directorate (ED) have already interrogated two senior IAS officers of Punjab. Also read- Punjab News: Shock to the main accused in the murder of Sant Dayal Das from the High Court, anticipatory bail plea rejected. Now CBI SP Rajiv Kumar has called ETO rank officers of the department to record their statements on Monday and Tuesday. Due to which there is a situation of confusion among the departmental officers. Harsimrat Kaur Badal had raised the issue of liquor scam in the Parliament. It should be noted that the government led by former Punjab Chief Minister Captain Amarinder Singh had passed a resolution in the Assembly that CBI cannot conduct any investigation without the approval of the state government. Leaders of the ruling party say that CBI is deliberately causing trouble at the behest of the Central Government. At the same time, there is talk in political circles that on August 3, former minister and Akali leader Harsimrat Kaur Badal had raised the issue of liquor scam in Parliament and demanded an investigation from Union Home Minister Amit Shah. Read this also-Punjab News: 'Why were the recruitment rules changed for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann Let us tell you that Manish Sisodia, accused in Delhi liquor scam, filed a bail petition in the Supreme Court. of</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-delhi-liquor-scam-cbi-summoned-ten-officers-of-punjab-government-questioning-manish-sisodia-case-23526048.html</t>
-  </si>
-  <si>
-    <t>Punjab News: HC raised questions on the petition declaring the arrest of Amritpal and his associates illegal, said this</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh: On the petition of separatist Amritpal Singh and his associates Gurmeet Singh Bukkanwala, Kulwant Singh Raoke, Bhagwant Singh alias Prime Minister Bajeke and Basant Singh, the Punjab and Haryana High Court has raised questions as to when they were arrested after the FIR. So how can the petition declaring the arrest illegal be valid? While filing the petition on behalf of everyone in the High Court, it was said that due to the attack on Ajnala police station, the police had registered an FIR and initiated action. During this time the petitioners were also arrested and accused of this attack and sent to jail. The petitioners argue that he was not involved in this attack. In such a situation, the police action and arrest of the petitioners is wrong. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition, hence the action against him should be canceled. And an appeal has been made in the petition for the release of the petitioners. Now the High Court has raised questions on the propriety of this petition itself. The court said that this petition is calling the arrest illegal, while an FIR has been registered, in such a situation how is this petition valid. The court has ordered to present the case in the next hearing. While filing a petition in the High Court on behalf of everyone, it was said that due to the attack on Ajnala police station, the police had registered an FIR and initiated action. During this time the petitioners were also arrested and accused of this attack and sent to jail. The petitioners argue that he was not involved in this attack. In such a situation, the police action and arrest of the petitioners is wrong. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition, hence the action against him should be canceled. And an appeal has been made in the petition for the release of the petitioners. Now the High Court has raised questions on the propriety of this petition itself. The court said that this petition is calling the arrest illegal, while an FIR has been registered, in such a situation how is this petition valid. The court has ordered to present the side in this regard at the next hearing. Congress leader Navjot Singh Sidhu, who was seen serving his wife suffering from cancer, said - time has come to go to Manali. The High Court raised questions on the propriety of the petition against him. To cancel the action and protect the petitioners</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-hc-raised-questions-on-the-petition-calling-the-arrest-of-amritpal-and-his-associates-illegal-23499131.html</t>
-  </si>
-  <si>
-    <t>Challenge in HC to conduct premature elections of District Councils, demand to cancel the decision of Punjab Government</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Punjab News: The Punjab Government's notification to conduct district council elections ahead of schedule has been challenged in the Punjab and Haryana High Court. The High Court will hear this petition on Tuesday. In the petition filed by Narendra Singh of Sri Muktsar Sahib, it has been alleged that the tenure of the Zilla Parishads is till October next year but the government is going to conduct elections in December this year.'Government's move 'Completely illegal' The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. The petition said that the notification is against the law. The petition argued that all the Gram Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. But after the matter came to the High Court, the government had withdrawn its decision. According to the petition, the power to announce elections at any time and dissolve the councils cannot mean that the tenure prescribed by the Constitution can be changed at the will of the authority concerned. It should be reduced accordingly. In the petition filed by Narendra Singh of Sri Muktsar Sahib, it has been alleged that the tenure of the Zilla Parishads is till October next year but the government is going to conduct elections in December this year. 'The government's step is completely illegal' The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. The petition said that the notification is against the law. The petition argued that all the Gram Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. But after the matter came to the High Court, the government had withdrawn its decision. According to the petition, the power to announce elections at any time and dissolve the councils cannot mean that the tenure prescribed by the Constitution can be changed at the will of the authority concerned. The High Court (Punjab Haryana High Court) has been requested to cancel this order of the government because this step of the government is completely illegal, arbitrary and against the principle of natural justice. Said in the petition that the notification is against the law. The petition argued that all the rural areas of Punjab</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-haryana-high-court-district-council-election-demand-to-cancel-the-decision-of-punjab-government-23521588.html</t>
-  </si>
-  <si>
-    <t>Property dispute: Interference in High Court's order proved costly, contempt notice to Amritsar SSP</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. In the property dispute case, going against the order of not doing any kind of interference on the complainant's land and getting the possession of the other party, it cost the SSP of Amritsar a lot. The High Court has issued a contempt notice to the SSP and ordered it to file a reply in this matter. While filing the petition, Rashpal Singh told the High Court through advocates LM Gulati and Divya Gulati that he purchased 14 Kanal land from Gurdhar Singh. Was. After purchasing this land, it was destroyed and the petitioner got its ownership and possession. After this, Gurdhar Singh started harassing the petitioner for selling this land to someone else. Despite the order, the SSP took action against him. The petitioner filed a civil suit in the Amritsar court and the court refused to take any action on the petitioner's land. Issued an order not to interfere. Despite this order, Gurdhar complained to the SSP of Amritsar and on the basis of the complaint, the possession of this land was given to Gurdhar along with the police force. During this, the petitioner also showed a copy of the court order to the police officials but it was ignored. Went. After hearing the arguments of the petitioner, the High Court has now issued a contempt notice to the SSP of Amritsar and ordered him to file a reply in this case. While filing the petition, Rashpal Singh told the High Court through advocates LM Gulati and Divya Gulati. Told that he had purchased 14 kanals of land from Gurdhar Singh. After purchasing this land, it was destroyed and the petitioner got its ownership and possession. After this, Gurdhar Singh started harassing the petitioner for selling this land to someone else. Despite the order, the SSP took action against him. The petitioner filed a civil suit in the Amritsar court and the court refused to take any action on the petitioner's land. Issued an order not to interfere. Despite this order, Gurdhar complained to the SSP of Amritsar and on the basis of the complaint, the possession of this land was given to Gurdhar along with the police force. During this, the petitioner also showed a copy of the court order to the police officials but it was ignored. Went. After hearing the arguments of the petitioner's side, the High Court has now issued a contempt notice to the SSP of Amritsar and ordered him to file a reply in this case. Against this, the petitioner filed a civil suit in the Amritsar court and the court ordered the petitioner's land to be seized. An order was issued not to interfere in any way. this order</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-property-dispute-punjab-haryana-high-court-order-contempt-notice-to-ssp-of-amritsar-23511427.html</t>
-  </si>
-  <si>
-    <t>Bikram Majithia accused CM Bhagwant Mann of discrimination, said- 'How will we stop the migration of such youth abroad?'</t>
-  </si>
-  <si>
-    <t>Chandigarh, Jagran Digital Desk: Former Punjab MLA and Akali Dal leader Bikram Singh Majithia tried to corner CM Bhagwant Mann regarding the job. He accused the AAP government of discriminating against the youth of Punjab. How will we stop the foreign migration of Punjabi youth: MajithiaBikram Singh Majithia tweeted that if you cannot recruit them in Punjab then you can stop the migration of Punjabi youth. How will we stop migration to foreign countries? Tagging Bhagwant Mann, he further said that it is shocking that out of the 7 sub inspectors recruited in Mansa district, 6 are from Haryana. It was the same story in earlier appointments also. Majithia accused CM Mann of discrimination. Accusing CM Bhagwant Mann of discrimination, Bikram Singh Majithia said that after promising lakhs of jobs, your government is discriminating against our youth. Along with this tweet, he accused Punjab CM of negligence and discrimination regarding employment of youth. How will you prevent the exodus of Punjabi youth to foreign countries if you can't even recruit them in Punjab @BhagwantMann? It's shocking 6 out of 7 Sub Inspectors recruited in Mansa district are from Haryana. Same was the story in earlier appointments also. Your govt is… pic.twitter.com/1G7i8iuEXR— Bikram Singh Majithia (@bsmajithia) September 7, 2023 Majithia has also taken a dig at floods. This is not the first time that Bikram Singh Majithia has cornered CM Bhagwant Mann, even before this he had Even called it a cartoon. Taking aim at CM Bhagwant Mann for the huge devastation caused by floods, he said that he is a cartoon, he just ate, drank and slept. Flood caused huge devastation in Punjab, but CM did not make any preparations before, whereas preparations should be done in advance to deal with it. Also read: Punjab Top 5 latest News: CM Bhagwant Mann tightened his waist regarding stubble, is no longer a historian Professor Prithi Singh KapoorBikram Singh Majithia tweeted that if you cannot recruit them in Punjab then how will you stop the migration of Punjabi youth to foreign countries. Tagging Bhagwant Mann, he further said that it is shocking that out of the 7 sub inspectors recruited in Mansa district, 6 are from Haryana. It was the same story in earlier appointments also. Majithia accused CM Mann of discrimination.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-bikram-majithia-accused-cm-bhagwant-mann-of-discriminating-against-youth-in-punjab-23524812.html</t>
-  </si>
-  <si>
-    <t>Punjab News: 'Why changed the recruitment rules for the selection of PTI master cadre teachers', Akali Dal asked CM Bhagwant Mann</t>
-  </si>
-  <si>
-    <t>Chandigarh, State Bureau. Punjab Politics Shiromani Akali Dal (SAD) today asked Chief Minister Bhagwant Mann to explain why the Aam Aadmi Party government changed its own recruitment rules for the selection of PTI master cadre teachers. Why was an attempt made to recruit ineligible candidates who were not selected as service students? Akali Dal Legal Wing President Sardar Arshdeep Singh Kaler said that while recruiting PTI Master Cadre teachers, the AAP government specifically While giving said that only those candidates will be considered for appointment. Who have passed Punjab State TET-2 examination. He said that the eligible teachers were called for verification of their documents on December 19, 2022. 'It is very unfortunate that the very next day...' Kaler said that instead of appointing the eligible candidates, the government allegedly... Normally a committee was formed for the appointment process. Subsequently, a notification was issued on 26 July, which was posted on the government website for three days, stating that candidates who did not pass the Punjab State TET-2 were also eligible for appointment. The Akali leader said that it is very unfortunate that even before the selection list was released the very next day, the government tried to include new ineligible candidates in government service by allotting them stations. Also read - CM Bhagwant Mann in Jalandhar Appointment letters given to Sub Inspectors, said - Recruitment done in a transparent manner. Why did you violate your own rules? The President of the Legal Wing said that the aggrieved candidates raised this issue in the Punjab and Haryana High Court, which dismissed the ineligible candidates. Blocked the inclusion and asked the government to explain why it violated its own rules. He also assured the aggrieved candidates of full legal help from the Akali Dal. Meanwhile, eligible PTI master cadre candidates Sardul Singh and Amandeep Sagar said that they contacted the Akali Dal president after being reprimanded by Education Minister Harjot Bains. did. The candidates said that when they went to meet the Education Minister, he told them that your colleagues have climbed the water tank, you should also do the same. Other eligible candidates said that now we will agitate till then. Unless the Education Minister tells us that there is no change in the rules to deprive meritorious students of government jobs.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-akali-dal-asked-cm-bhagwant-mann-why-were-the-recruitment-rules-changed-for-the-selection-of-pti-master-cadre-teachers-23525920.html</t>
-  </si>
-  <si>
-    <t>Punjab Patwari Appointment Letter: New pen in new hands... CM Bhagwant Mann handed over appointment letters to 710 Patwaris.</t>
-  </si>
-  <si>
-    <t>Chandigarh, Jagran Correspondent. Punjab Patwari Appointment Letters: Punjab Chief Minister Bhagwant Mann has today handed over appointment letters to 710 Patwaris in Chandigarh. He also congratulated the newly appointed Patwaris for joining the Punjab Government. During this, CM Mann said, "Getting the job of Patwari without paying any money is like coming out of the sea without taking a dip. In the previous governments, offerings were made for the job of Patwari. The Punjab Government has trusted the new Patwaris without any discrimination. You are requested to solve the problems of the people with honesty whenever you enter the field. Do it, because with your one signature the hopes of the common people will be raised. Big announcement for the Patwaris undergoing training. CM Bhagwant Mann also announced to increase the stipend given to the Patwaris during the training period. While announcing, the CM said, "Press the pen and experiment, the allowances will keep increasing. If you leave the pen, I will not take responsibility for the strike." He also said that regular recruitment will be done, as is done in the police service. Also read: CM Bhagwant Mann's visit to Hoshiarpur: Took a tour of the flood affected areas by riding on a boat, new pens in his hands... Live from Chandigarh during the distribution ceremony of appointment letters to 710 newly appointed Patwaris... https://t.co/ cRY3zWrDPc— Bhagwant Mann (@BhagwantMann) September 8, 2023 It is noteworthy that a few days ago in Punjab, the Patwaris-lawmen protesting against the Punjab government had given an ultimatum to leave their pens and go on strike. After which the government had imposed ESMA in the state. .Punjab CM Bhagwant Mann has handed over appointment letters to 710 Patwaris who passed the test at Tagore Theater today. The special thing is that these Patwaris have been selected out of a total of one lakh candidates. "There are many names of corruption..." CM Mann He further said that corruption has many names, sometimes it is called donation, sometimes it is called premium, tea, water, service, think about us, all are these names. Giving the example of SSP, he said how bribery runs from top to bottom. During this, Punjab CM Bhagwant Mann also said that data is being collected in Mohalla Clinic, Punjab has to be made Punjab, there is a need to make London, California. No. CM Mann said during this time, "Getting the job of Patwari without paying any money is like getting a job in the sea without any money."</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-cm-bhagwant-mann-will-give-appointment-letters-to-710-patwaris-in-chandigarh-nikharda-punjab-23524848.html</t>
-  </si>
-  <si>
-    <t>Punjab today witnessed historic moments in the education sector; CM Mann handed over appointment letters to 12,710 temporary teachers</t>
-  </si>
-  <si>
-    <t>Chandigarh, Jagran Digital Desk: Punjab CM Bhagwant Mann handed over permanent appointment letters to 12,710 temporary teachers. He said that everyone is welcome in the family of Punjab Government. Today Punjab witnessed historic moments in the education sector...As promised, appointment letters for permanent teachers were handed over to 12,710 temporary teachers who were troubled by the bad intentions of the previous governments...All Welcome to the family of Punjab Government… By the grace of God and with the love and support of Punjabis, in the days to come… pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@BhagwantMann) July 28, 2023Rough words will not be allowed to remain in Punjab- By the grace of God and with the love and support of Punjabis, more decisions will be taken in favor of the people in the coming days. Keep the faith, we will soon confirm the remaining raw employees also. CM Mann said that we will not allow the word 'Kachha' to remain in Punjab. Further details are awaited. Today, Punjab witnessed a historic moment in the education sector... As promised, appointment letters for permanent teachers were handed over to 12,710 temporary teachers who were troubled by the bad intentions of the previous governments... All thanks to the Punjab Government. Welcome to the family...by the grace of God and with the love and togetherness of Punjabis, in the coming days... pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@BhagwantMann) July 28, 2023 As promised, 12,710 temporary workers troubled by the bad intentions of the previous governments. Handed over the confirmation letters to the teachers… Welcome everyone to the family of Punjab Government… By the grace of God and with the love and support of Punjabis, the days to come… pic.twitter.com/ae2oT6qkQ1— Bhagwant Mann (@ BhagwantMann) July 28, 2023By the grace of God and with the love and support of Punjabis, more decisions will continue to be taken in favor of the people in the coming days. Keep the faith, we will soon confirm the remaining raw employees also. CM Mann said that we will not allow the word 'Kachha' to remain in Punjab. Further details are awaited.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-today-witnessed-historic-moments-in-the-education-sector-cm-mann-handed-over-appointment-letters-to-more-than-seventeen-temporary-teachers-23484936.html</t>
-  </si>
-  <si>
-    <t>G20 Summit 2023: 'I will not tolerate all this in UK', Rishi Sunak bluntly on Khalistan issue as soon as he reached India</t>
-  </si>
-  <si>
-    <t>Chandigarh, Jagran Digital Desk: British Prime Minister Rishi Sunak has come to India to participate in the G-20 to be held in Delhi. In an interview given to news agency ANI, Rishi Sunak also gave his comments on the Khalistan issue. He said that this is a really important question and I want to say clearly that any kind of extremism or violence is not acceptable in the UK. He said that "We are particularly committed to tackling 'PKE' pro-Khalistan extremism. We are working together with the Government of India for this. I don't think this is correct. Our Security Minister was recently talking to his counterparts in India. We have groups working together to share intelligence and information so that we can root out this kind of violent extremism. This is not right and I will not tolerate it in the UK.''G-20 in India | On the Khalistan issue, United Kingdom Prime Minister Rishi Sunak to ANI says, "It's a really important question and let me just say unequivocally that no form of extremism or violence like that is acceptable in the UK. And that's why we are working very closely … pic.twitter.com/RpjfpfVr2X— ANI (@ANI) September 8, 2023 Will also visit Akshardham in Delhi Union Minister Ashwini Kumar Choubey welcomed the British Prime Minister and his wife at the airport. While attending the G-20 summit Apart from this, Rishi Sunak will also visit Akshardham Temple in Delhi on Sunday, September 10. Arrangements have been made for British Prime Minister Rishi Sunak to stay at Shangri La Hotel in Delhi. He said, "We are especially supporters of 'PKE' Khalistan. working closely with the Indian government to deal with extremism. I don't think that's right. Our security minister was recently talking to his counterparts in India. We have intelligence and sharing together There are working groups so that we can root out this type of violent extremism. This is not right and I will not tolerate it in the UK.''G-20 in India | On the Khalistan issue, United Kingdom Prime Minister Rishi Sunak to ANI says, "It's a really important question and let me just say unequivocally that no form of extremism or violence like that is acceptable in the UK. And that's why we are working very closely ... pic.twitter.com/Rp</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-g20-summit-2023-i-will-not-tolerate-all-this-in-uk-rishi-sunak-bluntly-on-khalistan-issue-as-soon-as-he-reaches-india-23525164.html</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-nia-presents-chargesheet-in-arms-and-ammunition-smuggling-case-through-drones-punjab-news-23579755.html?utm_source=website&amp;utm_medium=referral&amp;utm_campaign=chatbot</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-dera-sacha-sauda-gurmeet-ram-rahim-singh-gets-relief-from-high-court-in-case-of-alleged-objectionable-comments-on-guru-ravidas-sant-kabir-23579876.html?utm_source=website&amp;utm_medium=referral&amp;utm_campaign=chatbot</t>
-  </si>
-  <si>
-    <t>Dayanand Sharma, Chandigarh. The Punjab and Haryana High Court made it clear that insulting or threatening a person will not be an offense under the SC/ST Act, unless such remarks are made in a public place. Justice Deepak Gupta said that to constitute an offense under the Act, the insult or intimidation must be caused to the victim belonging to a Scheduled Caste or a Scheduled Tribe. Moreover, the other important component of the provision is that the insult or intimidation must be at any place within public view. Needed Justice Deepak Gupta of the High Court made this comment while hearing the appeal against the order of the Special Judge, Ludhiana. This is the case before the Ludhiana Court for murder and passing casteist remarks under sections 3 and 4 of the SC/ST Act. Had sought anticipatory bail in the crime which was rejected. It was alleged that the Appellant made casteist remarks by ascribing status to Sevak Singh for purchasing a banquet hall. Thereafter, the husband of the petitioner hit Sevak Singh with his car and caused serious injuries, resulting in his death. Counsel for the petitioner argued that he had no role in the FIR. The entire blame is on her husband, who has already been arrested. While considering the submissions, the High Court referred to Hitesh Verma v. State of Uttarakhand, in which the Supreme Court held that the object of the Act is to punish violators who commit insults and oppression against the weaker section of the society. But the Court was not estopped from considering whether the allegations made prima facie constitute an offense under Section SC/ST Act. In the present case, the only charge against the Appellant is that he took money from the Complainant for purchasing a Banquet Hall. Said words about the situation and used caste based words against him. The Court held that the said incident took place in a banquet hall, when only the complainant party, the appellant and his family members were present, i.e. not within any other public view. The question arises whether the sections of the SC/ST Act are applicable in such circumstances. While observing Section 3(1) of the SC/ST Act, the High Court highlighted that a person is liable to be punished for the crime of atrocities. of the materials required to make the event in any public place, subject to public view</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-news-high-court-said-this-regarding-sc-st-act-23579752.html?utm_source=website&amp;utm_medium=referral&amp;utm_campaign=chatbot</t>
-  </si>
-  <si>
-    <t>Diwali 2023: Read this advisory before bursting crackers on Diwali, protect yourself from burns and eye injuries like this</t>
-  </si>
-  <si>
-    <t>Jagran correspondent, Chandigarh. Every year on Diwali, serious cases of burns to eyes and other body parts due to sparks from firecrackers are reported. To deal with burn injuries, the health department of the administration has issued advisory and helpline numbers for the people. If the eyes get hurt or burnt by the sparks of firecrackers, then in such a situation people are prohibited from pressing or rubbing the eyes. Do not tie any cloth on the wound. In such a situation, it is prohibited from tying any cloth or applying ointment on the wound. Cover the eyes with some cup-like material. If the eyes get hurt by any chemical then in such a situation wash the eyes with clean water. If any particle has entered the eyes while burning firecrackers, do not try to remove it, rather keep the eyes closed and immediately go to the eye doctor. Also read: Punjab News: Three senior officers did not get relief in contempt case, 17 Hearing postponed till November, the administration has issued an advisory to the people and appealed to burn only green crackers. Green crackers which are certified by NEERI. People have been prohibited from burning Chinese firecrackers. An appeal has been made to allow children to burn firecrackers only under the supervision of adults. It has been advised to wear cotton clothes and stay away from synthetic materials while bursting firecrackers. Instructions have been given not to burn firecrackers in crowded areas or confined spaces, under trees, inside parking lots and garages or on the roadside. What to do - If there is any wound or injury on any part while burning firecrackers, then the burnt Immerse the area in cold water or clean it with a cloth soaked in cold water. -In case of fire, drop, cover and roll or cover the person with a blanket immediately. -Get medical help immediately if there are burns on the face or chest. What not to do -Do not hold the burn cloth under excessive water pressure -Do not remove the cloth stuck to the burnt area -Do not apply butter ointment, oil on the affected area -Do not apply ice as this may reduce the healing time. -Avoid long loose clothes, as they can catch fire. -Avoid using matches and lighters to burst crackers for Diwali as they have open flames which can be dangerous. -If there is any overhead like trees and wires If obstruction exists, never burn air crackers like rockets. Also read: Punjab: I will file a defamation case against CM, Sunil Jakhar said on Mann's silence in SC on the stubble issue.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-use-fireworks-with-caution-on-diwali-administration-issued-advisory-how-to-protect-yourself-from-burns-and-eye-injuries-23576743.html</t>
-  </si>
-  <si>
-    <t>Mann government's Diwali gift to Punjab, one time settlement scheme for traders; Pilgrimage plan approved</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Giving a big relief to the traders of the state before Diwali, the Punjab government has waived off Rs 1 lakh of Value Added Tax (VAT) dues to the traders. Whereas, 50 percent discount has been given to traders whose outstanding dues range from Rs 1 lakh to Rs 1 crore. This decision was taken in the cabinet meeting led by Chief Minister Bhagwant Mann here today while approving the implementation of One Time Settlement Scheme. . Giving information about the decisions taken in the meeting, Finance Minister Harpal Singh Cheema said that the One Time Settlement Scheme had been introduced twice before during the previous governments but it failed both the times. After coming to power, we analyzed both these schemes. Approval was given to the new scheme. Their input was taken after talking to the traders in Ludhiana, Jalandhar, Mohali and Amritsar and today the new scheme has been prepared and approved. Harpal Cheema said that the traders who have pending tax, interest and penalty up to Rs 1 lakh have been completely waived off. There are 39787 such traders in Punjab who had to pay tax up to Rs 1 lakh and interest on it. Also read: Punjab: BJP officials submitted demand letter for action against Sandeep Dayma, who had made controversial remarks on Gurudwara. He further said that a Traders with outstanding dues ranging from Rs 1 lakh to Rs 1 crore have been given 50 per cent waiver of tax. Also, there will be 100% waiver of interest and penalty on this tax. Cheema said that there are 19361 such cases which will get this benefit. He said that 59148 traders will benefit from this scheme. He said that this one time settlement scheme will start from November 15 and can be availed till March 15. Diwali gift to the traders of Punjab. The decision was taken in today's cabinet meeting to resolve the pending VAT issue. OTS scheme approved, it will benefit about 60,000 traders, long standing problems will also go away. To promote trade in Punjab… https://t.co/op56fvPXxr— AAP Punjab (@AAPPunjab) November 6, 2023Tirth Yatra scheme approved, Rs 40 crore will be spent. Cabinet has also approved the pilgrimage site scheme today. The government has come up with a new scheme to conduct pilgrimage to Varanasi, Sachkhand Sri Hazur Sahib Nanded, Sri Anandpur Sahib, Takht Sri Damdama Sahib, Talwandi Sabo, Nayana Devi, Chintpurni, Salasar. Under this,</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-govt-gave-diwali-gift-to-people-of-punjab-waiver-and-exemption-in-pending-taxes-to-more-than-59-thousand-traders-23574287.html</t>
+    <t>Punjab Assembly Secretariat wrote a letter to the Governor to end the budget session, took the step after the SC decision.</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Punjab Assembly has today written a letter to Governor Banwari Lal Purohit regarding prorogation of the budget session. Chief Minister Bhagwant Mann had cleared this file yesterday and asked to complete the process of proroguing the Punjab Assembly. It is worth noting that after the instructions of the Supreme Court, while the state government started the action of proroguing the budget session, it had also asked the Governor to take a decision regarding the bills passed in the assembly session. Approval of 4 bills passed in June. It is also worth remembering that the Governor had not yet approved the four bills passed in the month of June. The Governor said that because this session has been called without his permission, it is unconstitutional. The work done in this will also be unconstitutional. Not only this, last month in October, when the state government once again called another meeting of the budget session, the Chief Minister announced in the House itself that he would first bring instructions from the Supreme Court whether this session is constitutional or not. Only after that will the bills be passed. Last week, the Supreme Court had asked the Chief Minister and the Governor to introspect and said that both are holding constitutional posts. Therefore, they should do less to maintain democracy. He also told the Governor that he is not an elected representative. It is worth noting that the state government was not adjourning the budget session, about which the Governor had objection. It is also worth remembering that That the four bills passed by the Governor in the month of June had not yet been approved. The Governor said that because this session has been called without his permission, it is unconstitutional. The work done in this will also be unconstitutional. Not only this, last month in October, when the state government once again called another meeting of the budget session, the Chief Minister announced in the House itself that he would first bring instructions from the Supreme Court whether this session is constitutional or not. Only after that will the bills be passed. Last week, the Supreme Court had asked the Chief Minister and the Governor to introspect and said that both are holding constitutional posts. Therefore, they should do less to maintain democracy. He also told the Governor that he is not an elected representative. It is worth noting that the state government was not adjourning the budget session, about which the Governor had objection. Only after that the bills could be passed.</t>
+  </si>
+  <si>
+    <t>Updated: Wed, 15 Nov 2023 11:26 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-punjab-assembly-secretariat-wrote-a-letter-to-the-governor-to-end-the-budget-session-took-the-step-after-the-sc-decision-23581225.html</t>
+  </si>
+  <si>
+    <t>Finance Minister Harpal Cheema said on one-time settlement scheme, total dues of Rs 6086.25 crore will be settled</t>
+  </si>
+  <si>
+    <t>State Bureau, Chandigarh. Finance Minister Harpal Cheema has claimed that the One Time Settlement Scheme 2023 brought by the Punjab government will reduce departmental litigation. At the same time, problems in business and industry will also reduce. The Punjab One Time Settlement Scheme, which will run from November 15 to March 15, 2024, has officially started today. The Minister said that the total outstanding amount of tax, interest and penalty up to Rs 1 crore till March 31, 2023. This amounts to Rs 6086.25 crore. He said that under this scheme, complete waiver of dues of Rs 528.38 crore is proposed to benefit 39,787 taxpayers whose total tax outstanding was less than Rs 1 lakh. Giving details of this scheme, the Finance Minister said that Taxpayers whose assessment has been prepared by the Taxation Department, Punjab by March 31, 2023, will be eligible to apply for settlement of their dues under this scheme. He said that the scheme would be applicable for payment of dues under the Punjab General Sales Tax Act, 1948, Central Sales Tax Act, 1956, Punjab Infrastructure (Development and Regulation) Act, 2002 and Punjab Value Added Tax Act, 2005. Giving information about the proposed waiver of slab-bar of interest and penalty, Finance Minister Harpal Singh Cheema said that those taxpayers will be eligible to apply for one-time settlement whose total outstanding amount (tax, penalty and interest) as on March 31, It was up to Rs 1 crore by 2023. He said the scheme will provide complete waiver of tax, interest and penalty in cases with outstanding dues of less than Rs 1 lakh, while for dues between Rs 1 lakh and Rs 1 crore there will be 100 per cent waiver of interest and penalty and the amount of tax will be refunded. 50 percent of the dues will be waived off. Appealing to the traders and industrialists to take advantage of this opportunity as soon as possible, the Finance Minister said that under this scheme, no application will be accepted for settlement of dues after March 15, 2024. He said that this one-time settlement scheme for pre-GST dues will reduce the burden of old litigation and will also help in the smooth management of the GST system by making best use of the resources of the department. The Minister said that on March 31, The total outstanding amount of tax, interest and penalty up to Rs 1 crore till 2023 comes to Rs 6086.25 crore. He said that in order to benefit those 39,787 taxpayers under this scheme,</t>
+  </si>
+  <si>
+    <t>Updated: Wed, 15 Nov 2023 10:51 PM (IST)</t>
+  </si>
+  <si>
+    <t>https://www.jagran.com/punjab/chandigarh-finance-minister-harpal-cheema-said-on-one-time-settlement-scheme-total-dues-of-rs-6086-crore-25-lakh-will-be-settled-23581117.html</t>
   </si>
   <si>
     <t>Like Delhi, Governor should hand over the investigation of liquor scam in Punjab to CBI or ED: Bikram Singh Majithia</t>
@@ -436,6 +586,9 @@
     <t>Chandigarh, State Bureau. Shiromani Akali Dal leader and former minister Bikram Singh Majithia has said that the Governor should get the liquor scam in Punjab investigated by CBI or ED. He said that just as there was a scam in Delhi in which former Chief Minister Manish Sisodia is implicated, similarly a scam has taken place in Punjab too. Even the Cabinet Sub Committee admitted that there was a loss of revenue of Rs 150 crore. Nothing was done for the infrastructure in Punjab. Talking to reporters at the party office, Majithia said that the Supreme Court on Monday reprimanded the Delhi government. Is. Delhi is a role model for Chief Minister Bhagwant Mann. Majithia said, citing the Supreme Court's decision, which said that the AAP government spent Rs 1100 crore on its campaign in three years, but did nothing for the infrastructure. Punjab government is spending money on campaign in the same way. The government is also spending on its publicity, but has ignored the infrastructure. This is the reason why Punjab is flood affected today. Majithia said, 'The AAP government in Punjab is following the model established by its high command in Delhi. Like the case of Delhi, the Punjab government has earmarked huge sums for publicity at the cost of infrastructure projects and development in the state. Appealing to take action against aircraft hiring, he said the situation has become such that relief for flood victims A paltry amount of Rs 33 crore was sent to the Deputy Commissioners, whereas several hundred crores of rupees are required for this work'. Majithia appealed to the Chief Justice of Punjab and Haryana High Court to take action against the wasteful expenditure being incurred by the Punjab government, especially against hiring of aircraft to ferry AAP Party convener Arvind Kejriwal from one place to another across the country. Law and order has been affected. The Akali leader said that the state is lagging behind in all parameters and law and order has been affected the most. He said that this government is fond of talking about 'change'. The only change we are seeing in Punjab is the rise of gangster culture, with broad daylight murders becoming common and dreaded gangsters like Lawrence Bishnoi openly giving interviews from jail. He demanded the arrest of AAP MLA Amolak Singh. Give the example of a young journalist</t>
   </si>
   <si>
+    <t>Updated: Tue, 25 Jul 2023 08:14 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-bikram-singh-majithia-said-governor-should-hand-over-investigation-of-liquor-scam-in-punjab-to-cbi-or-ed-like-delhi-23482213.html</t>
   </si>
   <si>
@@ -445,13 +598,19 @@
     <t>Chandigarh, Jagran Digital Desk. Punjab Congress leader Navjot Singh Sidhu is busy these days with his cancer-stricken wife (Dr. Navjot Kaur Suffering from Cancer). He has tweeted saying that the wounds have healed, but the mental wounds of this difficult ordeal will still remain. He told that his wife is undergoing her fifth chemo. He said that once the pulse of any problem is caught, everything gets fixed. Sidhu further wrote that he said that his wife was reluctant to move her hand, so he was fed with a spoon. Sidhu further wrote that keeping in mind the vascular reactions after the last chemo, the time has come to take the same wife to Manali. The wounds have healed but the mental scars of this ordeal will remain. Fifth chemo underway…. finding a good vein went all in vain for sometime and then Dr. Rupinder’s expertise came handy….. She refused to move her arm so spoon fed her…. Keeping in view massive vascular… pic.twitter.com/y4EF9OHWUj— Navjot Singh Sidhu (@sherryontopp) August 9, 2023 Sidhu further wrote that he said that his wife refused to move her hand, so he was fed with a spoon. Sidhu further wrote that keeping in mind the vascular reactions after the last chemo, the time has come to take the same wife to Manali. The wounds have healed but the mental scars of this ordeal will remain. Fifth chemo underway…. finding a good vein went all in vain for sometime and then Dr. Rupinder’s expertise came handy….. She refused to move her arm so spoon fed her…. Keeping in view massive vascular… pic.twitter.com/y4EF9OHWUj— Navjot Singh Sidhu (@sherryontopp) August 9, 2023The wounds have healed but the mental scars of this ordeal will remain. Fifth chemo underway…. finding a good vein went all in vain for sometime and then Dr. Rupinder’s expertise came handy….. She refused to move her arm so spoon fed her…. Keeping in view massive vascular… pic.twitter.com/y4EF9OHWUj— Navjot Singh Sidhu (@sherryontopp) August 9, 2023Keeping in view massive vascular… pic.twitter.com/y4EF9OHWUj— Navjot Singh Sidhu (@sherryontopp) August 9, 2023</t>
   </si>
   <si>
+    <t>Updated: Fri, 11 Aug 2023 11:35 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-congress-leader-navjot-singh-sidhu-seen-serving-his-wife-suffering-from-cancer-said-time-has-come-to-go-to-manali-23499044.html</t>
   </si>
   <si>
     <t>Big announcement by Punjab CM Bhagwant Mann - Appointment letters will be given to 710 new Patwaris on September 8.</t>
   </si>
   <si>
-    <t>Chandigarh, State Bureau. Punjab Patwari Appointment Letter: The government is not ready to bow down before the Punjab Patwar Union. The government has come into action since the Patwaris had threatened to strike from September 1 regarding a Patwari caught in a bribery case. When the striking Patwaris stopped work on additional Patwar circles, the government issued orders to give additional circles to the retired Patwaris. Now Chief Minister Bhagwant Mann will hand over appointment letters to 710 new Patwaris on September 8. For this, a big program has been organized at Tagore Theater in Chandigarh. Giving information on X, he said, "On September 8, we have organized a big appointment letter distribution ceremony. In which appointment letters will be given to 710 newly appointed Patwaris. Advertisements for new posts of Patwaris will also be issued soon." Not only this, Chief Minister Bhagwant Mann has also asked the Revenue Department to speed up the work of recruiting 586 new Patwaris. It is clear that the government does not want to give much importance to the Patwaris' strike by taking such steps. I am sharing a good news with you... On September 8, we have organized a big appointment letter distribution ceremony in which 710 newly appointed Patwaris Appointment letters to be given... Advertisements for new posts of Patwaris will also be released soon... It is expected that new pens in new hands will lead to a new...— Bhagwant Mann (@BhagwantMann) September 6, 2023 Also read- Punjab News: Revenue CM Mann's big decision amid officers' strike, 741 trainee Patwaris deployed in the field. 'Government is not going to bow down now' A person close to the Chief Minister said that the CM also said in a meeting with the officials of the Revenue Department that he would like the Chief Minister. Not even one and a half month has passed since its construction and every month notice of Patwari strike comes. The entire state is engaged in flood affected works and on the other hand Patwaris are giving strike notice. The government is not going to bow down now, whatever options are available to deal with them should be explored. It is noteworthy that the government has appointed retired patwaris in the additional patwar circles where the striking patwaris have refused to work. Besides, they are being given more than one Patwar Circle. Revenue officials say that the Chief Minister has asked for new appointments in all the vacant posts that remain and also their training period.</t>
+    <t>Chandigarh, State Bureau. Punjab Patwari Appointment Letter: The government is not ready to bow down before the Punjab Patwar Union. The government has come into action since the Patwaris had threatened to strike from September 1 regarding a Patwari caught in a bribery case. When the striking Patwaris stopped work on additional Patwar circles, the government issued orders to give additional circles to the retired Patwaris. Now Chief Minister Bhagwant Mann will hand over appointment letters to 710 new Patwaris on September 8. For this, a big program has been organized at Tagore Theater in Chandigarh. Giving information on X, he said, "On September 8, we have organized a big appointment letter distribution ceremony. In which appointment letters will be given to 710 newly appointed Patwaris. Advertisements for new posts of Patwaris will also be issued soon." Not only this, Chief Minister Bhagwant Mann has also asked the Revenue Department to speed up the work of recruiting 586 new Patwaris. It is clear that the government does not want to give much importance to the Patwaris' strike by taking such steps. I am sharing a good news with you... On September 8, we have organized a big appointment letter distribution ceremony in which 710 newly appointed Patwaris Appointment letters to be given... Advertisements for new vacancies of Patwaris will also be released soon... It is expected that new pens in new hands will lead to a new...— Bhagwant Mann (@BhagwantMann) September 6, 2023 Also read- Punjab News: Revenue Amidst the officers' strike, CM Mann's big decision, 741 trainee Patwaris deployed in the field. 'Government is not going to bow down now' A person close to the Chief Minister said that the CM also said in a meeting with the officials of the Revenue Department that he would like the Chief Minister. Not even one and a half month has passed since it was built and every month notice of Patwari strike comes. The entire state is engaged in flood affected works and on the other hand Patwaris are giving strike notice. The government is not going to bow down now, whatever options are available to deal with them should be explored. It is noteworthy that the government has appointed retired patwaris in the additional patwar circles where the striking patwaris have refused to work. Besides, they are being given more than one Patwar Circle. Revenue officials say that the Chief Minister has asked for new appointments in all the vacant posts that remain and also their training period.</t>
+  </si>
+  <si>
+    <t>Updated: Wed, 06 Sep 2023 05:35 PM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-cm-bhagwant-mann-big-announcement-appointment-letters-will-be-given-to-710-new-patwaris-on-september-eight-nikharda-punjab-23523368.html</t>
@@ -463,6 +622,9 @@
     <t>Chandigarh, Jagran Digital Desk. Sukhbir Badal, while targeting the AAP government of Punjab, has said that when the state was in the grip of floods, CM Bhagwant Mann along with his boss Arvind Kejariwal. Was touring the state and Chhattisgarh regarding elections. Sukhbir Badal said that ESMA (Essential Services Maintenance Act) should be imposed on the CM. Badal said that we welcome the Punjab and Haryana High Court to restore the Panchayats. It was because of the court that the Punjab government was forced to withdraw the notification. He said that the purpose behind dissolving the Panchayats by the Punjab government was to take control of these grassroots level bodies from the elected representatives there and hand them over to the people of their choice. Sukhbir Badal will contest elections in Haryana. He also said that Shiromani Akali Dal will contest elections of Gurdwara Management Committee in Haryana to free the Gurudwaras from Congress and BJP supported Mahants. Patwaris started strike after imposition of ESMA. Employees left their pens and went on strike: After the imposition of Essential Services Maintenance Act by the Punjab Government, Patwaris and Kanungo Patwar Union had given a challenge to the CM: Patwar Union President Harveer Singh Dhindsa had challenged Chief Minister Bhagwant Mann to give these 3000 rupees to the unemployed as per his promise. Take the pan and make it sit in the circle. The union will welcome this. CM Mann challenged the strikers: Let us tell you that on August 30, CM Mann had given an open warning to the strikers that if they did not return to work, their services could be terminated. CM Mann had said this in the Golden Julbi Convention organized at Guru Nanak Dev University. After this, he had also said that the employees are free to leave their pens and go on strike, but the government will decide whether to return the pens again or not. It had started from September 11. Let us tell you that the demands for filling the vacant posts, giving promotions and other demands were Regarding this, the Patwari Union had warned of leaving their pens and going on strike from September 11. In view of the flood situation, the Chief Minister had implemented the Essential Services Maintenance Act (ESMA) in the state from August 30 to October 31. ESMA is imposed to stop the strike. Badal said that the punch</t>
   </si>
   <si>
+    <t>Updated: Fri, 01 Sep 2023 01:30 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-news-sad-supremo-sukhbir-badal-lashed-out-at-punjab-government-said-esma-should-be-imposed-on-cm-status-23518957.html</t>
   </si>
   <si>
@@ -472,51 +634,21 @@
     <t>Jati, Chandigarh/Amritsar, Samvad Sutra. Chief Minister Bhagwant Mann has taken strong notice of the threat from officers and employees of district offices in Punjab to go on a pen-and-strike from September 11. The government imposed the Essential Services Maintenance Act (ESMA) in the state late on Wednesday evening. These orders will remain in force till October 31. Due to this, now if the employees go on strike, action will be taken against them under this law and their services will be terminated. Special Chief Secretary K AP Sinha has also issued orders in this regard to all the District Magistrates. Criminal action will be taken against the violators. These orders will be applicable on Patwaris, Kanungo and employees and officers working in the District Deputy Commissioner offices. It has been said in the orders that during floods, these employees will have to work 24 hours to provide relief material to the people. Criminal action will also be taken against those who violate this. Earlier, on the occasion of Rakshabandhan in Amritsar, after giving appointment letters to 5714 Anganwadi workers and helpers at Guru Nanak Dev University, the Chief Minister bluntly said that the employees will leave their pens and go on strike. They are free, but the government will decide whether to return the pen again or not. Now the strike period will also not be included in the service. He said that those who harass the public by going on strike will not be tolerated at all, because many educated unemployed youth in the state are ready to take up his pen. They are going to go on strike from 11th to 13th September in support of Patwari. Also posted on Twitter (earlier on Twitter) and wrote that we have come to know that the employees of the district offices, including Patwari and employees, are going to go on strike from 11th to 13th September in support of a Patwari implicated in a bribery case. Mann has issued an order to the Chief Secretary saying that people of many districts are currently suffering from floods. In such a situation, it is not logical in any way for the DC office employees to go on strike. Trouble caused to people due to arbitrariness of revenue officers will not be tolerated at any cost. Patwari union continues on strike, meeting called in Chandigarh today. On the other hand, despite Chief Minister Bhagwant Mann's warning of imposing ESMA on striking employees, Patwari leave their pen strike. Insisted on doing. Union President Harveer Singh Dhindsa said that the provincial work of the union</t>
   </si>
   <si>
+    <t>Updated: Thu, 31 Aug 2023 06:30 AM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-esma-implemented-in-punjab-after-the-employees-strike-cm-said-cannot-tolerate-the-problems-caused-to-the-people-23517823.html</t>
   </si>
   <si>
-    <t>Punjab News: Three senior officers did not get relief in contempt case, hearing adjourned till November 17</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Three senior Punjab officials Vikas Garg, Ramakant Mishra, Vivek Pratap Singh have challenged the order of the single bench holding them guilty of contempt in the division batch. The division bench of Justice GS Sandhawalia and Justice Lupita Banerjee has currently adjourned the hearing till November 17 without giving any relief to these officers. Next hearing of the case on November 20, the single bench has ordered Additional Chief Secretary cum Finance Commissioner IAS Vikas Garg, Local Government Department. Principal Secretary of Forest Vivek Pratap Singh and Principal Chief Conservator of Forest Mohali IFS Ramakant Mishra were found guilty of disobeying the orders of the court. Then the High Court had ordered these officers that the punishment will be pronounced on the next hearing of the case on November 20. Also read: Punjab: I will file a defamation case against the CM, Mann said on maintaining silence in SC on the issue of stubble Sunil was de-listed from the Jakharland Preservation Act. The Single Bench had given this order on the petition of Gram Panchayat Badi Karoran. In the year 2010, 1092 acres of land of village Badi Karora and Nadda was de-listed from the Punjab Land Preservation Act. Also, a condition was imposed that no commercial activity or construction would be done here. The officials were held guilty of this. In 2014, on a petition, the High Court had ruled that if it is not forest land then these conditions will not be applicable, hence the new notification. Should be issued. The High Court was told that it was not forest land, yet the conditions were not removed. Petitions continued to be filed against this, but no action was taken. On October 12, the High Court had convicted these officers for not taking action despite orders. Also read: Punjab: Punjab Police came into action after the Supreme Court's rebuke, DGP Gaurav Yadav gave strict instructions. Single bench Additional Chief Secretary cum Finance Commissioner IAS Vikas Garg, Principal Secretary of Local Government Department Vivek Pratap Singh and Principal Chief Conservator of Forest Mohali IFS Ramakant Mishra were found guilty of disobeying the orders of the court. Then the High Court had ordered these officers that the punishment will be pronounced on the next hearing of the case on November 20. Also read: Punjab: I will file a defamation case against the CM, Mann said on maintaining silence in SC on the issue of stubble Sunil Ekal Bay was de-listed from Jakharland Preservation Act</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-three-senior-officers-did-not-get-relief-in-contempt-case-hearing-adjourned-till-november17-23576689.html</t>
-  </si>
-  <si>
-    <t>Punjab: I will file a defamation case against CM, Sunil Jakhar said on Mann's silence in SC on the stubble issue.</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. BJP State President Sunil Kumar Jakhar has asked Chief Minister Bhagwant Mann to apologize for the statements made by him regarding his father late Balram Jakhar. Jakhar said that the Chief Minister has twice publicly made baseless and false statements regarding his father, but till now the Chief Minister has not apologized, hence he will soon file a defamation case against him. Jakhar is contacting lawyers: Keep in mind that Chief Minister Mann had said that when Indira Gandhi came to Kapuri in Patiala district in 1982 to formally launch the excavation of the SYL canal, Balram Jakhar was also present with her along with other leaders. He said that at that time his father Balram Jakhar was the Speaker of the Lok Sabha, hence he did not go to any such program. Jakhar is in touch with senior lawyers to file a case against Mann. He said that if any comedian had said this, he would have ignored it, but this has been said by a person holding a responsible position like the Chief Minister. CM Mann did cheap politics. He said that about 10-12 years before the birth of Bhagwant Mann, Earlier his father had become an MLA in the same Punjab Assembly. His father always did clean politics, Mann should not make such allegations for his cheap politics. Especially when that person is not in this world to answer these allegations. He talked about running a pilot project of bio-decomposer in 5,000 acres. Regarding the controversial issue of stubble burning, Jakhar said that the Punjab government got the permission from the Supreme Court. The silence of the Punjab government on the occasion of reprimand raises many questions in this matter. He said that last year, the then Agriculture Minister Kuldeep Singh Dhaliwal, in collaboration with the Aam Aadmi Party government of Delhi, had talked about running a pilot project of bio-decomposer in 5,000 acres so that instead of burning the stubble, compost could be made in the field itself. The BJP President asked that if the pilot project was successful then why the government did not mention it while replying in the Supreme Court. He alleged that the failed project of the Delhi government was brought by the AAP government to Punjab also and here too it resulted in failure. Keep in mind that Chief Minister Mann had said that when Indira Gandhi went to Patiala in 1982 to formally launch the excavation of the SYL canal, When she came to Kapuri in the district, Balram Jakhar was also with her along with other leaders.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-i-will-file-a-defamation-case-against-the-cm-sunil-jakhar-said-on-mann-silence-in-sc-on-the-stubble-issue-23576161.html</t>
-  </si>
-  <si>
-    <t>Punjab: BJP officials submitted demand letter for action against Sandeep Dayma, who had made controversial remarks on Gurudwara.</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Punjab BJP leaders have started protesting against the controversial remarks made by Sandeep Dayma on Gurudwara during the election campaign in Rajasthan. On behalf of BJP officials, a demand letter was submitted to the station in-charge of Sector-39 police station to take action against Dayma. In the demand letter, action has been demanded against Dayma. The demand letter submitted by BJP Mahila Morcha State President Jatinder Kaur, BJP OBC Morcha State President Amarpal Singh Boney Ajnala, State Secretary Kanwarveer Singh Tehra and other officials said It has been said that strict action should be taken against Dayma. We are all BJP officials and our state office comes under police station 39, hence this complaint is being made in police station 39. Keep in mind that Sandeep Dayama had made wrong comments regarding Gurudwaras. Urged to uproot Gurudwaras and Mosques in an election speech. Following this, Shiromani Gurdwara Parbandhak Committee (SGPCC), Amritsar, in an internet media post said that this is condemnable. After which opposition to Dayma started within the party also. There is anger in the Sikh community regarding this. BJP leaders who came to Sector 39 to present the demand letter said that strictest action should be taken against Dayma. However, Dayma has apologized for the controversial words spoken on his behalf. The demands were submitted by BJP Mahila Morcha state president Jatinder Kaur, BJP OBC Morcha state president Amarpal Singh Boney Ajnala, state secretary Kanwarveer Singh Tehra and other officials. It has been said in the letter that strict action should be taken against Dayma. We are all BJP officials and our state office comes under police station 39, hence this complaint is being made in police station 39. Keep in mind that Sandeep Dayama had made wrong comments regarding Gurudwaras. Urged to uproot Gurudwaras and Mosques in an election speech. Following this, Shiromani Gurdwara Parbandhak Committee (SGPCC), Amritsar, in an internet media post said that this is condemnable. After which opposition to Dayma started within the party also. There is anger in the Sikh community regarding this. BJP leaders who came to Sector 39 to present the demand letter said that strictest action should be taken against Dayma. However, Dayma apologized for the controversial words spoken by him.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-bjp-officials-submitted-demand-letter-for-action-against-sandeep-dayma-who-had-made-controversial-remarks-on-gurudwara-23573730.html</t>
-  </si>
-  <si>
-    <t>Punjab: Now prisoners unable to pay the fine will not spend days in jail, money will be provided by the Center for their release.</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. The prisoners lodged in the jails of the state are unable to pay the fine and hence are lodged in the jails. Now such prisoners will not have to stay in jails. Such prisoners will soon come out of jails. For this, a plan has been prepared by the Centre. The Central Government will be helpful for the release of such prisoners. The Center has made a scheme for such needy prisoners. Under the scheme, the amount for bail will be given by the Centre. For this, the Center has written a letter to the Punjab Government. Also, orders have been given to complete this related guideline within the stipulated time. Also read: Punjab Crime: Blackmailing, fraud and bribery... Used to extort money by posing as AIG of Vigilance Bureau; This is how the police conducted the raid. Keep in mind that at present there are 26 jails. These include central, district and special women's jails. More than 30 thousand prisoners are lodged in them. There are many prisoners who are unable to pay the imposed fine. In such a situation, they are not able to come out of the jails, whereas due to this, their rights are being violated. Guidelines have been made for financial help. At the same time, the Central Government has made guidelines for the financial help given to the prisoners for their release. . According to this, now a committee will be formed at the district level. Which will assess all the cases of these prisoners. After this, the amount that will be withdrawn for payment of fine will be released on the orders of DC. Action will start soon. The Central Government has written in its letter that it is expected that action will start in this direction soon. Also all the information will be shared with them. The central government had made arrangements for this in the budget. The effort behind this is to bring people out of jails and connect them to the mainstream. The work of preparing data regarding how many such prisoners are there in the jails of the state has been started. Units have been set up in 14 jails as per today's needs. Keep in mind that in the same year, the Central Government has amended the Jail Act 1894 and the prisoners were made before the independence of the country. The Act was reviewed in 1900. After this, the Model Jail Act 2023 has been sent to implement the jail management and administration. Also read: Punjab Crime: Blackmailing, fraud and bribery... Used to extort money by calling himself AIG of Vigilance Bureau; This is how the police conducted the raid and orders in this regard have been issued to all the districts. Before this, the state government had installed units in 14 jails as per today's needs. in these</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-now-prisoners-unable-to-pay-fine-will-not-spend-days-in-jail-money-will-be-provided-by-central-govt-for-their-release-23573550.html</t>
-  </si>
-  <si>
-    <t>Punjab News: CM Mann's big decision amid strike of revenue officers, 741 trainee Patwaris deployed in the field</t>
+    <t>Punjab News: CM Mann's big decision amid strike of revenue officers, 741 trainee patwaris deployed in the field</t>
   </si>
   <si>
     <t>Chandigarh, PTI. Amid the agitation by Patwaris, Punjab Chief Minister Bhagwant Mann on Saturday announced to fill all the vacant posts by recruiting 586 Patwaris (revenue officers) as well as putting 741 undertraining Patwaris on field duty. CM Mann also directed to expedite the pending formalities in the recruitment of 710 candidates and give them appointment letters. After complaints received against several revenue officers, the Chief Minister announced the implementation of biometric attendance for Patwaris. Let us inform that a week ago, the Revenue Patwar Union had called for a strike after a corruption case was registered against a Patwari and a Kanungo in Sangrur district. Chief Minister Bhagwant Mann said in a video message on Saturday that there are a total of 3,660 Patwari circles. And out of these, 2,037 posts are lying vacant for the last several years. CM Mann said, "At present 741 candidates are undergoing training. Normally their training period is 18 months and they have completed 15 months. We are deploying them in the area. They are fully trained as Patwaris. "Candidates who have passed the exam will also get appointment letters soon. Similarly, there are 710 candidates for Patwari posts who have passed their exam but due to some incomplete documentary process like pending police verification, they have not received appointment letters. have been found. The CM said that he has directed the Home Department to complete this process within a week. So that appointment letters can be given to 710 candidates. Patwaris will be appointed on 586 posts soon. Chief Minister Mann further said that 586 posts of Patwaris will also be advertised soon. So that the youth of Punjab can be given an opportunity to serve the state. Mann said, with these steps a total of 2,037 circles will be filled where the posts of Patwaris are lying vacant. The Chief Minister said that he will not let the people suffer (due to the strike). After complaints were received against several revenue officials, the Chief Minister announced the implementation of biometric attendance for Patwaris. Let us inform that a week ago, the Revenue Patwar Union had called for a strike after a corruption case was registered against a Patwari and a Kanungo in Sangrur district. Chief Minister Bhagwant Mann said in a video message on Saturday that there are a total of 3,660 Patwari circles. And out of these, 2,037 posts are lying vacant for the last several years.</t>
   </si>
   <si>
+    <t>Updated: Sat, 02 Sep 2023 08:11 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-patwaris-agitation-cm-bhagwant-mann-announces-steps-to-fill-vacant-posts-of-revenue-officials-23520100.html</t>
   </si>
   <si>
@@ -526,6 +658,9 @@
     <t>Chandigarh, Inderpreet Singh. After the Patwari and Kanungo's Strike stopped working in the additional circle from Friday, the government has found a middle path instead of imposing Compulsory Services Maintenance Act (ESMA) on them. The government has given the responsibility of additional circles of two circles to 541 retired Patwaris. Apart from this, there is a plan to reduce the training period of 710 newly recruited Patwaris from 18 months to 15 months. 700 new Patwaris will also get appointment letters next week. They too will first be sent to the field and given training. The government claims that the situation will start coming under control from next week. Apart from this, the new recruitment of 586 Patwaris has also been approved by Chief Minister Bhagwant Mann. 1623 Patwaris are doing regular work. It is worth noting that regarding the strike of Patwaris, the government threatened that if anyone did so, then legal action would be taken against him. . The Patwaris hit back and said that they will work only in those circles where they have duty. He will not work in the circles where he has additional charge. There are a total of 3660 Patwar circles in the state, out of which 1623 Patwaris are working regularly. That means 2037 circles are vacant. If the Patwari does not work in these, then the work can be greatly affected. Since the Patwari has returned to work, it is difficult for the government to impose ESMA. To find a middle path, the government has made preparations to take the services of retired Patwaris. The government does not want to bow down before the Patwaris' strike. It is clear that the government does not want to bow down before the Patwaris' strike. Chief Minister Bhagwant Mann believes that ever since he assumed power, they have been threatening to go on strike for their small demands, due to which common people face difficulties in getting their work done. Despite knowing that most of the areas in Punjab are badly affected by floods, the work of their Girdawaris has not been completed. Compensation has to be distributed to them, but these people are threatening to go on strike. 700 new Patwaris will also get appointment letters next week. They too will first be sent to the field and given training. The government claims that the situation will start coming under control from next week. Apart from this, Chief Minister Bhagwant Mann has also approved the new recruitment of 586 Patwaris. 1623 Patwaris are doing regular work. It is noteworthy that in view of the Patwaris' strike.</t>
   </si>
   <si>
+    <t>Updated: Sat, 02 Sep 2023 03:46 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-the-government-found-a-middle-path-regarding-the-strikers-gave-the-responsibility-of-two-circles-to-retired-patwaris-23519844.html</t>
   </si>
   <si>
@@ -535,33 +670,21 @@
     <t>Chandigarh, State Bureau. Despite the imposition of the Essential Services Maintenance Act (ESMA) by the Punjab Government, the Patwari Union has started a Kalam Chor Strike in 3000 Patwar circles since Thursday. The Revenue Patwar Union President Harveer Singh Dhindsa has challenged that as per his promise, Chief Minister Bhagwant Mann should seat the unemployed in these 3000 circles with PAN. The union will welcome this. Dhindsa announced that the Patwari will look after the work of his circle only. Additionally, they will not function in the circle given to them. If the Deputy Commissioner puts pressure on the Patwaris for additional work, then a petition will be filed in the High Court in the name of that officer. He had warned of a strike from September 11, giving up his pen. Let us tell you that the Patwaris are demanding filling of vacant posts, giving promotions and other demands. The union had warned of leaving the pen and going on strike from September 11. In view of the flood situation, the Chief Minister had implemented the Essential Services Maintenance Act (ESMA) in the state from August 30 to October 31. ESMA is imposed to stop the strike. The Chief Minister had said yesterday that the employees are free to go on Kalamchod strike, but the government will decide whether to return the pens again or not. Now the strike period will also not be included in the service. There is absolutely no tolerance for those who harass people by going on strike, because many educated unemployed youth in the state are ready to take hold of their pen. CM had posted on Employees of the offices, including Patwari and Kanungo, are going on strike from September 11 to 13 in support of a Patwari implicated in a bribery case. Meanwhile, Union President Harveer Singh Dhindsa said, there are 4716 Patwari circles in the state. Out of which 3000 circles are lying vacant. CM had got the joining of Patwaris done on 6th July. The Chief Minister had got the joining of 1090 Patwaris done on 6th July 2023. During this time he had said that during the training he would be given a basic salary of Rs 19,900, but the Chief Minister did not live up to his promise. These Patwaris are getting only Rs 5000 per month. CM had said that Patwaris take a salary of one lakh. Pradhan said that Patwaris will work in their circle only. Additionally, Alat will not look after the functioning of the circle. Leave this pen and the strike should start from today itself.</t>
   </si>
   <si>
+    <t>Updated: Thu, 31 Aug 2023 05:43 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-news-patwaris-and-lawmen-leave-their-pens-and-strike-continues-cm-warned-said-keep-your-promise-23518298.html</t>
   </si>
   <si>
-    <t>Punjab: Punjab Police came into action after Supreme Court's rebuke, DGP Gaurav Yadav gave strict instructions</t>
-  </si>
-  <si>
-    <t>State Bureau, Chandigarh. Punjab Police has come into action after the Supreme Court's rebuke regarding the incidents of stubble burning. On Tuesday, Punjab's acting DGP Gaurav Yadav directed the SSPs of all the districts of the state to ensure that stubble is not burnt in their respective work areas. Action should be taken against farmers who burn stubble. Guidelines should be given to the SHOs of the concerned police stations regarding this. Yadav held a meeting with group senior officers, IG Range, DIG, police station incharges of districts of all states through video conferencing. No one involved in smuggling will be spared. DGP was asked to take a strict stance regarding stubble. Along with this, a review meeting was held regarding law and order in the state. The DGP instructed the police to remain alert during the festival season. During this period, special blockade and checking of vehicles coming from other states was asked. On behalf of the DGP, it was said that the general public should not face any kind of problem during the campaign. Police officers and employees were asked to take strict action regarding drugs. On behalf of the DGP, it was said that no one involved in drug smuggling will be spared. Special campaigns will be run in the coming days. During this, information was given by the SSP of the districts about the campaigns run in their respective districts. The DGP was informed about the districts where action was taken against gangsters. Detailed information was given about the gangsters caught during the operations conducted by Anti Gangster Task Force (AGTF), Special Task Force (ACTF) in collaboration with the district police. Special campaigns will be conducted by the police in the coming days. The DGP was asked to take a strict stance regarding stubble. Along with this, a review meeting was held regarding law and order in the state. The DGP instructed the police to remain alert during the festival season. During this period, special blockade and checking of vehicles coming from other states was asked. On behalf of the DGP, it was said that the general public should not face any kind of problem during the campaign. Police officers and employees were asked to take strict action regarding drugs. The DGP said that no one involved in drug smuggling will be spared. Special campaigns will be run in the coming days. During this, the campaigns run by the SSPs of the districts in their respective districts will be reviewed.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-punjab-punjab-police-came-into-action-after-supreme-court-rebuke-dgp-gaurav-yadav-gave-strict-instructions-23576162.html</t>
-  </si>
-  <si>
-    <t>Punjab Crime: Blackmailing, fraud and bribery... Used to extort money by pretending to be AIG of Vigilance Bureau; Police raided like this</t>
-  </si>
-  <si>
-    <t>Bureau, Chandigarh. Vigilance arrested Punjab Police's suspended AIG Human Rights Malvinder Singh Sidhu on Saturday. Last Friday, Mohali Police had registered a case and arrested Sidhu for misbehaving and pushing officers at the Vigilance Headquarters, but he got bail. Now on Saturday, Vigilance has arrested him on charges of extortion, fraud and taking bribe. It is alleged that Sidhu, while calling himself AIG, IG of Vigilance Bureau, has colluded with drivers Kuldeep Singh and Balbir Singh to kill Scheduled Castes and freedom fighters. Achieved the records of many persons in the departments of. Then they lodged complaints against them and blackmailed them. Kept taking bribes in exchange for withdrawal of complaints. The inspection of the matter is going on. There may be more arrests in the coming days. Let us tell you that Sidhu has been serving as AIG in the Human Rights Cell since 2017. He misused his official vehicle Ertiga (PB 65 AD 1905). Kept paying oil and other expenses from government account. Never kept record of usage (log book) of this vehicle. Sidhu had falsely identified himself as IG Vigilance Bureau Punjab to a data operator working in the office of Block Primary Education Officer, Rajpura and obtained a photocopy of the service book of a government teacher from him and stored his initials in his mobile. Photographs of the pages were taken. The allegation is that Sidhu, posing as AIG and IG of Vigilance Bureau, in collusion with drivers Kuldeep Singh and Balbir Singh, obtained the records of many persons in the departments of Scheduled Caste and Freedom Fighters. Then they lodged complaints against them and blackmailed them. Kept taking bribes in exchange for withdrawal of complaints. The inspection of the matter is going on. There may be more arrests in the coming days. Let us tell you that Sidhu has been serving as AIG in the Human Rights Cell since 2017. He misused his official vehicle Ertiga (PB 65 AD 1905). Kept paying oil and other expenses from government account. Never kept record of usage (log book) of this vehicle. Sidhu had falsely identified himself as IG Vigilance Bureau Punjab to a data operator working in the office of the Block Primary Education Officer, Rajpura and obtained a photocopy of the service book of a government teacher from him.</t>
-  </si>
-  <si>
-    <t>https://www.jagran.com/punjab/chandigarh-vigilance-arrested-punjab-police-suspended-aig-human-rights-malvinder-singh-sidhu-on-saturday-23573301.html</t>
-  </si>
-  <si>
     <t>Bhagwant Mann Interview: I.N.D.I.A. does not mean patronage of Congress, it is a misunderstanding- CM Bhagwant Mann</t>
   </si>
   <si>
     <t>Chandigarh. Bhagwant Mann Interview: Chief Minister Bhagwant Mann of the Aam Aadmi Party (AAP) government, which came to power about 17 months ago with the slogan of change in the politics of Punjab, believes that there is a misunderstanding regarding the formation of INDIA that this alliance means the patronage of Congress. He says that sometimes while keeping the interest of the country supreme, you have to put aside all the personal and political interests and drink some such “bitter sips” in which the benefit or loss of a particular party or individual is not seen. According to Bhagwant Mann, linking this alliance only with Congress is nothing more than 'political ignorance'. In an exclusive interview with Dainik Jagran's Punjab local editor Amit Sharma, Mann discussed in detail corruption and drugs along with many issues related to state and national politics. Here are the special excerpts of the conversation: The Congress which Bhagwant Mann ousted from power in Punjab and called it the kingpin of drugs and mafia rule, now there is talk of alliance with the same party by becoming a part of INDIA, how much will the people of the state be able to accept this? Do you like this? Why do you think that INDIA (I.N.D.I.A.) means Congress... This is your misunderstanding. The first and most important thing is that INDIA does not belong to Congress only. The name of an alliance of 26 parties is INDIA in which Congress is only an ally. Sharad Pawar and his party have as much importance in this as TMC and Mamata Banerjee. Stalin ji also has the same role and so does Akhilesh Yadav and other leaders. Why are you (media) considering INDIA only as a Congress-sponsored alliance? When we or any other ally have not made any such announcement yet, then it is not right to associate INDIA only with Congress. Do you think so? Don't you think that Aam Aadmi Party is going to harm itself by compromising with Congress in Punjab? In positive politics, decisions are not always taken keeping only the future of oneself or one's party at the center. Many times, for the interest of the country and to save the Constitution of the country, one has to drink bitter sips. This decision is also similar. At this time the Constitution is under attack. In such a situation, the decisive question before us is that if the Constitution of the country is destroyed and the country no longer exists, then what will we do with the parties? So we abandoned political thinking and thought about saving the Constitution in the interest of the country. When a decision is taken in the interest of the country or the Constitution, then what is the benefit and what is the harm? In the state</t>
   </si>
   <si>
+    <t>Updated: Sat, 02 Sep 2023 07:19 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-cm-bhagwant-mann-interview-on-india-alliance-congress-lok-sabha-election-2024-corruption-23520003.html</t>
   </si>
   <si>
@@ -571,6 +694,9 @@
     <t>Chandigarh, State Bureau. Punjab Chief Minister Bhagwant Singh Mann has threatened to sack the Patwaris and lawmen after they threatened to go on strike in favor of a Patwari implicated in a bribery case. Patwari and Kanungo Strike had threatened to leave the pen and go on strike, on which the Chief Minister said that the employees are free to leave the pen and go on strike but the government will decide whether to return the pen or not. The Chief Minister gave this warning on his Twitter. Giving on the handle, he said that the problems caused to the people due to the arbitrariness of the revenue officers will not be tolerated at any cost. CM Mann said that there are a large number of unemployed people in the state. He said that the employees including the revenue officers in the DC offices are planning to go on strike. We are free to do so, but the problems of the common people will not be tolerated. Bhagwant Singh Mann said that these officers are free to leave their pens and go on strike but then the state government will decide whether to return the pens or not. The Chief Minister took action against them in view of the proposed strike being held from September 11 to September 13. Have warned. Bhagwant Singh Mann said that there are a large number of unemployed youth in the state, who are ready to serve the state with a pen in hand. The Punjab government is committed to eradicating corruption from the state. He asked the officials not to act for their own interests or on charges of corruption. Don't drop your pen and go on strike in support of those facing hardships. The Chief Minister said in clear words that the Punjab government is committed to eradicating corruption from the state. He said that the state government has adopted a policy of not dealing with corruption at all. Mann made it clear that neither corrupt elements nor any of their supporters will be spared in the campaign to make the system transparent, clean and effective in the larger public interest. Quit pen strike will be held from 11 to 13 September. On the other hand, union president Tejinder Singh Nangal said that the Chief Minister had held a meeting regarding his demands on June 6, but the demands accepted in this meeting have not been fulfilled, due to which Quit the Pen strike will be held in the entire state from September 11 to September 13. It is worth noting that once former Chief Minister Pratap Singh Kairon had dismissed all the Patwaris of the state in a similar manner. The Chief Minister gave this warning on his Twitter handle.</t>
   </si>
   <si>
+    <t>Updated: Wed, 30 Aug 2023 04:06 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-chandigarh-news-chief-minister-mann-warning-on-patwari-and-kanungo-strike-said-all-will-be-sacked-23517343.html</t>
   </si>
   <si>
@@ -580,6 +706,9 @@
     <t>Chandigarh, Jagran Correspondent: Aam Aadmi Party has started preparations for the Lok Sabha elections 2024. In this sequence, three Lok Sabha constituency in-charges and nine district in-charges have been appointed in Punjab. The list was released by National General Secretary Sandeep Pathak, CM Bhagwant Mann and State Working Committee Chairman Buddha Ram. According to the list, Deepak Bansal from Ludhiana Lok Sabha constituency, Jalandhar Ashwani Aggarwal has been made in-charge from Lok Sabha constituency and Jagdev Singh Bam from Firozpur Lok Sabha constituency. At the same time, in-charges of nine districts have also been made. According to the list, Deepak Bansal from Ludhiana Lok Sabha constituency, Ashwani Aggarwal from Jalandhar Lok Sabha constituency and Jagdev Singh Bam from Ferozepur Lok Sabha constituency have been made in-charge. At the same time, in-charges of nine districts have also been made.</t>
   </si>
   <si>
+    <t>Updated: Thu, 31 Aug 2023 04:25 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-aam-aadmi-party-appointed-3-lok-sabha-and-9-district-in-charges-in-punjab-23518189.html</t>
   </si>
   <si>
@@ -589,13 +718,19 @@
     <t>Chandigarh, Jagran Digital Desk. Punjab government has withdrawn the decision to dissolve Panchayats (Panchayat Dissolve in Punjab). After this decision, Panchayats have been restored. Notification will be issued soon by the Punjab Government. The Punjab Government has presented all this information before the High Court (Punjab-Haryana High Court). The decision to dissolve the Panchayats was taken on August 10. Let us tell you that on August 10, 2023, the Punjab Government has dissolved all the Panchayats, Block Committees and District Councils. Orders were issued to dissolve it, against which a petition was filed in the Punjab and Haryana High Court demanding its cancellation. It has been said in the petition that the notification of August 10 is completely illegal, arbitrary and against the principles of natural justice. Sarpanches said - this Panchayat was dissolved wrongly. In the petition, the Sarpanches said that the notification is against the law. It was argued by the Sarpanches that all the Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. The petitioners had won the Sarpanch election and assumed office in January 2019. His tenure was till January 2024, but the state government has decided to hold the Gram Panchayat elections till December 31. Let us inform you that the Punjab Government had issued orders to dissolve all the Panchayats, Block Committees and District Councils on August 10, 2023. , against which a petition was filed in the Punjab and Haryana High Court demanding its cancellation. It has been said in the petition that the notification of August 10 is completely illegal, arbitrary and against the principles of natural justice. Sarpanches said - this Panchayat was dissolved wrongly. In the petition, the Sarpanches said that the notification is against the law. It was argued by the Sarpanches that all the Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. The petitioners had won the Sarpanch election and assumed office in January 2019. His tenure was till January 2024, but the state government has decided to hold the Gram Panchayat elections till December 31. In the petition, the sarpanches said that the notification is against the law. It was argued by the Sarpanches that all the Panchayats of Punjab were wrongly and illegally dissolved before the expiry of the tenure of the elected representatives. The petitioners had won the Sarpanch election and assumed office in January 2019. their worker</t>
   </si>
   <si>
+    <t>Updated: Thu, 31 Aug 2023 04:10 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-dissolve-panchayats-punjab-government-withdrew-the-decision-to-dissolve-panchayats-notification-will-be-issued-soon-23518184.html</t>
   </si>
   <si>
     <t>Punjab News: Regarding the strike of Patwaris, the government said - the situation will start coming under control from next week.</t>
   </si>
   <si>
-    <t>Chandigarh, Inderpreet Singh. Regarding the Patwari and Kanungo strike, the government has found a middle path instead of imposing the Essential Services Maintenance Act on them. The government claims that the situation will start coming under control from next week. It is worth noting that regarding the strike of Patwaris, the government threatened that if anyone did so, legal action would be taken against him. The Patwaris hit back and said that they will work only in those circles where they have duty. The employees have returned to work, it is difficult to impose ESMA, they will not work in the circles for which they have additional charge. It is worth noting that there are a total of 3660 circles in Punjab in which 1623 Patwaris are working regularly. That means 2037 circles are vacant. If the Patwari does not work in these, then the work can be greatly affected. Since the Patwari has returned to work, it is difficult for the government to impose ESMA. To find a middle path, it is going to take the services of 537 retired Patwaris. This is the demand... Initially, giving them more than one circle is also being considered because the Revenue Department has 741 such Patwaris who have undergone training. Taking has been started. This training is for 18 months but the government is considering reducing this period to 15 months. Actually, all of them currently get only Rs 5000 as stipend, their demand is that it should be increased to Rs 19 thousand. The government is considering regularizing them by reducing their probation period. The government does not want to bow down to the strike. Apart from this, 710 new Patwaris are being recruited. Only the appointment letter is yet to be given to them. The department is considering that by deputing them with retired Patwaris, they should first complete field training. This will help them and secondly these will also become trends. If this happens then work will start in most of the vacant circles. It is clear that the government does not want to bow down in front of the Patwaris' strike. Now the compensation has to be distributed by the government. Chief Minister Bhagwant Mann believes that ever since he assumed power, they keep threatening to strike for their small demands, due to which the common people People face difficulties in getting their work done. Despite knowing that most of the areas in Punjab are badly affected by floods, the work of their Girdawaris has not been completed.</t>
+    <t>Chandigarh, Inderpreet Singh. Regarding the Patwari and Kanungo strike, the government has found a middle path instead of imposing the Essential Services Maintenance Act on them. The government claims that the situation will start coming under control from next week. It is worth noting that regarding the strike of Patwaris, the government threatened that if anyone did so, legal action would be taken against him. The Patwaris hit back and said that they will work only in those circles where they have duty. The employees have returned to work, it is difficult to impose ESMA, they will not work in the circles for which they have additional charge. It is worth noting that there are a total of 3660 circles in Punjab in which 1623 Patwaris are working regularly. That means 2037 circles are vacant. If the Patwari does not work in these, then the work can be greatly affected. Since the Patwari has returned to work, it is difficult for the government to impose ESMA. To find a middle path, it is going to take the services of 537 retired Patwaris. This is the demand...Initially, consideration is being given to giving them more than one circle because the Revenue Department has 741 such Patwaris who have undergone training. Taking has been started. This training is for 18 months but the government is considering reducing this period to 15 months. In fact, all of them currently get only Rs 5000 as compensation and their demand is that it should be increased to Rs 19 thousand. The government is considering regularizing them by reducing their probation period. The government does not want to bow down to the strike. Apart from this, 710 new Patwaris are being recruited. Only the appointment letter is yet to be given to them. The department is considering that by deputing them with retired Patwaris, they should first complete field training. This will help them and secondly these will also become trends. If this happens then work will start in most of the vacant circles. It is clear that the government does not want to bow down in front of the Patwaris' strike. Now the compensation is to be distributed by the government. Chief Minister Bhagwant Mann believes that ever since he assumed power, they keep threatening to strike for their small demands, due to which the common people People face difficulties in getting their work done. Despite knowing that most of the areas in Punjab are badly affected by floods, the work of their Girdawaris has not been completed.</t>
+  </si>
+  <si>
+    <t>Updated: Fri, 01 Sep 2023 08:04 PM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-news-regarding-the-strike-of-patwaris-the-government-said-the-situation-will-start-coming-under-control-from-next-week-23519321.html</t>
@@ -607,6 +742,9 @@
     <t>Chandigarh, Jagran Team: In view of Rakshabandhan, the Punjab government has changed the timings of government schools and offices. On Wednesday i.e. 30th August, schools and offices will open two hours late. Government schools will open at 10 am instead of 8 am and government offices will open at 11 am instead of 9 am.</t>
   </si>
   <si>
+    <t>Updated: Tue, 29 Aug 2023 06:41 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-punjab-government-big-announcement-on-raksha-bandhan-change-timings-of-government-schools-and-offices-23516530.html</t>
   </si>
   <si>
@@ -616,13 +754,19 @@
     <t>Chandigarh, Jagran Digital Desk. Bhagwant Mann NewsOn the special occasion of Rakshabandhan, Punjab Chief Minister Bhagwant Mann gave gifts to 5714 Anganwadi sisters on Wednesday. Bhagwant Mann handed over appointment letters to Anganwadi workers and helpers. In the joy of getting the appointment letter, a sister working in Anganwadi also tied Rakhi to CM Bhagwant Mann. Today is a special day, because by giving appointment letters to 5714 sisters, we are making them a part of the Punjab Government's family...just like the Army takes care of its soldiers. It is our duty to take care of every living being of the government.. pic.twitter.com/yynP3ebdRy— Bhagwant Mann (@BhagwantMann) August 30, 2023 Chief Minister Bhagwant Mann said that today the daughters of Punjab are working in every field. I am doing good work. He said that the Punjab government is continuously working for women. He said that today is a special day, that is why we are making 5714 sisters a part of the Punjab Government family by giving them appointment letters. He said that just as the Army takes care of its soldiers, it is our duty to take care of every life. Today is a special day because by giving appointment letters to 5714 sisters, we are making them a part of the family of the Punjab Government… Just as the Army takes care of its soldiers, it is our duty to take care of every living being of the Government.. pic.twitter.com/ yynP3ebdRy— Bhagwant Mann (@BhagwantMann) August 30, 2023Chief Minister Bhagwant Mann said that today the daughters of Punjab are doing good work in every field. He said that the Punjab government is continuously working for women. He said that today is a special day, that is why we are making 5714 sisters a part of the Punjab Government family by giving them appointment letters. He said that just as the Army takes care of its soldiers, it is our duty to take care of every life. He said that just as the Army takes care of its soldiers, it is our duty to take care of every life. He said that just as the Army takes care of its soldiers, it is our duty to take care of every life.</t>
   </si>
   <si>
+    <t>Updated: Wed, 30 Aug 2023 07:37 PM (IST)</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/punjab/chandigarh-anganwadi-worker-ties-rakhi-to-punjab-cm-bhagwant-mann-chief-minister-hands-over-5714-appointment-letters-23517561.html</t>
   </si>
   <si>
-    <t>Hope of job rekindled among players who won medals in Tokyo Olympics, 10 players from Punjab were in the winning team</t>
+    <t>Hope of job rekindled among players who won medal in Tokyo Olympics, 10 players from Punjab were in the winning team</t>
   </si>
   <si>
     <t>Chandigarh, State Bureau. Tokyo Olympics: Punjabi players in the Indian Hockey Team, who were part of the Indian hockey team that won the bronze medal in the Tokyo Olympics, have their job hopes alive again. Punjab government can make him DSP. Chief Minister Bhagwant Mann himself has indicated this. The Chief Minister says that there were some obstacles in giving jobs to these players. Which has been removed. After the Chief Minister's announcement, the job hopes of those 9 players have been revived again. Captain Amarinder Singh had also announced to give them jobs. There were 10 players from Punjab in the Indian hockey team that won the bronze medal in the Tokyo Olympics. On August 12, 2021, during the felicitation ceremony of the players who won medals and participated in the Olympics, the then Chief Minister Captain Amarinder Singh had announced to give government jobs to all the medal winning players. Since Indian hockey team captain Manpreet Singh was already a DSP in Punjab Police, he was promoted to SP. The remaining 9 hockey players including Harmanpreet Singh (vice captain), Rupinder Pal Singh, Simranjeet Singh, Mandeep Singh, The Chief Minister had instructed the then Chief Secretary Vini Mahajan to give government jobs to Gurjant Singh, Shamsher Singh, Varun Kumar, Dilpreet Singh and Hardik Singh. Even after 2 years, the players could not get the jobs. Rs 2.51 crore was given to the winning players. Was honored on this occasion with an honorarium of Rs. At the same time, the then Governor VP Badnore, who was present as the chief guest at the ceremony, had also assured the players that if any player wants to get a job in Chandigarh, he will be given a job. Later Captain Amarinder Singh had to leave the post of Chief Minister. After Captain, Charanjit Singh Channi took over the responsibility of the Chief Minister and he also promised to provide jobs to the players, but even after two years, these winning players could not get jobs. CM said- These players are the capital of the country on Tuesday. While inaugurating Kheda Watan Punjab Diya, the Chief Minister said, the Indian hockey team which brought medals for the country will soon be given jobs. He said that all the hurdles have already been removed and now these nine players will be given jobs as per their qualifications. The Chief Minister had said that these players are the capital of the country and they will be handled well for the country.</t>
+  </si>
+  <si>
+    <t>Updated: Wed, 30 Aug 2023 05:41 PM (IST)</t>
   </si>
   <si>
     <t>https://www.jagran.com/punjab/chandigarh-hope-of-job-rekindled-among-players-who-won-medals-in-tokyo-olympics-10-players-from-punjab-were-in-the-winning-team-23517433.html</t>
@@ -970,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,934 +1156,850 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2006,12 +2066,6 @@
     <hyperlink ref="D61" r:id="rId60"/>
     <hyperlink ref="D62" r:id="rId61"/>
     <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
